--- a/karma-ts-howto.xlsx
+++ b/karma-ts-howto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Ivy\sample-karma-test-ts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Ivy\Github\karma-typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47051E30-554A-46A3-B1BA-8BD0C51157FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE981B6-09C0-4BA1-93AB-40714A75D8BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" activeTab="3" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
   </bookViews>
@@ -1171,6 +1171,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1179,57 +1182,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1258,11 +1210,59 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1611,160 +1611,160 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
@@ -1791,17 +1791,17 @@
     </row>
     <row r="25" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
     </row>
     <row r="26" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
@@ -1821,17 +1821,17 @@
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D31" s="8"/>
@@ -1858,17 +1858,17 @@
       <c r="L32" s="8"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D34" s="8"/>
@@ -1895,17 +1895,17 @@
       <c r="L35" s="8"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
@@ -1954,17 +1954,17 @@
       </c>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
@@ -1972,17 +1972,17 @@
       </c>
     </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
@@ -1990,17 +1990,17 @@
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
@@ -2008,17 +2008,17 @@
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
     </row>
     <row r="55" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
@@ -2036,17 +2036,17 @@
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
@@ -2069,138 +2069,138 @@
       </c>
     </row>
     <row r="65" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D65" s="30" t="s">
+      <c r="D65" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="32"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="16"/>
     </row>
     <row r="66" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D66" s="33"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="35"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="19"/>
     </row>
     <row r="67" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D67" s="33"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
-      <c r="L67" s="35"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="19"/>
     </row>
     <row r="68" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D68" s="33"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="34"/>
-      <c r="L68" s="35"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="19"/>
     </row>
     <row r="69" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D69" s="33"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="35"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="19"/>
     </row>
     <row r="70" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D70" s="33"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="34"/>
-      <c r="L70" s="35"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="19"/>
     </row>
     <row r="71" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D71" s="33"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="35"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="19"/>
     </row>
     <row r="72" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D72" s="33"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="34"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="35"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="19"/>
     </row>
     <row r="73" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D73" s="33"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="34"/>
-      <c r="L73" s="35"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="19"/>
     </row>
     <row r="74" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D74" s="33"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="34"/>
-      <c r="L74" s="35"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="19"/>
     </row>
     <row r="75" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D75" s="33"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="34"/>
-      <c r="L75" s="35"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="19"/>
     </row>
     <row r="76" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D76" s="36"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="38"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="22"/>
     </row>
     <row r="78" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
@@ -2208,17 +2208,17 @@
       </c>
     </row>
     <row r="79" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
     </row>
     <row r="80" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
@@ -2236,17 +2236,17 @@
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
@@ -2326,17 +2326,17 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -2344,138 +2344,138 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="18"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="18"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="28"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="18"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="28"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="18"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="18"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="18"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="28"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="18"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="28"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="18"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="18"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="18"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="28"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="21"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2582,114 +2582,114 @@
       </c>
     </row>
     <row r="17" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
-      <c r="Q17" s="13" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="Q17" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="23"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="34"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="28"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="37"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="28"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="37"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="28"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="37"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="26"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="37"/>
     </row>
     <row r="22" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="29"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="40"/>
     </row>
     <row r="23" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
@@ -2701,120 +2701,120 @@
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q25" s="13" t="s">
+      <c r="Q25" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="23"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="34"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q26" s="24"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="26"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="37"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q27" s="24"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="26"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="37"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q28" s="24"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="26"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="37"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q29" s="24"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="26"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="37"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q30" s="24"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="26"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="37"/>
     </row>
     <row r="31" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="26"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="37"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q32" s="24"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="26"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="37"/>
     </row>
     <row r="33" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="26"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="37"/>
     </row>
     <row r="34" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="25"/>
-      <c r="V34" s="25"/>
-      <c r="W34" s="25"/>
-      <c r="X34" s="26"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="37"/>
     </row>
     <row r="35" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="29"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="40"/>
     </row>
     <row r="36" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
@@ -2830,314 +2830,314 @@
       </c>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="15"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="25"/>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C42" s="16"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="18"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="28"/>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C43" s="16"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="18"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="28"/>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C44" s="16"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="18"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="28"/>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C45" s="16"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="18"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="28"/>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C46" s="16"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="18"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="28"/>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C47" s="16"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="18"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="28"/>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C48" s="16"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="18"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="28"/>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="16"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="18"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="28"/>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C50" s="16"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="18"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="28"/>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C51" s="16"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="18"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="28"/>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C52" s="16"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="18"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="28"/>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="16"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="18"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="28"/>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C54" s="16"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="18"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="28"/>
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="16"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="18"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="28"/>
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C56" s="16"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="18"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="28"/>
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="16"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="18"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="28"/>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C58" s="16"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="18"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="28"/>
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C59" s="16"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="18"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="28"/>
     </row>
     <row r="60" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C60" s="16"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="18"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="28"/>
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C61" s="16"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="18"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="28"/>
     </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C62" s="16"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="18"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="28"/>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C63" s="16"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="18"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="28"/>
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C64" s="16"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="18"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="28"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C65" s="16"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="18"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="28"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C66" s="16"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="18"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="28"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C67" s="16"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="18"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="28"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C68" s="19"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="21"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="31"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C69" s="5"/>
@@ -3156,270 +3156,270 @@
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="15"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="25"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C73" s="16"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="18"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="28"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C74" s="16"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="18"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="28"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C75" s="16"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="18"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="28"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C76" s="16"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="18"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="28"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C77" s="16"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="18"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="28"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C78" s="16"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="18"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="28"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C79" s="16"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="18"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="32"/>
+      <c r="K79" s="28"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C80" s="16"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="18"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="32"/>
+      <c r="K80" s="28"/>
     </row>
     <row r="81" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C81" s="16"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="18"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="32"/>
+      <c r="K81" s="28"/>
     </row>
     <row r="82" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C82" s="16"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="18"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="32"/>
+      <c r="J82" s="32"/>
+      <c r="K82" s="28"/>
     </row>
     <row r="83" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C83" s="16"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="18"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="32"/>
+      <c r="K83" s="28"/>
     </row>
     <row r="84" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C84" s="16"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="18"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="32"/>
+      <c r="K84" s="28"/>
     </row>
     <row r="85" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C85" s="16"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="18"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="28"/>
     </row>
     <row r="86" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C86" s="16"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="18"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="32"/>
+      <c r="K86" s="28"/>
     </row>
     <row r="87" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C87" s="16"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="18"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="28"/>
     </row>
     <row r="88" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C88" s="16"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="18"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="32"/>
+      <c r="K88" s="28"/>
     </row>
     <row r="89" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C89" s="16"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="18"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="32"/>
+      <c r="J89" s="32"/>
+      <c r="K89" s="28"/>
     </row>
     <row r="90" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C90" s="16"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="18"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="32"/>
+      <c r="K90" s="28"/>
     </row>
     <row r="91" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C91" s="16"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="18"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="28"/>
     </row>
     <row r="92" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C92" s="16"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="18"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="28"/>
     </row>
     <row r="93" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C93" s="16"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="18"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="32"/>
+      <c r="K93" s="28"/>
     </row>
     <row r="94" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C94" s="16"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="18"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="32"/>
+      <c r="K94" s="28"/>
     </row>
     <row r="95" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C95" s="19"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="20"/>
-      <c r="K95" s="21"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="30"/>
+      <c r="J95" s="30"/>
+      <c r="K95" s="31"/>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="4" t="s">
@@ -3427,160 +3427,160 @@
       </c>
     </row>
     <row r="99" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="13" t="s">
+      <c r="C99" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="22"/>
-      <c r="I99" s="22"/>
-      <c r="J99" s="22"/>
-      <c r="K99" s="22"/>
-      <c r="L99" s="22"/>
-      <c r="M99" s="22"/>
-      <c r="N99" s="23"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="33"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="33"/>
+      <c r="L99" s="33"/>
+      <c r="M99" s="33"/>
+      <c r="N99" s="34"/>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C100" s="24"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="25"/>
-      <c r="H100" s="25"/>
-      <c r="I100" s="25"/>
-      <c r="J100" s="25"/>
-      <c r="K100" s="25"/>
-      <c r="L100" s="25"/>
-      <c r="M100" s="25"/>
-      <c r="N100" s="26"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="36"/>
+      <c r="L100" s="36"/>
+      <c r="M100" s="36"/>
+      <c r="N100" s="37"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C101" s="24"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="25"/>
-      <c r="H101" s="25"/>
-      <c r="I101" s="25"/>
-      <c r="J101" s="25"/>
-      <c r="K101" s="25"/>
-      <c r="L101" s="25"/>
-      <c r="M101" s="25"/>
-      <c r="N101" s="26"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="36"/>
+      <c r="L101" s="36"/>
+      <c r="M101" s="36"/>
+      <c r="N101" s="37"/>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C102" s="24"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="25"/>
-      <c r="H102" s="25"/>
-      <c r="I102" s="25"/>
-      <c r="J102" s="25"/>
-      <c r="K102" s="25"/>
-      <c r="L102" s="25"/>
-      <c r="M102" s="25"/>
-      <c r="N102" s="26"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="36"/>
+      <c r="J102" s="36"/>
+      <c r="K102" s="36"/>
+      <c r="L102" s="36"/>
+      <c r="M102" s="36"/>
+      <c r="N102" s="37"/>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C103" s="24"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="25"/>
-      <c r="H103" s="25"/>
-      <c r="I103" s="25"/>
-      <c r="J103" s="25"/>
-      <c r="K103" s="25"/>
-      <c r="L103" s="25"/>
-      <c r="M103" s="25"/>
-      <c r="N103" s="26"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="37"/>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C104" s="24"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="25"/>
-      <c r="H104" s="25"/>
-      <c r="I104" s="25"/>
-      <c r="J104" s="25"/>
-      <c r="K104" s="25"/>
-      <c r="L104" s="25"/>
-      <c r="M104" s="25"/>
-      <c r="N104" s="26"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="36"/>
+      <c r="K104" s="36"/>
+      <c r="L104" s="36"/>
+      <c r="M104" s="36"/>
+      <c r="N104" s="37"/>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C105" s="24"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="25"/>
-      <c r="H105" s="25"/>
-      <c r="I105" s="25"/>
-      <c r="J105" s="25"/>
-      <c r="K105" s="25"/>
-      <c r="L105" s="25"/>
-      <c r="M105" s="25"/>
-      <c r="N105" s="26"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="36"/>
+      <c r="G105" s="36"/>
+      <c r="H105" s="36"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="36"/>
+      <c r="K105" s="36"/>
+      <c r="L105" s="36"/>
+      <c r="M105" s="36"/>
+      <c r="N105" s="37"/>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C106" s="24"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="25"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="25"/>
-      <c r="H106" s="25"/>
-      <c r="I106" s="25"/>
-      <c r="J106" s="25"/>
-      <c r="K106" s="25"/>
-      <c r="L106" s="25"/>
-      <c r="M106" s="25"/>
-      <c r="N106" s="26"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="36"/>
+      <c r="F106" s="36"/>
+      <c r="G106" s="36"/>
+      <c r="H106" s="36"/>
+      <c r="I106" s="36"/>
+      <c r="J106" s="36"/>
+      <c r="K106" s="36"/>
+      <c r="L106" s="36"/>
+      <c r="M106" s="36"/>
+      <c r="N106" s="37"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C107" s="24"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="25"/>
-      <c r="H107" s="25"/>
-      <c r="I107" s="25"/>
-      <c r="J107" s="25"/>
-      <c r="K107" s="25"/>
-      <c r="L107" s="25"/>
-      <c r="M107" s="25"/>
-      <c r="N107" s="26"/>
+      <c r="C107" s="35"/>
+      <c r="D107" s="36"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="36"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="36"/>
+      <c r="I107" s="36"/>
+      <c r="J107" s="36"/>
+      <c r="K107" s="36"/>
+      <c r="L107" s="36"/>
+      <c r="M107" s="36"/>
+      <c r="N107" s="37"/>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C108" s="24"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="25"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="25"/>
-      <c r="H108" s="25"/>
-      <c r="I108" s="25"/>
-      <c r="J108" s="25"/>
-      <c r="K108" s="25"/>
-      <c r="L108" s="25"/>
-      <c r="M108" s="25"/>
-      <c r="N108" s="26"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="36"/>
+      <c r="K108" s="36"/>
+      <c r="L108" s="36"/>
+      <c r="M108" s="36"/>
+      <c r="N108" s="37"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C109" s="27"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="28"/>
-      <c r="I109" s="28"/>
-      <c r="J109" s="28"/>
-      <c r="K109" s="28"/>
-      <c r="L109" s="28"/>
-      <c r="M109" s="28"/>
-      <c r="N109" s="29"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="39"/>
+      <c r="G109" s="39"/>
+      <c r="H109" s="39"/>
+      <c r="I109" s="39"/>
+      <c r="J109" s="39"/>
+      <c r="K109" s="39"/>
+      <c r="L109" s="39"/>
+      <c r="M109" s="39"/>
+      <c r="N109" s="40"/>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
@@ -3612,8 +3612,8 @@
   </sheetPr>
   <dimension ref="B3:K62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3638,17 +3638,17 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
@@ -3683,20 +3683,20 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="10" t="s">
         <v>93</v>
       </c>
       <c r="D17" s="8"/>
@@ -3709,17 +3709,17 @@
       <c r="K17" s="8"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="21" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
@@ -3732,94 +3732,94 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="32"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="16"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="35"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="19"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="35"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="35"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="19"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="35"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="19"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="35"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="33"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="35"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="19"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="36"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="38"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="22"/>
     </row>
     <row r="33" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
@@ -3832,17 +3832,17 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C36" s="8"/>
@@ -3877,17 +3877,17 @@
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
     </row>
     <row r="43" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>

--- a/karma-ts-howto.xlsx
+++ b/karma-ts-howto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Ivy\Github\karma-typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE981B6-09C0-4BA1-93AB-40714A75D8BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38FEDCB-A9CF-48F3-AA9D-C5DDE3BD1B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" activeTab="3" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" activeTab="2" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
   </bookViews>
   <sheets>
     <sheet name="Installation and Configuration" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
   <si>
     <t>Prerequisite:</t>
   </si>
@@ -288,40 +288,6 @@
     <t>File Heirarchy</t>
   </si>
   <si>
-    <t>{
-  "name": "sample-karma-test",
-  "version": "1.0.0",
-  "description": "Karma test sample",
-  "scripts": {
-    "test": "karma start karma.conf.js"
-  },
-  "author": "Your Name",
-  "devDependencies": {
-    "chai": "^2.1.0",
-    "core-util-is": "^1.0.2",
-    "gulp": "^4.0.2",
-    "istanbul": "^0.3.6",
-    "jshint": "^2.6.0",
-    "karma": "^0.12.37",
-    "karma-chai": "^0.1.0",
-    "karma-chrome-launcher": "^0.1.7",
-    "karma-cli": "0.0.4",
-    "karma-coverage": "^0.2.7",
-    "karma-fixture": "^0.2.1-1",
-    "karma-html-reporter": "^0.2.7",
-    "karma-html2js-preprocessor": "*",
-    "karma-htmlfile-reporter": "^0.3.8",
-    "karma-ie-launcher": "^1.0.0",
-    "karma-jasmine-html-reporter": "^1.5.3",
-    "karma-mocha": "^0.1.10",
-    "karma-ng-html2js-preprocessor": "^1.0.0",
-    "karma-phantomjs-launcher": "^0.1.4",
-    "mocha": "^2.1.0",
-    "webpack-dev-server": "^3.10.3"
-  }
-}</t>
-  </si>
-  <si>
     <t>Summary of execution is added to 'test' folder as specified on karma.conf.js file's htmlReporter.outputFile.</t>
   </si>
   <si>
@@ -350,25 +316,6 @@
     <t>Accessing file</t>
   </si>
   <si>
-    <t>function isMatching(str1, str2) {
-    if (str1 === str2) {
-        return true;
-    } else {
-        return false;
-    }
-};</t>
-  </si>
-  <si>
-    <t>describe('#isMatching()', function() {
-   it('returns true if the values match', function() {
-      assert.equal(true, isMatching("hello", "hello"));
-   });
-   it('returns false if the values does not match', function() {
-      assert.equal(false, isMatching("hello", "hi"));
-   });
-});</t>
-  </si>
-  <si>
     <t>Without accessing file</t>
   </si>
   <si>
@@ -379,162 +326,6 @@
   </si>
   <si>
     <t>Sample output during execution:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">module.exports = function (config) {
-    config.set({
-      frameworks: ['mocha', 'chai'],
-      files: [ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>//files to be used for execution</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-          './src/*.js',
-          './test/*.js'
-      ],
-      preprocessors: { //</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>source files to generate coverage report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-          './src/*.js': 'coverage'
-      },
-      reporters: ['progress', 'coverage', 'html'],
-      htmlReporter: {
-          outputFile: './test/test-results.html' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>//test result output</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-      },
-      port: 9876,  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>// karma web server port</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-      colors: true,
-      client: {
-          clearContext: false
-      },
-      logLevel: config.LOG_INFO,
-      browsers: ['Chrome', 'IE'],</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> //browsers to be used for execution</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-      autoWatch: false,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> //enable/disable watching files</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-      concurrency: Infinity,
-      singleRun: true</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> //if true, start and capture all configured browsers then run tests</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-  })
-}</t>
-    </r>
   </si>
   <si>
     <t>Typescript is not included on installation so you should manually install Typescript.</t>
@@ -937,12 +728,146 @@
   <si>
     <t>npm install --save-dev @types/mocha</t>
   </si>
+  <si>
+    <t>When browser (in this case, I used Chrome) is launched, click "DEBUG".</t>
+  </si>
+  <si>
+    <t>It will open a blank page on new tab. Open Chrome Developer Tools and on Console, check what causes the error.</t>
+  </si>
+  <si>
+    <t>7. Tests are not executed when using Chrome (Executed 0 of 0 ERROR)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Set mime property to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>karma.conf.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>module.exports = function (config) {
+    config.set({
+      ...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+      mime: {
+        "text/x-typescript": ["ts", "tsx"]
+      },
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">      ...
+    })
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>function addNumber(a: number, b: number) : number {
+  return a + b;
+};</t>
+  </si>
+  <si>
+    <t>describe('#addNumber()', function() {
+   it('will add', function() {
+      expect(addNumber(10, 5).toBe(15);
+   });
+});</t>
+  </si>
+  <si>
+    <t>{
+  "name": "sample-karma-ts-test",
+  "version": "1.0.0",
+  "description": "Karma test sample",
+  "scripts": {
+    "test": "karma start karma.conf.js"
+  },
+  "author": "Ivy",
+  "devDependencies": {
+    "@types/jasmine": "^3.4.0",
+    "jasmine-core": "^3.4.0",
+    "karma": "^4.3.0",
+    "karma-chrome-launcher": "^3.1.0",
+    "karma-cli": "^2.0.0",
+    "karma-htmlfile-reporter": "^0.3.8",
+    "karma-ie-launcher": "^1.0.0",
+    "karma-jasmine": "^2.0.1",
+    "karma-typescript": "latest",
+    "typescript": "1.6.2"
+  }
+}</t>
+  </si>
+  <si>
+    <t>module.exports = function(config) {
+    config.set({
+        frameworks: ["jasmine", "karma-typescript"],
+        files: [
+            { pattern: "src/*.ts" },
+            { pattern: "test/*.ts"}
+        ],
+        preprocessors: {
+            "./src/*.ts": ["karma-typescript"]
+        },
+        reporters: ["progress", "html", "karma-typescript"],
+        htmlReporter: {
+            outputFile: "./test/test-results.html"
+        },
+        mime: {
+            "text/x-typescript": ["ts", "tsx"]
+        },
+        port: 9876,  // karma web server port
+        colors: true,
+        client: {
+            clearContext: false
+        },
+        logLevel: config.LOG_INFO,
+        browsers: ["Chrome", "IE"],
+        autoWatch: false,
+        concurrency: Infinity,
+        singleRun: true
+    });
+};</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1032,6 +957,24 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1047,7 +990,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1150,11 +1093,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1264,6 +1244,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1279,6 +1303,254 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>541957</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>171214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFEDCBDD-A054-4633-9DEC-ABCF0CDE46DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="8134350"/>
+          <a:ext cx="7742857" cy="1885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A223FB93-8EB8-4B18-8D77-D7F5A4FEDF7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="9791700"/>
+          <a:ext cx="5581650" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-PH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>427976</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>171381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE64949-C960-4574-8081-12CA2A9FDCA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="10610850"/>
+          <a:ext cx="5190476" cy="552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Speech Bubble: Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D8806D-00C1-4371-9631-A4AD9C00CECC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7124699" y="10506075"/>
+          <a:ext cx="3076575" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -99014"/>
+            <a:gd name="adj2" fmla="val -1050"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100"/>
+            <a:t>Tested both IE and Chrome.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-PH" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100"/>
+            <a:t>Chrome:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100" baseline="0"/>
+            <a:t> MIME type error</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100" baseline="0"/>
+            <a:t>IE: OK</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-PH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1846,7 +2118,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -1859,7 +2131,7 @@
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D33" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
@@ -1883,7 +2155,7 @@
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -1896,7 +2168,7 @@
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D36" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
@@ -1909,7 +2181,7 @@
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -1932,7 +2204,7 @@
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -1945,12 +2217,12 @@
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.25">
@@ -1986,12 +2258,12 @@
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D49" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
@@ -2004,12 +2276,12 @@
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D52" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
@@ -2065,12 +2337,12 @@
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D65" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
@@ -2204,12 +2476,12 @@
     </row>
     <row r="78" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D79" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
@@ -2222,17 +2494,17 @@
     </row>
     <row r="80" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
@@ -2255,12 +2527,12 @@
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -2291,7 +2563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC732316-EC1A-4386-A955-03D9EA5A8CC0}">
   <dimension ref="B2:J23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:J23"/>
     </sheetView>
   </sheetViews>
@@ -2302,22 +2574,22 @@
   <sheetData>
     <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -2340,12 +2612,12 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -2488,10 +2760,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6C7849-FFE0-44AA-A86A-9E4A7026ED91}">
-  <dimension ref="B3:X112"/>
+  <dimension ref="B3:Y98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2535,7 +2807,7 @@
     <row r="9" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2567,10 +2839,10 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2578,12 +2850,12 @@
         <v>24</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
@@ -2594,7 +2866,7 @@
       <c r="J17" s="24"/>
       <c r="K17" s="25"/>
       <c r="Q17" s="23" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="R17" s="33"/>
       <c r="S17" s="33"/>
@@ -2604,7 +2876,7 @@
       <c r="W17" s="33"/>
       <c r="X17" s="34"/>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C18" s="26"/>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
@@ -2623,7 +2895,7 @@
       <c r="W18" s="36"/>
       <c r="X18" s="37"/>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C19" s="26"/>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
@@ -2642,7 +2914,7 @@
       <c r="W19" s="36"/>
       <c r="X19" s="37"/>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C20" s="26"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
@@ -2652,16 +2924,16 @@
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
       <c r="K20" s="28"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="37"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Q20" s="38"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="40"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C21" s="29"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
@@ -2671,48 +2943,57 @@
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
       <c r="K21" s="31"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="37"/>
-    </row>
-    <row r="22" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q21" s="54"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="56"/>
+    </row>
+    <row r="22" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="40"/>
-    </row>
-    <row r="23" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+    </row>
+    <row r="23" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="P24" s="4" t="s">
+      <c r="P23" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q25" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="34"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Q24" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="34"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Q25" s="35"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="37"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="Q26" s="35"/>
       <c r="R26" s="36"/>
       <c r="S26" s="36"/>
@@ -2722,7 +3003,7 @@
       <c r="W26" s="36"/>
       <c r="X26" s="37"/>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="Q27" s="35"/>
       <c r="R27" s="36"/>
       <c r="S27" s="36"/>
@@ -2732,117 +3013,121 @@
       <c r="W27" s="36"/>
       <c r="X27" s="37"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q28" s="35"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="37"/>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q29" s="35"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="37"/>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q30" s="35"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="37"/>
-    </row>
-    <row r="31" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="37"/>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q32" s="35"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="37"/>
-    </row>
-    <row r="33" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="2"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="37"/>
-    </row>
-    <row r="34" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="37"/>
-    </row>
-    <row r="35" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="40"/>
-    </row>
-    <row r="36" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="38" spans="2:24" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
+    <row r="28" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="40"/>
+    </row>
+    <row r="29" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="31" spans="2:25" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C41" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="25"/>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C34" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="25"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C35" s="26"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="28"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C36" s="26"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="28"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C37" s="26"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="28"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C38" s="26"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="28"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C39" s="26"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="28"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C40" s="26"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="28"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C41" s="26"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="28"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C42" s="26"/>
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
@@ -2853,7 +3138,7 @@
       <c r="J42" s="32"/>
       <c r="K42" s="28"/>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C43" s="26"/>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
@@ -2864,7 +3149,7 @@
       <c r="J43" s="32"/>
       <c r="K43" s="28"/>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C44" s="26"/>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
@@ -2875,7 +3160,7 @@
       <c r="J44" s="32"/>
       <c r="K44" s="28"/>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C45" s="26"/>
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
@@ -2886,7 +3171,7 @@
       <c r="J45" s="32"/>
       <c r="K45" s="28"/>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C46" s="26"/>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
@@ -2897,7 +3182,7 @@
       <c r="J46" s="32"/>
       <c r="K46" s="28"/>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C47" s="26"/>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
@@ -2908,7 +3193,7 @@
       <c r="J47" s="32"/>
       <c r="K47" s="28"/>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C48" s="26"/>
       <c r="D48" s="32"/>
       <c r="E48" s="32"/>
@@ -2919,7 +3204,7 @@
       <c r="J48" s="32"/>
       <c r="K48" s="28"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C49" s="26"/>
       <c r="D49" s="32"/>
       <c r="E49" s="32"/>
@@ -2930,7 +3215,7 @@
       <c r="J49" s="32"/>
       <c r="K49" s="28"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C50" s="26"/>
       <c r="D50" s="32"/>
       <c r="E50" s="32"/>
@@ -2941,7 +3226,7 @@
       <c r="J50" s="32"/>
       <c r="K50" s="28"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C51" s="26"/>
       <c r="D51" s="32"/>
       <c r="E51" s="32"/>
@@ -2952,62 +3237,56 @@
       <c r="J51" s="32"/>
       <c r="K51" s="28"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C52" s="26"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="28"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="26"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="28"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C54" s="26"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="28"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="26"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="28"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C56" s="26"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="28"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C52" s="29"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="31"/>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C56" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="25"/>
+      <c r="N56" s="55"/>
+      <c r="O56" s="55"/>
+      <c r="P56" s="55"/>
+      <c r="Q56" s="55"/>
+      <c r="R56" s="55"/>
+      <c r="S56" s="55"/>
+      <c r="T56" s="55"/>
+      <c r="U56" s="55"/>
+      <c r="V56" s="55"/>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C57" s="26"/>
       <c r="D57" s="32"/>
       <c r="E57" s="32"/>
@@ -3017,8 +3296,17 @@
       <c r="I57" s="32"/>
       <c r="J57" s="32"/>
       <c r="K57" s="28"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="N57" s="55"/>
+      <c r="O57" s="55"/>
+      <c r="P57" s="55"/>
+      <c r="Q57" s="55"/>
+      <c r="R57" s="55"/>
+      <c r="S57" s="55"/>
+      <c r="T57" s="55"/>
+      <c r="U57" s="55"/>
+      <c r="V57" s="55"/>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C58" s="26"/>
       <c r="D58" s="32"/>
       <c r="E58" s="32"/>
@@ -3028,8 +3316,17 @@
       <c r="I58" s="32"/>
       <c r="J58" s="32"/>
       <c r="K58" s="28"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="N58" s="55"/>
+      <c r="O58" s="55"/>
+      <c r="P58" s="55"/>
+      <c r="Q58" s="55"/>
+      <c r="R58" s="55"/>
+      <c r="S58" s="55"/>
+      <c r="T58" s="55"/>
+      <c r="U58" s="55"/>
+      <c r="V58" s="55"/>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C59" s="26"/>
       <c r="D59" s="32"/>
       <c r="E59" s="32"/>
@@ -3039,8 +3336,17 @@
       <c r="I59" s="32"/>
       <c r="J59" s="32"/>
       <c r="K59" s="28"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="N59" s="55"/>
+      <c r="O59" s="55"/>
+      <c r="P59" s="55"/>
+      <c r="Q59" s="55"/>
+      <c r="R59" s="55"/>
+      <c r="S59" s="55"/>
+      <c r="T59" s="55"/>
+      <c r="U59" s="55"/>
+      <c r="V59" s="55"/>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C60" s="26"/>
       <c r="D60" s="32"/>
       <c r="E60" s="32"/>
@@ -3050,8 +3356,17 @@
       <c r="I60" s="32"/>
       <c r="J60" s="32"/>
       <c r="K60" s="28"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="N60" s="55"/>
+      <c r="O60" s="55"/>
+      <c r="P60" s="55"/>
+      <c r="Q60" s="55"/>
+      <c r="R60" s="55"/>
+      <c r="S60" s="55"/>
+      <c r="T60" s="55"/>
+      <c r="U60" s="55"/>
+      <c r="V60" s="55"/>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C61" s="26"/>
       <c r="D61" s="32"/>
       <c r="E61" s="32"/>
@@ -3061,8 +3376,17 @@
       <c r="I61" s="32"/>
       <c r="J61" s="32"/>
       <c r="K61" s="28"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="N61" s="55"/>
+      <c r="O61" s="55"/>
+      <c r="P61" s="55"/>
+      <c r="Q61" s="55"/>
+      <c r="R61" s="55"/>
+      <c r="S61" s="55"/>
+      <c r="T61" s="55"/>
+      <c r="U61" s="55"/>
+      <c r="V61" s="55"/>
+    </row>
+    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C62" s="26"/>
       <c r="D62" s="32"/>
       <c r="E62" s="32"/>
@@ -3072,8 +3396,17 @@
       <c r="I62" s="32"/>
       <c r="J62" s="32"/>
       <c r="K62" s="28"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="N62" s="55"/>
+      <c r="O62" s="55"/>
+      <c r="P62" s="55"/>
+      <c r="Q62" s="55"/>
+      <c r="R62" s="55"/>
+      <c r="S62" s="55"/>
+      <c r="T62" s="55"/>
+      <c r="U62" s="55"/>
+      <c r="V62" s="55"/>
+    </row>
+    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C63" s="26"/>
       <c r="D63" s="32"/>
       <c r="E63" s="32"/>
@@ -3083,8 +3416,17 @@
       <c r="I63" s="32"/>
       <c r="J63" s="32"/>
       <c r="K63" s="28"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="N63" s="55"/>
+      <c r="O63" s="55"/>
+      <c r="P63" s="55"/>
+      <c r="Q63" s="55"/>
+      <c r="R63" s="55"/>
+      <c r="S63" s="55"/>
+      <c r="T63" s="55"/>
+      <c r="U63" s="55"/>
+      <c r="V63" s="55"/>
+    </row>
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C64" s="26"/>
       <c r="D64" s="32"/>
       <c r="E64" s="32"/>
@@ -3094,8 +3436,17 @@
       <c r="I64" s="32"/>
       <c r="J64" s="32"/>
       <c r="K64" s="28"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N64" s="55"/>
+      <c r="O64" s="55"/>
+      <c r="P64" s="55"/>
+      <c r="Q64" s="55"/>
+      <c r="R64" s="55"/>
+      <c r="S64" s="55"/>
+      <c r="T64" s="55"/>
+      <c r="U64" s="55"/>
+      <c r="V64" s="55"/>
+    </row>
+    <row r="65" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C65" s="26"/>
       <c r="D65" s="32"/>
       <c r="E65" s="32"/>
@@ -3105,8 +3456,17 @@
       <c r="I65" s="32"/>
       <c r="J65" s="32"/>
       <c r="K65" s="28"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N65" s="55"/>
+      <c r="O65" s="55"/>
+      <c r="P65" s="55"/>
+      <c r="Q65" s="55"/>
+      <c r="R65" s="55"/>
+      <c r="S65" s="55"/>
+      <c r="T65" s="55"/>
+      <c r="U65" s="55"/>
+      <c r="V65" s="55"/>
+    </row>
+    <row r="66" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C66" s="26"/>
       <c r="D66" s="32"/>
       <c r="E66" s="32"/>
@@ -3116,8 +3476,17 @@
       <c r="I66" s="32"/>
       <c r="J66" s="32"/>
       <c r="K66" s="28"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N66" s="55"/>
+      <c r="O66" s="55"/>
+      <c r="P66" s="55"/>
+      <c r="Q66" s="55"/>
+      <c r="R66" s="55"/>
+      <c r="S66" s="55"/>
+      <c r="T66" s="55"/>
+      <c r="U66" s="55"/>
+      <c r="V66" s="55"/>
+    </row>
+    <row r="67" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C67" s="26"/>
       <c r="D67" s="32"/>
       <c r="E67" s="32"/>
@@ -3127,48 +3496,117 @@
       <c r="I67" s="32"/>
       <c r="J67" s="32"/>
       <c r="K67" s="28"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C68" s="29"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="31"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C72" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="25"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N67" s="55"/>
+      <c r="O67" s="55"/>
+      <c r="P67" s="55"/>
+      <c r="Q67" s="55"/>
+      <c r="R67" s="55"/>
+      <c r="S67" s="55"/>
+      <c r="T67" s="55"/>
+      <c r="U67" s="55"/>
+      <c r="V67" s="55"/>
+    </row>
+    <row r="68" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C68" s="26"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="28"/>
+      <c r="N68" s="55"/>
+      <c r="O68" s="55"/>
+      <c r="P68" s="55"/>
+      <c r="Q68" s="55"/>
+      <c r="R68" s="55"/>
+      <c r="S68" s="55"/>
+      <c r="T68" s="55"/>
+      <c r="U68" s="55"/>
+      <c r="V68" s="55"/>
+    </row>
+    <row r="69" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C69" s="26"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="28"/>
+      <c r="N69" s="55"/>
+      <c r="O69" s="55"/>
+      <c r="P69" s="55"/>
+      <c r="Q69" s="55"/>
+      <c r="R69" s="55"/>
+      <c r="S69" s="55"/>
+      <c r="T69" s="55"/>
+      <c r="U69" s="55"/>
+      <c r="V69" s="55"/>
+    </row>
+    <row r="70" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C70" s="26"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="28"/>
+      <c r="N70" s="55"/>
+      <c r="O70" s="55"/>
+      <c r="P70" s="55"/>
+      <c r="Q70" s="55"/>
+      <c r="R70" s="55"/>
+      <c r="S70" s="55"/>
+      <c r="T70" s="55"/>
+      <c r="U70" s="55"/>
+      <c r="V70" s="55"/>
+    </row>
+    <row r="71" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C71" s="26"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="28"/>
+      <c r="N71" s="55"/>
+      <c r="O71" s="55"/>
+      <c r="P71" s="55"/>
+      <c r="Q71" s="55"/>
+      <c r="R71" s="55"/>
+      <c r="S71" s="55"/>
+      <c r="T71" s="55"/>
+      <c r="U71" s="55"/>
+      <c r="V71" s="55"/>
+    </row>
+    <row r="72" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C72" s="26"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="28"/>
+      <c r="N72" s="55"/>
+      <c r="O72" s="55"/>
+      <c r="P72" s="55"/>
+      <c r="Q72" s="55"/>
+      <c r="R72" s="55"/>
+      <c r="S72" s="55"/>
+      <c r="T72" s="55"/>
+      <c r="U72" s="55"/>
+      <c r="V72" s="55"/>
+    </row>
+    <row r="73" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C73" s="26"/>
       <c r="D73" s="32"/>
       <c r="E73" s="32"/>
@@ -3178,8 +3616,17 @@
       <c r="I73" s="32"/>
       <c r="J73" s="32"/>
       <c r="K73" s="28"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N73" s="55"/>
+      <c r="O73" s="55"/>
+      <c r="P73" s="55"/>
+      <c r="Q73" s="55"/>
+      <c r="R73" s="55"/>
+      <c r="S73" s="55"/>
+      <c r="T73" s="55"/>
+      <c r="U73" s="55"/>
+      <c r="V73" s="55"/>
+    </row>
+    <row r="74" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C74" s="26"/>
       <c r="D74" s="32"/>
       <c r="E74" s="32"/>
@@ -3189,8 +3636,17 @@
       <c r="I74" s="32"/>
       <c r="J74" s="32"/>
       <c r="K74" s="28"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N74" s="55"/>
+      <c r="O74" s="55"/>
+      <c r="P74" s="55"/>
+      <c r="Q74" s="55"/>
+      <c r="R74" s="55"/>
+      <c r="S74" s="55"/>
+      <c r="T74" s="55"/>
+      <c r="U74" s="55"/>
+      <c r="V74" s="55"/>
+    </row>
+    <row r="75" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C75" s="26"/>
       <c r="D75" s="32"/>
       <c r="E75" s="32"/>
@@ -3200,8 +3656,17 @@
       <c r="I75" s="32"/>
       <c r="J75" s="32"/>
       <c r="K75" s="28"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N75" s="55"/>
+      <c r="O75" s="55"/>
+      <c r="P75" s="55"/>
+      <c r="Q75" s="55"/>
+      <c r="R75" s="55"/>
+      <c r="S75" s="55"/>
+      <c r="T75" s="55"/>
+      <c r="U75" s="55"/>
+      <c r="V75" s="55"/>
+    </row>
+    <row r="76" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C76" s="26"/>
       <c r="D76" s="32"/>
       <c r="E76" s="32"/>
@@ -3211,8 +3676,17 @@
       <c r="I76" s="32"/>
       <c r="J76" s="32"/>
       <c r="K76" s="28"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N76" s="55"/>
+      <c r="O76" s="55"/>
+      <c r="P76" s="55"/>
+      <c r="Q76" s="55"/>
+      <c r="R76" s="55"/>
+      <c r="S76" s="55"/>
+      <c r="T76" s="55"/>
+      <c r="U76" s="55"/>
+      <c r="V76" s="55"/>
+    </row>
+    <row r="77" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C77" s="26"/>
       <c r="D77" s="32"/>
       <c r="E77" s="32"/>
@@ -3222,8 +3696,17 @@
       <c r="I77" s="32"/>
       <c r="J77" s="32"/>
       <c r="K77" s="28"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N77" s="55"/>
+      <c r="O77" s="55"/>
+      <c r="P77" s="55"/>
+      <c r="Q77" s="55"/>
+      <c r="R77" s="55"/>
+      <c r="S77" s="55"/>
+      <c r="T77" s="55"/>
+      <c r="U77" s="55"/>
+      <c r="V77" s="55"/>
+    </row>
+    <row r="78" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C78" s="26"/>
       <c r="D78" s="32"/>
       <c r="E78" s="32"/>
@@ -3233,8 +3716,17 @@
       <c r="I78" s="32"/>
       <c r="J78" s="32"/>
       <c r="K78" s="28"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N78" s="55"/>
+      <c r="O78" s="55"/>
+      <c r="P78" s="55"/>
+      <c r="Q78" s="55"/>
+      <c r="R78" s="55"/>
+      <c r="S78" s="55"/>
+      <c r="T78" s="55"/>
+      <c r="U78" s="55"/>
+      <c r="V78" s="55"/>
+    </row>
+    <row r="79" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C79" s="26"/>
       <c r="D79" s="32"/>
       <c r="E79" s="32"/>
@@ -3244,8 +3736,17 @@
       <c r="I79" s="32"/>
       <c r="J79" s="32"/>
       <c r="K79" s="28"/>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N79" s="55"/>
+      <c r="O79" s="55"/>
+      <c r="P79" s="55"/>
+      <c r="Q79" s="55"/>
+      <c r="R79" s="55"/>
+      <c r="S79" s="55"/>
+      <c r="T79" s="55"/>
+      <c r="U79" s="55"/>
+      <c r="V79" s="55"/>
+    </row>
+    <row r="80" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C80" s="26"/>
       <c r="D80" s="32"/>
       <c r="E80" s="32"/>
@@ -3255,351 +3756,215 @@
       <c r="I80" s="32"/>
       <c r="J80" s="32"/>
       <c r="K80" s="28"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C81" s="26"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="32"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="32"/>
-      <c r="I81" s="32"/>
-      <c r="J81" s="32"/>
-      <c r="K81" s="28"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C82" s="26"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="32"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="32"/>
-      <c r="J82" s="32"/>
-      <c r="K82" s="28"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C83" s="26"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="32"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="32"/>
-      <c r="J83" s="32"/>
-      <c r="K83" s="28"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C84" s="26"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="32"/>
-      <c r="J84" s="32"/>
-      <c r="K84" s="28"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C85" s="26"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="32"/>
-      <c r="J85" s="32"/>
-      <c r="K85" s="28"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C86" s="26"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="32"/>
-      <c r="J86" s="32"/>
-      <c r="K86" s="28"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C87" s="26"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="32"/>
-      <c r="K87" s="28"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C88" s="26"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="32"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="32"/>
-      <c r="J88" s="32"/>
-      <c r="K88" s="28"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C89" s="26"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="32"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="32"/>
-      <c r="J89" s="32"/>
-      <c r="K89" s="28"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C90" s="26"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="32"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="32"/>
-      <c r="J90" s="32"/>
-      <c r="K90" s="28"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C91" s="26"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="32"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="32"/>
-      <c r="I91" s="32"/>
-      <c r="J91" s="32"/>
-      <c r="K91" s="28"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C92" s="26"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="32"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="32"/>
-      <c r="J92" s="32"/>
-      <c r="K92" s="28"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C93" s="26"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="32"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="32"/>
-      <c r="I93" s="32"/>
-      <c r="J93" s="32"/>
-      <c r="K93" s="28"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C94" s="26"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="32"/>
-      <c r="I94" s="32"/>
-      <c r="J94" s="32"/>
-      <c r="K94" s="28"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C95" s="29"/>
-      <c r="D95" s="30"/>
-      <c r="E95" s="30"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="30"/>
-      <c r="H95" s="30"/>
-      <c r="I95" s="30"/>
-      <c r="J95" s="30"/>
-      <c r="K95" s="31"/>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B98" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D99" s="33"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="33"/>
-      <c r="G99" s="33"/>
-      <c r="H99" s="33"/>
-      <c r="I99" s="33"/>
-      <c r="J99" s="33"/>
-      <c r="K99" s="33"/>
-      <c r="L99" s="33"/>
-      <c r="M99" s="33"/>
-      <c r="N99" s="34"/>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C100" s="35"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="36"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
-      <c r="J100" s="36"/>
-      <c r="K100" s="36"/>
-      <c r="L100" s="36"/>
-      <c r="M100" s="36"/>
-      <c r="N100" s="37"/>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C101" s="35"/>
-      <c r="D101" s="36"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="36"/>
-      <c r="K101" s="36"/>
-      <c r="L101" s="36"/>
-      <c r="M101" s="36"/>
-      <c r="N101" s="37"/>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C102" s="35"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="36"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
-      <c r="J102" s="36"/>
-      <c r="K102" s="36"/>
-      <c r="L102" s="36"/>
-      <c r="M102" s="36"/>
-      <c r="N102" s="37"/>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C103" s="35"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="36"/>
-      <c r="L103" s="36"/>
-      <c r="M103" s="36"/>
-      <c r="N103" s="37"/>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C104" s="35"/>
-      <c r="D104" s="36"/>
-      <c r="E104" s="36"/>
-      <c r="F104" s="36"/>
-      <c r="G104" s="36"/>
-      <c r="H104" s="36"/>
-      <c r="I104" s="36"/>
-      <c r="J104" s="36"/>
-      <c r="K104" s="36"/>
-      <c r="L104" s="36"/>
-      <c r="M104" s="36"/>
-      <c r="N104" s="37"/>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C105" s="35"/>
-      <c r="D105" s="36"/>
-      <c r="E105" s="36"/>
-      <c r="F105" s="36"/>
-      <c r="G105" s="36"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="36"/>
-      <c r="J105" s="36"/>
-      <c r="K105" s="36"/>
-      <c r="L105" s="36"/>
-      <c r="M105" s="36"/>
-      <c r="N105" s="37"/>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C106" s="35"/>
-      <c r="D106" s="36"/>
-      <c r="E106" s="36"/>
-      <c r="F106" s="36"/>
-      <c r="G106" s="36"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="36"/>
-      <c r="J106" s="36"/>
-      <c r="K106" s="36"/>
-      <c r="L106" s="36"/>
-      <c r="M106" s="36"/>
-      <c r="N106" s="37"/>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C107" s="35"/>
-      <c r="D107" s="36"/>
-      <c r="E107" s="36"/>
-      <c r="F107" s="36"/>
-      <c r="G107" s="36"/>
-      <c r="H107" s="36"/>
-      <c r="I107" s="36"/>
-      <c r="J107" s="36"/>
-      <c r="K107" s="36"/>
-      <c r="L107" s="36"/>
-      <c r="M107" s="36"/>
-      <c r="N107" s="37"/>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C108" s="35"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="36"/>
-      <c r="J108" s="36"/>
-      <c r="K108" s="36"/>
-      <c r="L108" s="36"/>
-      <c r="M108" s="36"/>
-      <c r="N108" s="37"/>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C109" s="38"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="39"/>
-      <c r="F109" s="39"/>
-      <c r="G109" s="39"/>
-      <c r="H109" s="39"/>
-      <c r="I109" s="39"/>
-      <c r="J109" s="39"/>
-      <c r="K109" s="39"/>
-      <c r="L109" s="39"/>
-      <c r="M109" s="39"/>
-      <c r="N109" s="40"/>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C111" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
-        <v>44</v>
+      <c r="N80" s="55"/>
+      <c r="O80" s="55"/>
+      <c r="P80" s="55"/>
+      <c r="Q80" s="55"/>
+      <c r="R80" s="55"/>
+      <c r="S80" s="55"/>
+      <c r="T80" s="55"/>
+      <c r="U80" s="55"/>
+      <c r="V80" s="55"/>
+    </row>
+    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C81" s="29"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="31"/>
+      <c r="N81" s="55"/>
+      <c r="O81" s="55"/>
+      <c r="P81" s="55"/>
+      <c r="Q81" s="55"/>
+      <c r="R81" s="55"/>
+      <c r="S81" s="55"/>
+      <c r="T81" s="55"/>
+      <c r="U81" s="55"/>
+      <c r="V81" s="55"/>
+    </row>
+    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="33"/>
+      <c r="L85" s="33"/>
+      <c r="M85" s="33"/>
+      <c r="N85" s="34"/>
+    </row>
+    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C86" s="35"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="37"/>
+    </row>
+    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C87" s="35"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="37"/>
+    </row>
+    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C88" s="35"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="37"/>
+    </row>
+    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C89" s="35"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="37"/>
+    </row>
+    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C90" s="35"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="37"/>
+    </row>
+    <row r="91" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C91" s="35"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="37"/>
+    </row>
+    <row r="92" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C92" s="35"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="37"/>
+    </row>
+    <row r="93" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C93" s="35"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
+      <c r="L93" s="36"/>
+      <c r="M93" s="36"/>
+      <c r="N93" s="37"/>
+    </row>
+    <row r="94" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C94" s="35"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="37"/>
+    </row>
+    <row r="95" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C95" s="38"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="39"/>
+      <c r="L95" s="39"/>
+      <c r="M95" s="39"/>
+      <c r="N95" s="40"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C41:K68"/>
-    <mergeCell ref="C72:K95"/>
+    <mergeCell ref="C34:K52"/>
+    <mergeCell ref="C56:K81"/>
     <mergeCell ref="C17:K21"/>
-    <mergeCell ref="C99:N109"/>
-    <mergeCell ref="Q17:X22"/>
-    <mergeCell ref="Q25:X35"/>
+    <mergeCell ref="C85:N95"/>
+    <mergeCell ref="Q24:X28"/>
+    <mergeCell ref="Q17:X20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3610,10 +3975,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B3:K62"/>
+  <dimension ref="B3:K70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3624,22 +3989,22 @@
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -3664,27 +4029,27 @@
     <row r="9" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C16" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -3697,7 +4062,7 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C17" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -3710,7 +4075,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C18" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
@@ -3723,126 +4088,126 @@
     </row>
     <row r="21" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
+        <v>66</v>
+      </c>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="46"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="19"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="49"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="19"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="49"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="19"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="49"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="19"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="49"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="19"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="49"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="19"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="49"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="22"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="52"/>
     </row>
     <row r="33" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
+      <c r="C35" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="44"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C36" s="8"/>
@@ -3868,43 +4233,149 @@
     </row>
     <row r="38" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C40" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
+      <c r="C40" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="44"/>
     </row>
     <row r="43" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="9"/>
+      <c r="B43" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C63" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="16"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C64" s="17"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="19"/>
+    </row>
+    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C65" s="17"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="19"/>
+    </row>
+    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C66" s="17"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="19"/>
+    </row>
+    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C67" s="17"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="19"/>
+    </row>
+    <row r="68" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C68" s="17"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="19"/>
+    </row>
+    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C69" s="17"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="19"/>
+    </row>
+    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C70" s="20"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="C63:K70"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="C35:K35"/>
+    <mergeCell ref="C23:K30"/>
     <mergeCell ref="C7:K7"/>
     <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C23:K30"/>
-    <mergeCell ref="C35:K35"/>
-    <mergeCell ref="C40:K40"/>
     <mergeCell ref="C18:K18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/karma-ts-howto.xlsx
+++ b/karma-ts-howto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Ivy\Github\karma-typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38FEDCB-A9CF-48F3-AA9D-C5DDE3BD1B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FAC5B5-1E0D-44CE-A195-05FE5CE98974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" activeTab="2" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
+    <workbookView xWindow="4020" yWindow="3045" windowWidth="15375" windowHeight="7875" tabRatio="771" activeTab="2" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
   </bookViews>
   <sheets>
     <sheet name="Installation and Configuration" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="104">
   <si>
     <t>Prerequisite:</t>
   </si>
@@ -861,6 +861,31 @@
         singleRun: true
     });
 };</t>
+  </si>
+  <si>
+    <t>8. Cannot find function "X"</t>
+  </si>
+  <si>
+    <t>In 'include' in tsconfig.json, specify all files to be included on test.</t>
+  </si>
+  <si>
+    <t>tsconfig.json</t>
+  </si>
+  <si>
+    <t>{
+  "compileOnSave": false,
+  "compilerOptions": {
+     "module": "commonjs",
+     "noImplicitAny": true,
+     "esModuleInterop": true,
+     "forceConsistentCasingInFileNames": true
+  },
+  "include": [
+     "./src/*.ts",
+     "test/src.ts"
+  ],
+  "exclude": ["node_modules", "coverage"]
+}</t>
   </si>
 </sst>
 </file>
@@ -1154,6 +1179,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1244,7 +1277,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1278,16 +1313,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1852,7 +1877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2654A1-97C9-4994-AFAB-B0BA5D559350}">
   <dimension ref="B2:L89"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A76" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
@@ -1883,160 +1908,160 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
@@ -2063,17 +2088,17 @@
     </row>
     <row r="25" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
     </row>
     <row r="26" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
@@ -2093,17 +2118,17 @@
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D31" s="8"/>
@@ -2130,17 +2155,17 @@
       <c r="L32" s="8"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D34" s="8"/>
@@ -2167,17 +2192,17 @@
       <c r="L35" s="8"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
@@ -2226,17 +2251,17 @@
       </c>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
@@ -2244,17 +2269,17 @@
       </c>
     </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
@@ -2262,17 +2287,17 @@
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
@@ -2280,17 +2305,17 @@
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
     </row>
     <row r="55" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
@@ -2308,17 +2333,17 @@
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
@@ -2341,138 +2366,138 @@
       </c>
     </row>
     <row r="65" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="16"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="20"/>
     </row>
     <row r="66" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D66" s="17"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="19"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="23"/>
     </row>
     <row r="67" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D67" s="17"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="19"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="23"/>
     </row>
     <row r="68" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D68" s="17"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="19"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="23"/>
     </row>
     <row r="69" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D69" s="17"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="19"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="23"/>
     </row>
     <row r="70" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D70" s="17"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="19"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="23"/>
     </row>
     <row r="71" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D71" s="17"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="19"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="23"/>
     </row>
     <row r="72" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D72" s="17"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="19"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="23"/>
     </row>
     <row r="73" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D73" s="17"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="19"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="23"/>
     </row>
     <row r="74" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D74" s="17"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="19"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="23"/>
     </row>
     <row r="75" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D75" s="17"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="19"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="23"/>
     </row>
     <row r="76" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D76" s="20"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="22"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="26"/>
     </row>
     <row r="78" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
@@ -2480,17 +2505,17 @@
       </c>
     </row>
     <row r="79" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="11"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
     </row>
     <row r="80" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
@@ -2508,17 +2533,17 @@
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11"/>
-      <c r="K84" s="11"/>
-      <c r="L84" s="11"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
@@ -2598,17 +2623,17 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -2616,138 +2641,138 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="28"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="32"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="32"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="32"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="28"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="32"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="32"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="28"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="28"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="28"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="32"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="28"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2760,10 +2785,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6C7849-FFE0-44AA-A86A-9E4A7026ED91}">
-  <dimension ref="B3:Y98"/>
+  <dimension ref="B3:Y115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M62" sqref="M62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2836,993 +2861,982 @@
     </row>
     <row r="14" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+      <c r="D14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+    <row r="17" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P17" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="23" t="s">
+    <row r="18" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
-      <c r="Q17" s="23" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29"/>
+      <c r="Q18" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="34"/>
-    </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C18" s="26"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="28"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="38"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C19" s="26"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="28"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="37"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="32"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="41"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C20" s="26"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="28"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="40"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="32"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="41"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="31"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="56"/>
-    </row>
-    <row r="22" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="M22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="32"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="44"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="14"/>
     </row>
     <row r="23" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
-      <c r="P23" s="4" t="s">
+      <c r="M23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+    </row>
+    <row r="24" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="P24" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="Q24" s="23" t="s">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Q25" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="34"/>
-    </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="Q25" s="35"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="38"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="Q26" s="35"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="37"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="41"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="Q27" s="35"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="37"/>
-    </row>
-    <row r="28" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="40"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="41"/>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Q28" s="39"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="41"/>
     </row>
     <row r="29" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
-    </row>
-    <row r="31" spans="2:25" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="7" t="s">
+      <c r="Q29" s="42"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="44"/>
+    </row>
+    <row r="30" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="32" spans="2:25" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C34" s="23" t="s">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C35" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="25"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="26"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="29"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C36" s="26"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="28"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="32"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C37" s="26"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="28"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="32"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C38" s="26"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="28"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="32"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C39" s="26"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="28"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="32"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C40" s="26"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="28"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="32"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C41" s="26"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="28"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="32"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C42" s="26"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="28"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="32"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="26"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="28"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="32"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="26"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="28"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="32"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C45" s="26"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="28"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="32"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C46" s="26"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="28"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="32"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C47" s="26"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="28"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="32"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C48" s="26"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="28"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="32"/>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C49" s="26"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="28"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="32"/>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C50" s="26"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="28"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="32"/>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C51" s="26"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="28"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="32"/>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C52" s="29"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="31"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="32"/>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-    </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B55" s="4" t="s">
+      <c r="C53" s="33"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="35"/>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C56" s="23" t="s">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C57" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="25"/>
-      <c r="N56" s="55"/>
-      <c r="O56" s="55"/>
-      <c r="P56" s="55"/>
-      <c r="Q56" s="55"/>
-      <c r="R56" s="55"/>
-      <c r="S56" s="55"/>
-      <c r="T56" s="55"/>
-      <c r="U56" s="55"/>
-      <c r="V56" s="55"/>
-    </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C57" s="26"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="28"/>
-      <c r="N57" s="55"/>
-      <c r="O57" s="55"/>
-      <c r="P57" s="55"/>
-      <c r="Q57" s="55"/>
-      <c r="R57" s="55"/>
-      <c r="S57" s="55"/>
-      <c r="T57" s="55"/>
-      <c r="U57" s="55"/>
-      <c r="V57" s="55"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="29"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13"/>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C58" s="26"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="28"/>
-      <c r="N58" s="55"/>
-      <c r="O58" s="55"/>
-      <c r="P58" s="55"/>
-      <c r="Q58" s="55"/>
-      <c r="R58" s="55"/>
-      <c r="S58" s="55"/>
-      <c r="T58" s="55"/>
-      <c r="U58" s="55"/>
-      <c r="V58" s="55"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="32"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="13"/>
+      <c r="V58" s="13"/>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C59" s="26"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="28"/>
-      <c r="N59" s="55"/>
-      <c r="O59" s="55"/>
-      <c r="P59" s="55"/>
-      <c r="Q59" s="55"/>
-      <c r="R59" s="55"/>
-      <c r="S59" s="55"/>
-      <c r="T59" s="55"/>
-      <c r="U59" s="55"/>
-      <c r="V59" s="55"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="32"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="13"/>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C60" s="26"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="28"/>
-      <c r="N60" s="55"/>
-      <c r="O60" s="55"/>
-      <c r="P60" s="55"/>
-      <c r="Q60" s="55"/>
-      <c r="R60" s="55"/>
-      <c r="S60" s="55"/>
-      <c r="T60" s="55"/>
-      <c r="U60" s="55"/>
-      <c r="V60" s="55"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="32"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="13"/>
+      <c r="V60" s="13"/>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C61" s="26"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="28"/>
-      <c r="N61" s="55"/>
-      <c r="O61" s="55"/>
-      <c r="P61" s="55"/>
-      <c r="Q61" s="55"/>
-      <c r="R61" s="55"/>
-      <c r="S61" s="55"/>
-      <c r="T61" s="55"/>
-      <c r="U61" s="55"/>
-      <c r="V61" s="55"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="32"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13"/>
+      <c r="V61" s="13"/>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C62" s="26"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="28"/>
-      <c r="N62" s="55"/>
-      <c r="O62" s="55"/>
-      <c r="P62" s="55"/>
-      <c r="Q62" s="55"/>
-      <c r="R62" s="55"/>
-      <c r="S62" s="55"/>
-      <c r="T62" s="55"/>
-      <c r="U62" s="55"/>
-      <c r="V62" s="55"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="32"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="13"/>
+      <c r="V62" s="13"/>
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C63" s="26"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="28"/>
-      <c r="N63" s="55"/>
-      <c r="O63" s="55"/>
-      <c r="P63" s="55"/>
-      <c r="Q63" s="55"/>
-      <c r="R63" s="55"/>
-      <c r="S63" s="55"/>
-      <c r="T63" s="55"/>
-      <c r="U63" s="55"/>
-      <c r="V63" s="55"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="32"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="13"/>
+      <c r="U63" s="13"/>
+      <c r="V63" s="13"/>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C64" s="26"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="28"/>
-      <c r="N64" s="55"/>
-      <c r="O64" s="55"/>
-      <c r="P64" s="55"/>
-      <c r="Q64" s="55"/>
-      <c r="R64" s="55"/>
-      <c r="S64" s="55"/>
-      <c r="T64" s="55"/>
-      <c r="U64" s="55"/>
-      <c r="V64" s="55"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="32"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="13"/>
+      <c r="U64" s="13"/>
+      <c r="V64" s="13"/>
     </row>
     <row r="65" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C65" s="26"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="28"/>
-      <c r="N65" s="55"/>
-      <c r="O65" s="55"/>
-      <c r="P65" s="55"/>
-      <c r="Q65" s="55"/>
-      <c r="R65" s="55"/>
-      <c r="S65" s="55"/>
-      <c r="T65" s="55"/>
-      <c r="U65" s="55"/>
-      <c r="V65" s="55"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="32"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="13"/>
+      <c r="U65" s="13"/>
+      <c r="V65" s="13"/>
     </row>
     <row r="66" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C66" s="26"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="28"/>
-      <c r="N66" s="55"/>
-      <c r="O66" s="55"/>
-      <c r="P66" s="55"/>
-      <c r="Q66" s="55"/>
-      <c r="R66" s="55"/>
-      <c r="S66" s="55"/>
-      <c r="T66" s="55"/>
-      <c r="U66" s="55"/>
-      <c r="V66" s="55"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="32"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="13"/>
+      <c r="U66" s="13"/>
+      <c r="V66" s="13"/>
     </row>
     <row r="67" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C67" s="26"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="28"/>
-      <c r="N67" s="55"/>
-      <c r="O67" s="55"/>
-      <c r="P67" s="55"/>
-      <c r="Q67" s="55"/>
-      <c r="R67" s="55"/>
-      <c r="S67" s="55"/>
-      <c r="T67" s="55"/>
-      <c r="U67" s="55"/>
-      <c r="V67" s="55"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="32"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
+      <c r="T67" s="13"/>
+      <c r="U67" s="13"/>
+      <c r="V67" s="13"/>
     </row>
     <row r="68" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C68" s="26"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="28"/>
-      <c r="N68" s="55"/>
-      <c r="O68" s="55"/>
-      <c r="P68" s="55"/>
-      <c r="Q68" s="55"/>
-      <c r="R68" s="55"/>
-      <c r="S68" s="55"/>
-      <c r="T68" s="55"/>
-      <c r="U68" s="55"/>
-      <c r="V68" s="55"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="32"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13"/>
+      <c r="S68" s="13"/>
+      <c r="T68" s="13"/>
+      <c r="U68" s="13"/>
+      <c r="V68" s="13"/>
     </row>
     <row r="69" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C69" s="26"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="28"/>
-      <c r="N69" s="55"/>
-      <c r="O69" s="55"/>
-      <c r="P69" s="55"/>
-      <c r="Q69" s="55"/>
-      <c r="R69" s="55"/>
-      <c r="S69" s="55"/>
-      <c r="T69" s="55"/>
-      <c r="U69" s="55"/>
-      <c r="V69" s="55"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="32"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
+      <c r="T69" s="13"/>
+      <c r="U69" s="13"/>
+      <c r="V69" s="13"/>
     </row>
     <row r="70" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C70" s="26"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="28"/>
-      <c r="N70" s="55"/>
-      <c r="O70" s="55"/>
-      <c r="P70" s="55"/>
-      <c r="Q70" s="55"/>
-      <c r="R70" s="55"/>
-      <c r="S70" s="55"/>
-      <c r="T70" s="55"/>
-      <c r="U70" s="55"/>
-      <c r="V70" s="55"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="32"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="13"/>
+      <c r="U70" s="13"/>
+      <c r="V70" s="13"/>
     </row>
     <row r="71" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C71" s="26"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="32"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="28"/>
-      <c r="N71" s="55"/>
-      <c r="O71" s="55"/>
-      <c r="P71" s="55"/>
-      <c r="Q71" s="55"/>
-      <c r="R71" s="55"/>
-      <c r="S71" s="55"/>
-      <c r="T71" s="55"/>
-      <c r="U71" s="55"/>
-      <c r="V71" s="55"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="32"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="13"/>
+      <c r="U71" s="13"/>
+      <c r="V71" s="13"/>
     </row>
     <row r="72" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C72" s="26"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="32"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="28"/>
-      <c r="N72" s="55"/>
-      <c r="O72" s="55"/>
-      <c r="P72" s="55"/>
-      <c r="Q72" s="55"/>
-      <c r="R72" s="55"/>
-      <c r="S72" s="55"/>
-      <c r="T72" s="55"/>
-      <c r="U72" s="55"/>
-      <c r="V72" s="55"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="32"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="13"/>
+      <c r="V72" s="13"/>
     </row>
     <row r="73" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C73" s="26"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="28"/>
-      <c r="N73" s="55"/>
-      <c r="O73" s="55"/>
-      <c r="P73" s="55"/>
-      <c r="Q73" s="55"/>
-      <c r="R73" s="55"/>
-      <c r="S73" s="55"/>
-      <c r="T73" s="55"/>
-      <c r="U73" s="55"/>
-      <c r="V73" s="55"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="32"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="13"/>
+      <c r="U73" s="13"/>
+      <c r="V73" s="13"/>
     </row>
     <row r="74" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C74" s="26"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="28"/>
-      <c r="N74" s="55"/>
-      <c r="O74" s="55"/>
-      <c r="P74" s="55"/>
-      <c r="Q74" s="55"/>
-      <c r="R74" s="55"/>
-      <c r="S74" s="55"/>
-      <c r="T74" s="55"/>
-      <c r="U74" s="55"/>
-      <c r="V74" s="55"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="32"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="13"/>
+      <c r="S74" s="13"/>
+      <c r="T74" s="13"/>
+      <c r="U74" s="13"/>
+      <c r="V74" s="13"/>
     </row>
     <row r="75" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C75" s="26"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="28"/>
-      <c r="N75" s="55"/>
-      <c r="O75" s="55"/>
-      <c r="P75" s="55"/>
-      <c r="Q75" s="55"/>
-      <c r="R75" s="55"/>
-      <c r="S75" s="55"/>
-      <c r="T75" s="55"/>
-      <c r="U75" s="55"/>
-      <c r="V75" s="55"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="32"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13"/>
+      <c r="U75" s="13"/>
+      <c r="V75" s="13"/>
     </row>
     <row r="76" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C76" s="26"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="32"/>
-      <c r="G76" s="32"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="32"/>
-      <c r="J76" s="32"/>
-      <c r="K76" s="28"/>
-      <c r="N76" s="55"/>
-      <c r="O76" s="55"/>
-      <c r="P76" s="55"/>
-      <c r="Q76" s="55"/>
-      <c r="R76" s="55"/>
-      <c r="S76" s="55"/>
-      <c r="T76" s="55"/>
-      <c r="U76" s="55"/>
-      <c r="V76" s="55"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="32"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13"/>
+      <c r="S76" s="13"/>
+      <c r="T76" s="13"/>
+      <c r="U76" s="13"/>
+      <c r="V76" s="13"/>
     </row>
     <row r="77" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C77" s="26"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="32"/>
-      <c r="J77" s="32"/>
-      <c r="K77" s="28"/>
-      <c r="N77" s="55"/>
-      <c r="O77" s="55"/>
-      <c r="P77" s="55"/>
-      <c r="Q77" s="55"/>
-      <c r="R77" s="55"/>
-      <c r="S77" s="55"/>
-      <c r="T77" s="55"/>
-      <c r="U77" s="55"/>
-      <c r="V77" s="55"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="32"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="13"/>
+      <c r="T77" s="13"/>
+      <c r="U77" s="13"/>
+      <c r="V77" s="13"/>
     </row>
     <row r="78" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C78" s="26"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="28"/>
-      <c r="N78" s="55"/>
-      <c r="O78" s="55"/>
-      <c r="P78" s="55"/>
-      <c r="Q78" s="55"/>
-      <c r="R78" s="55"/>
-      <c r="S78" s="55"/>
-      <c r="T78" s="55"/>
-      <c r="U78" s="55"/>
-      <c r="V78" s="55"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="32"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="13"/>
+      <c r="S78" s="13"/>
+      <c r="T78" s="13"/>
+      <c r="U78" s="13"/>
+      <c r="V78" s="13"/>
     </row>
     <row r="79" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C79" s="26"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="28"/>
-      <c r="N79" s="55"/>
-      <c r="O79" s="55"/>
-      <c r="P79" s="55"/>
-      <c r="Q79" s="55"/>
-      <c r="R79" s="55"/>
-      <c r="S79" s="55"/>
-      <c r="T79" s="55"/>
-      <c r="U79" s="55"/>
-      <c r="V79" s="55"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="32"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="13"/>
+      <c r="T79" s="13"/>
+      <c r="U79" s="13"/>
+      <c r="V79" s="13"/>
     </row>
     <row r="80" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C80" s="26"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="32"/>
-      <c r="J80" s="32"/>
-      <c r="K80" s="28"/>
-      <c r="N80" s="55"/>
-      <c r="O80" s="55"/>
-      <c r="P80" s="55"/>
-      <c r="Q80" s="55"/>
-      <c r="R80" s="55"/>
-      <c r="S80" s="55"/>
-      <c r="T80" s="55"/>
-      <c r="U80" s="55"/>
-      <c r="V80" s="55"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="32"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13"/>
+      <c r="R80" s="13"/>
+      <c r="S80" s="13"/>
+      <c r="T80" s="13"/>
+      <c r="U80" s="13"/>
+      <c r="V80" s="13"/>
     </row>
     <row r="81" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C81" s="29"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="31"/>
-      <c r="N81" s="55"/>
-      <c r="O81" s="55"/>
-      <c r="P81" s="55"/>
-      <c r="Q81" s="55"/>
-      <c r="R81" s="55"/>
-      <c r="S81" s="55"/>
-      <c r="T81" s="55"/>
-      <c r="U81" s="55"/>
-      <c r="V81" s="55"/>
-    </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B84" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="85" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="33"/>
-      <c r="J85" s="33"/>
-      <c r="K85" s="33"/>
-      <c r="L85" s="33"/>
-      <c r="M85" s="33"/>
-      <c r="N85" s="34"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="32"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="13"/>
+      <c r="S81" s="13"/>
+      <c r="T81" s="13"/>
+      <c r="U81" s="13"/>
+      <c r="V81" s="13"/>
+    </row>
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C82" s="33"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="35"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="13"/>
+      <c r="R82" s="13"/>
+      <c r="S82" s="13"/>
+      <c r="T82" s="13"/>
+      <c r="U82" s="13"/>
+      <c r="V82" s="13"/>
+    </row>
+    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="86" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C86" s="35"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="36"/>
-      <c r="K86" s="36"/>
-      <c r="L86" s="36"/>
-      <c r="M86" s="36"/>
-      <c r="N86" s="37"/>
+      <c r="C86" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="29"/>
     </row>
     <row r="87" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C87" s="35"/>
+      <c r="C87" s="30"/>
       <c r="D87" s="36"/>
       <c r="E87" s="36"/>
       <c r="F87" s="36"/>
@@ -3830,13 +3844,10 @@
       <c r="H87" s="36"/>
       <c r="I87" s="36"/>
       <c r="J87" s="36"/>
-      <c r="K87" s="36"/>
-      <c r="L87" s="36"/>
-      <c r="M87" s="36"/>
-      <c r="N87" s="37"/>
+      <c r="K87" s="32"/>
     </row>
     <row r="88" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C88" s="35"/>
+      <c r="C88" s="30"/>
       <c r="D88" s="36"/>
       <c r="E88" s="36"/>
       <c r="F88" s="36"/>
@@ -3844,13 +3855,10 @@
       <c r="H88" s="36"/>
       <c r="I88" s="36"/>
       <c r="J88" s="36"/>
-      <c r="K88" s="36"/>
-      <c r="L88" s="36"/>
-      <c r="M88" s="36"/>
-      <c r="N88" s="37"/>
+      <c r="K88" s="32"/>
     </row>
     <row r="89" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C89" s="35"/>
+      <c r="C89" s="30"/>
       <c r="D89" s="36"/>
       <c r="E89" s="36"/>
       <c r="F89" s="36"/>
@@ -3858,13 +3866,10 @@
       <c r="H89" s="36"/>
       <c r="I89" s="36"/>
       <c r="J89" s="36"/>
-      <c r="K89" s="36"/>
-      <c r="L89" s="36"/>
-      <c r="M89" s="36"/>
-      <c r="N89" s="37"/>
+      <c r="K89" s="32"/>
     </row>
     <row r="90" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C90" s="35"/>
+      <c r="C90" s="30"/>
       <c r="D90" s="36"/>
       <c r="E90" s="36"/>
       <c r="F90" s="36"/>
@@ -3872,13 +3877,10 @@
       <c r="H90" s="36"/>
       <c r="I90" s="36"/>
       <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="36"/>
-      <c r="M90" s="36"/>
-      <c r="N90" s="37"/>
+      <c r="K90" s="32"/>
     </row>
     <row r="91" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C91" s="35"/>
+      <c r="C91" s="30"/>
       <c r="D91" s="36"/>
       <c r="E91" s="36"/>
       <c r="F91" s="36"/>
@@ -3886,13 +3888,10 @@
       <c r="H91" s="36"/>
       <c r="I91" s="36"/>
       <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
-      <c r="L91" s="36"/>
-      <c r="M91" s="36"/>
-      <c r="N91" s="37"/>
+      <c r="K91" s="32"/>
     </row>
     <row r="92" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C92" s="35"/>
+      <c r="C92" s="30"/>
       <c r="D92" s="36"/>
       <c r="E92" s="36"/>
       <c r="F92" s="36"/>
@@ -3900,13 +3899,10 @@
       <c r="H92" s="36"/>
       <c r="I92" s="36"/>
       <c r="J92" s="36"/>
-      <c r="K92" s="36"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="36"/>
-      <c r="N92" s="37"/>
+      <c r="K92" s="32"/>
     </row>
     <row r="93" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C93" s="35"/>
+      <c r="C93" s="30"/>
       <c r="D93" s="36"/>
       <c r="E93" s="36"/>
       <c r="F93" s="36"/>
@@ -3914,13 +3910,10 @@
       <c r="H93" s="36"/>
       <c r="I93" s="36"/>
       <c r="J93" s="36"/>
-      <c r="K93" s="36"/>
-      <c r="L93" s="36"/>
-      <c r="M93" s="36"/>
-      <c r="N93" s="37"/>
+      <c r="K93" s="32"/>
     </row>
     <row r="94" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C94" s="35"/>
+      <c r="C94" s="30"/>
       <c r="D94" s="36"/>
       <c r="E94" s="36"/>
       <c r="F94" s="36"/>
@@ -3928,43 +3921,232 @@
       <c r="H94" s="36"/>
       <c r="I94" s="36"/>
       <c r="J94" s="36"/>
-      <c r="K94" s="36"/>
-      <c r="L94" s="36"/>
-      <c r="M94" s="36"/>
-      <c r="N94" s="37"/>
+      <c r="K94" s="32"/>
     </row>
     <row r="95" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C95" s="38"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="39"/>
-      <c r="F95" s="39"/>
-      <c r="G95" s="39"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="39"/>
-      <c r="J95" s="39"/>
-      <c r="K95" s="39"/>
-      <c r="L95" s="39"/>
-      <c r="M95" s="39"/>
-      <c r="N95" s="40"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
+      <c r="C95" s="30"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="32"/>
+    </row>
+    <row r="96" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C96" s="30"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="32"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C97" s="30"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="32"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C98" s="33"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="34"/>
+      <c r="K98" s="35"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C102" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D102" s="37"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="37"/>
+      <c r="H102" s="37"/>
+      <c r="I102" s="37"/>
+      <c r="J102" s="37"/>
+      <c r="K102" s="37"/>
+      <c r="L102" s="37"/>
+      <c r="M102" s="37"/>
+      <c r="N102" s="38"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C103" s="39"/>
+      <c r="D103" s="40"/>
+      <c r="E103" s="40"/>
+      <c r="F103" s="40"/>
+      <c r="G103" s="40"/>
+      <c r="H103" s="40"/>
+      <c r="I103" s="40"/>
+      <c r="J103" s="40"/>
+      <c r="K103" s="40"/>
+      <c r="L103" s="40"/>
+      <c r="M103" s="40"/>
+      <c r="N103" s="41"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C104" s="39"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="40"/>
+      <c r="G104" s="40"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="40"/>
+      <c r="J104" s="40"/>
+      <c r="K104" s="40"/>
+      <c r="L104" s="40"/>
+      <c r="M104" s="40"/>
+      <c r="N104" s="41"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C105" s="39"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="40"/>
+      <c r="F105" s="40"/>
+      <c r="G105" s="40"/>
+      <c r="H105" s="40"/>
+      <c r="I105" s="40"/>
+      <c r="J105" s="40"/>
+      <c r="K105" s="40"/>
+      <c r="L105" s="40"/>
+      <c r="M105" s="40"/>
+      <c r="N105" s="41"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C106" s="39"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="40"/>
+      <c r="F106" s="40"/>
+      <c r="G106" s="40"/>
+      <c r="H106" s="40"/>
+      <c r="I106" s="40"/>
+      <c r="J106" s="40"/>
+      <c r="K106" s="40"/>
+      <c r="L106" s="40"/>
+      <c r="M106" s="40"/>
+      <c r="N106" s="41"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C107" s="39"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="40"/>
+      <c r="F107" s="40"/>
+      <c r="G107" s="40"/>
+      <c r="H107" s="40"/>
+      <c r="I107" s="40"/>
+      <c r="J107" s="40"/>
+      <c r="K107" s="40"/>
+      <c r="L107" s="40"/>
+      <c r="M107" s="40"/>
+      <c r="N107" s="41"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C108" s="39"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="40"/>
+      <c r="F108" s="40"/>
+      <c r="G108" s="40"/>
+      <c r="H108" s="40"/>
+      <c r="I108" s="40"/>
+      <c r="J108" s="40"/>
+      <c r="K108" s="40"/>
+      <c r="L108" s="40"/>
+      <c r="M108" s="40"/>
+      <c r="N108" s="41"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C109" s="39"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="40"/>
+      <c r="F109" s="40"/>
+      <c r="G109" s="40"/>
+      <c r="H109" s="40"/>
+      <c r="I109" s="40"/>
+      <c r="J109" s="40"/>
+      <c r="K109" s="40"/>
+      <c r="L109" s="40"/>
+      <c r="M109" s="40"/>
+      <c r="N109" s="41"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C110" s="39"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="40"/>
+      <c r="F110" s="40"/>
+      <c r="G110" s="40"/>
+      <c r="H110" s="40"/>
+      <c r="I110" s="40"/>
+      <c r="J110" s="40"/>
+      <c r="K110" s="40"/>
+      <c r="L110" s="40"/>
+      <c r="M110" s="40"/>
+      <c r="N110" s="41"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C111" s="39"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="40"/>
+      <c r="F111" s="40"/>
+      <c r="G111" s="40"/>
+      <c r="H111" s="40"/>
+      <c r="I111" s="40"/>
+      <c r="J111" s="40"/>
+      <c r="K111" s="40"/>
+      <c r="L111" s="40"/>
+      <c r="M111" s="40"/>
+      <c r="N111" s="41"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C112" s="42"/>
+      <c r="D112" s="43"/>
+      <c r="E112" s="43"/>
+      <c r="F112" s="43"/>
+      <c r="G112" s="43"/>
+      <c r="H112" s="43"/>
+      <c r="I112" s="43"/>
+      <c r="J112" s="43"/>
+      <c r="K112" s="43"/>
+      <c r="L112" s="43"/>
+      <c r="M112" s="43"/>
+      <c r="N112" s="44"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" t="s">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C34:K52"/>
-    <mergeCell ref="C56:K81"/>
-    <mergeCell ref="C17:K21"/>
-    <mergeCell ref="C85:N95"/>
-    <mergeCell ref="Q24:X28"/>
-    <mergeCell ref="Q17:X20"/>
+  <mergeCells count="7">
+    <mergeCell ref="C35:K53"/>
+    <mergeCell ref="C57:K82"/>
+    <mergeCell ref="C18:K22"/>
+    <mergeCell ref="C102:N112"/>
+    <mergeCell ref="Q25:X29"/>
+    <mergeCell ref="Q18:X21"/>
+    <mergeCell ref="C86:K98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3975,10 +4157,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B3:K70"/>
+  <dimension ref="B3:K74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView showGridLines="0" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4003,17 +4185,17 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
@@ -4048,17 +4230,17 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C17" s="10" t="s">
@@ -4074,17 +4256,17 @@
       <c r="K17" s="8"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
     </row>
     <row r="21" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
@@ -4097,94 +4279,94 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="46"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="50"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="49"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="49"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="49"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="53"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="49"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="47"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="49"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="47"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="49"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="50"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="52"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="56"/>
     </row>
     <row r="33" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
@@ -4197,17 +4379,17 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="44"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="48"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C36" s="8"/>
@@ -4242,17 +4424,17 @@
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="44"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="48"/>
     </row>
     <row r="43" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
@@ -4270,99 +4452,109 @@
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C63" s="53" t="s">
+      <c r="C63" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="16"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="20"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C64" s="17"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="19"/>
-    </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C65" s="17"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="19"/>
-    </row>
-    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C66" s="17"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="19"/>
-    </row>
-    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C67" s="17"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="19"/>
-    </row>
-    <row r="68" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C68" s="17"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="19"/>
-    </row>
-    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C69" s="17"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="19"/>
-    </row>
-    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C70" s="20"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="22"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="23"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C65" s="21"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="23"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C66" s="21"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="23"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C67" s="21"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="23"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="23"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C69" s="21"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="23"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C70" s="24"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="26"/>
+    </row>
+    <row r="73" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B73" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/karma-ts-howto.xlsx
+++ b/karma-ts-howto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Ivy\Github\karma-typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FAC5B5-1E0D-44CE-A195-05FE5CE98974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5757E6ED-138E-4BD2-B3DD-1B998812B021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="3045" windowWidth="15375" windowHeight="7875" tabRatio="771" activeTab="2" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" activeTab="2" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
   </bookViews>
   <sheets>
     <sheet name="Installation and Configuration" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="106">
   <si>
     <t>Prerequisite:</t>
   </si>
@@ -886,6 +886,12 @@
   ],
   "exclude": ["node_modules", "coverage"]
 }</t>
+  </si>
+  <si>
+    <t>9. You need to include some adapter that implements __karma__.start method!</t>
+  </si>
+  <si>
+    <t>Target files (src and test) should be valid or discoverable.</t>
   </si>
 </sst>
 </file>
@@ -2787,8 +2793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6C7849-FFE0-44AA-A86A-9E4A7026ED91}">
   <dimension ref="B3:Y115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4157,10 +4163,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B3:K74"/>
+  <dimension ref="B3:K78"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="N66" sqref="N66"/>
+    <sheetView showGridLines="0" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4554,6 +4560,16 @@
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B77" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/karma-ts-howto.xlsx
+++ b/karma-ts-howto.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Ivy\Github\karma-typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5757E6ED-138E-4BD2-B3DD-1B998812B021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E2429F-3DBB-4088-9A83-C39AF4C6873B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" activeTab="2" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
+    <workbookView xWindow="12510" yWindow="1380" windowWidth="15375" windowHeight="7875" tabRatio="771" firstSheet="2" activeTab="4" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
   </bookViews>
   <sheets>
     <sheet name="Installation and Configuration" sheetId="1" r:id="rId1"/>
     <sheet name="How To Generate Report" sheetId="6" r:id="rId2"/>
     <sheet name="Sample Karma Test" sheetId="5" r:id="rId3"/>
-    <sheet name="Errors" sheetId="7" r:id="rId4"/>
+    <sheet name="Jasmine Built-In Matchers" sheetId="8" r:id="rId4"/>
+    <sheet name="Others" sheetId="9" r:id="rId5"/>
+    <sheet name="Errors" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="139">
   <si>
     <t>Prerequisite:</t>
   </si>
@@ -893,12 +895,111 @@
   <si>
     <t>Target files (src and test) should be valid or discoverable.</t>
   </si>
+  <si>
+    <t>Some of Jasmine's matchers are the following:</t>
+  </si>
+  <si>
+    <t>expect(array).toContain(member);</t>
+  </si>
+  <si>
+    <t>expect(fn).toThrow(string);</t>
+  </si>
+  <si>
+    <t>expect(fn).toThrowError(string);</t>
+  </si>
+  <si>
+    <t>expect(instance).toBe(instance);</t>
+  </si>
+  <si>
+    <t>expect(mixed).toBeDefined();</t>
+  </si>
+  <si>
+    <t>expect(mixed).toBeFalsy();</t>
+  </si>
+  <si>
+    <t>expect(mixed).toBeNull();</t>
+  </si>
+  <si>
+    <t>expect(mixed).toBeTruthy();</t>
+  </si>
+  <si>
+    <t>expect(mixed).toBeUndefined();</t>
+  </si>
+  <si>
+    <t>expect(mixed).toEqual(mixed);</t>
+  </si>
+  <si>
+    <t>expect(mixed).toMatch(pattern);</t>
+  </si>
+  <si>
+    <t>expect(number).toBeCloseTo(number, decimalPlaces);</t>
+  </si>
+  <si>
+    <t>expect(number).toBeGreaterThan(number);</t>
+  </si>
+  <si>
+    <t>expect(number).toBeLessThan(number);</t>
+  </si>
+  <si>
+    <t>expect(number).toBeNaN();</t>
+  </si>
+  <si>
+    <t>expect(spy).toHaveBeenCalled();</t>
+  </si>
+  <si>
+    <t>expect(spy).toHaveBeenCalledTimes(number);</t>
+  </si>
+  <si>
+    <t>expect(spy).toHaveBeenCalledWith(...arguments);</t>
+  </si>
+  <si>
+    <t>&gt; Expect the actual value to match a regular expression.</t>
+  </si>
+  <si>
+    <t>&gt; Expect the actual value to be `===` to the expected value.</t>
+  </si>
+  <si>
+    <t>&gt; Expect the actual value to be equal to the expected, using deep equality comparison.</t>
+  </si>
+  <si>
+    <t>expect(document).toHaveClass(class);</t>
+  </si>
+  <si>
+    <t>&gt; Expect the actual value to be a DOM element that has the expected class.</t>
+  </si>
+  <si>
+    <t>Built-In Matchers</t>
+  </si>
+  <si>
+    <t>beforeAll</t>
+  </si>
+  <si>
+    <t>afterAll</t>
+  </si>
+  <si>
+    <t>beforeEach</t>
+  </si>
+  <si>
+    <t>afterEach</t>
+  </si>
+  <si>
+    <t>beforeAll is call once, before all the specs in describe function are run.</t>
+  </si>
+  <si>
+    <t>afterAll is called once, after all the specs  in describe function are run.</t>
+  </si>
+  <si>
+    <t>beforeEach is called before each test specification in it function is run.</t>
+  </si>
+  <si>
+    <t>afterEach is called after each test specification in it function is run.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1006,8 +1107,15 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1017,6 +1125,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,7 +1279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1318,6 +1432,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2793,8 +2914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6C7849-FFE0-44AA-A86A-9E4A7026ED91}">
   <dimension ref="B3:Y115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4159,6 +4280,266 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40F97C8-ED93-460E-942E-2A1CEB57E2D4}">
+  <dimension ref="B3:J24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="4" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="J6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="J7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="J8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="57"/>
+      <c r="J9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="57"/>
+      <c r="J10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="57"/>
+      <c r="J15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="57"/>
+      <c r="J16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="57"/>
+      <c r="J17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="57"/>
+      <c r="J18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="57"/>
+      <c r="J19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="J20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="57"/>
+      <c r="J21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="57"/>
+      <c r="J22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="J23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="J24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6973580-6B44-46A8-AB79-589FCD55DC1A}">
+  <dimension ref="B3:B13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="4" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA760E5-4801-49BB-909C-AFBE39FCD389}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>

--- a/karma-ts-howto.xlsx
+++ b/karma-ts-howto.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Ivy\Github\karma-typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E2429F-3DBB-4088-9A83-C39AF4C6873B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B989D3-67B1-4DE1-BD24-87FCA0A224E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12510" yWindow="1380" windowWidth="15375" windowHeight="7875" tabRatio="771" firstSheet="2" activeTab="4" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" firstSheet="1" activeTab="4" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
   </bookViews>
   <sheets>
     <sheet name="Installation and Configuration" sheetId="1" r:id="rId1"/>
     <sheet name="How To Generate Report" sheetId="6" r:id="rId2"/>
     <sheet name="Sample Karma Test" sheetId="5" r:id="rId3"/>
     <sheet name="Jasmine Built-In Matchers" sheetId="8" r:id="rId4"/>
-    <sheet name="Others" sheetId="9" r:id="rId5"/>
-    <sheet name="Errors" sheetId="7" r:id="rId6"/>
+    <sheet name="Scenarios" sheetId="10" r:id="rId5"/>
+    <sheet name="Others" sheetId="9" r:id="rId6"/>
+    <sheet name="Errors" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="153">
   <si>
     <t>Prerequisite:</t>
   </si>
@@ -994,12 +995,103 @@
   <si>
     <t>afterEach is called after each test specification in it function is run.</t>
   </si>
+  <si>
+    <t>10. SyntaxError: Cannot use import statement outside a module</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Instead of import, use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>require</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import {sample} from "./sample.ts"   &gt;   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>const sample = require("./sample.ts"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>When error (require is undefined) occurs, install @types/node.</t>
+  </si>
+  <si>
+    <t>npm install --save-dev @types/node</t>
+  </si>
+  <si>
+    <t>Access ts file</t>
+  </si>
+  <si>
+    <t>Access function inside ts</t>
+  </si>
+  <si>
+    <t>Enums</t>
+  </si>
+  <si>
+    <t>Getter/Setter</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Sample Files</t>
+  </si>
+  <si>
+    <t>src/src.ts
+src/src2.ts
+test/src.ts</t>
+  </si>
+  <si>
+    <t>src/getter-setter.ts
+test/getter-setter.ts</t>
+  </si>
+  <si>
+    <t>scr/enums.ts
+scr/enums2.ts
+test/enums.ts</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1113,6 +1205,14 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1279,7 +1379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1307,138 +1407,168 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2035,160 +2165,160 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
@@ -2215,17 +2345,17 @@
     </row>
     <row r="25" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
     </row>
     <row r="26" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
@@ -2245,17 +2375,17 @@
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D31" s="8"/>
@@ -2282,17 +2412,17 @@
       <c r="L32" s="8"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D34" s="8"/>
@@ -2319,17 +2449,17 @@
       <c r="L35" s="8"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
@@ -2378,17 +2508,17 @@
       </c>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
@@ -2396,17 +2526,17 @@
       </c>
     </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
@@ -2414,17 +2544,17 @@
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
@@ -2432,17 +2562,17 @@
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
     </row>
     <row r="55" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
@@ -2460,17 +2590,17 @@
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
@@ -2493,138 +2623,138 @@
       </c>
     </row>
     <row r="65" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="20"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="23"/>
     </row>
     <row r="66" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D66" s="21"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="23"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="26"/>
     </row>
     <row r="67" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D67" s="21"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="23"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="26"/>
     </row>
     <row r="68" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D68" s="21"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="23"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="26"/>
     </row>
     <row r="69" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D69" s="21"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="23"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="26"/>
     </row>
     <row r="70" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D70" s="21"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="23"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="26"/>
     </row>
     <row r="71" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D71" s="21"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="23"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="26"/>
     </row>
     <row r="72" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D72" s="21"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="23"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="26"/>
     </row>
     <row r="73" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D73" s="21"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="23"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="26"/>
     </row>
     <row r="74" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D74" s="21"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="23"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="26"/>
     </row>
     <row r="75" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D75" s="21"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="22"/>
-      <c r="L75" s="23"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="26"/>
     </row>
     <row r="76" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D76" s="24"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="26"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="29"/>
     </row>
     <row r="78" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
@@ -2632,17 +2762,17 @@
       </c>
     </row>
     <row r="79" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D79" s="15" t="s">
+      <c r="D79" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
     </row>
     <row r="80" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
@@ -2660,17 +2790,17 @@
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D84" s="15" t="s">
+      <c r="D84" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
@@ -2750,17 +2880,17 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -2768,138 +2898,138 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="32"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="35"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="35"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="35"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="32"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="35"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="35"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2914,8 +3044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6C7849-FFE0-44AA-A86A-9E4A7026ED91}">
   <dimension ref="B3:Y115"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q91" sqref="Q91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3012,95 +3142,95 @@
       </c>
     </row>
     <row r="18" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="29"/>
-      <c r="Q18" s="27" t="s">
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+      <c r="Q18" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="38"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="41"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C19" s="30"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="32"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="41"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="35"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="44"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C20" s="30"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="32"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="41"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="35"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="44"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C21" s="30"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="32"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="44"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="35"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="47"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="38"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
@@ -3130,57 +3260,57 @@
       </c>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="Q25" s="27" t="s">
+      <c r="Q25" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="38"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="41"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="Q26" s="39"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="41"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="44"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="Q27" s="39"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="41"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="44"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="Q28" s="39"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="41"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="44"/>
     </row>
     <row r="29" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="44"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="47"/>
     </row>
     <row r="30" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
@@ -3196,215 +3326,215 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="29"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="32"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C36" s="30"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="32"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="35"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C37" s="30"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="32"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="35"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C38" s="30"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="32"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="35"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C39" s="30"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="32"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="35"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C40" s="30"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="32"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="35"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C41" s="30"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="32"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="35"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C42" s="30"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="32"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="35"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="30"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="32"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="35"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="30"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="32"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="35"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C45" s="30"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="32"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="35"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C46" s="30"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="32"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="35"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C47" s="30"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="32"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="35"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C48" s="30"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="32"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="35"/>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C49" s="30"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="32"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="35"/>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C50" s="30"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="32"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="35"/>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C51" s="30"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="32"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="35"/>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C52" s="30"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="32"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="35"/>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C53" s="33"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="35"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="38"/>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C54" s="5"/>
@@ -3423,17 +3553,17 @@
       </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="29"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="32"/>
       <c r="N57" s="13"/>
       <c r="O57" s="13"/>
       <c r="P57" s="13"/>
@@ -3445,15 +3575,15 @@
       <c r="V57" s="13"/>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C58" s="30"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="32"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="35"/>
       <c r="N58" s="13"/>
       <c r="O58" s="13"/>
       <c r="P58" s="13"/>
@@ -3465,15 +3595,15 @@
       <c r="V58" s="13"/>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C59" s="30"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="32"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="35"/>
       <c r="N59" s="13"/>
       <c r="O59" s="13"/>
       <c r="P59" s="13"/>
@@ -3485,15 +3615,15 @@
       <c r="V59" s="13"/>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C60" s="30"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="32"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="35"/>
       <c r="N60" s="13"/>
       <c r="O60" s="13"/>
       <c r="P60" s="13"/>
@@ -3505,15 +3635,15 @@
       <c r="V60" s="13"/>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C61" s="30"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="32"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="35"/>
       <c r="N61" s="13"/>
       <c r="O61" s="13"/>
       <c r="P61" s="13"/>
@@ -3525,15 +3655,15 @@
       <c r="V61" s="13"/>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C62" s="30"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="32"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="35"/>
       <c r="N62" s="13"/>
       <c r="O62" s="13"/>
       <c r="P62" s="13"/>
@@ -3545,15 +3675,15 @@
       <c r="V62" s="13"/>
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C63" s="30"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="32"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="35"/>
       <c r="N63" s="13"/>
       <c r="O63" s="13"/>
       <c r="P63" s="13"/>
@@ -3565,15 +3695,15 @@
       <c r="V63" s="13"/>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C64" s="30"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="32"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="35"/>
       <c r="N64" s="13"/>
       <c r="O64" s="13"/>
       <c r="P64" s="13"/>
@@ -3585,15 +3715,15 @@
       <c r="V64" s="13"/>
     </row>
     <row r="65" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C65" s="30"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="32"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="35"/>
       <c r="N65" s="13"/>
       <c r="O65" s="13"/>
       <c r="P65" s="13"/>
@@ -3605,15 +3735,15 @@
       <c r="V65" s="13"/>
     </row>
     <row r="66" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C66" s="30"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="32"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="35"/>
       <c r="N66" s="13"/>
       <c r="O66" s="13"/>
       <c r="P66" s="13"/>
@@ -3625,15 +3755,15 @@
       <c r="V66" s="13"/>
     </row>
     <row r="67" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C67" s="30"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="32"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="35"/>
       <c r="N67" s="13"/>
       <c r="O67" s="13"/>
       <c r="P67" s="13"/>
@@ -3645,15 +3775,15 @@
       <c r="V67" s="13"/>
     </row>
     <row r="68" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C68" s="30"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="32"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="35"/>
       <c r="N68" s="13"/>
       <c r="O68" s="13"/>
       <c r="P68" s="13"/>
@@ -3665,15 +3795,15 @@
       <c r="V68" s="13"/>
     </row>
     <row r="69" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C69" s="30"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="32"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="35"/>
       <c r="N69" s="13"/>
       <c r="O69" s="13"/>
       <c r="P69" s="13"/>
@@ -3685,15 +3815,15 @@
       <c r="V69" s="13"/>
     </row>
     <row r="70" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C70" s="30"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="32"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="35"/>
       <c r="N70" s="13"/>
       <c r="O70" s="13"/>
       <c r="P70" s="13"/>
@@ -3705,15 +3835,15 @@
       <c r="V70" s="13"/>
     </row>
     <row r="71" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C71" s="30"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="32"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="35"/>
       <c r="N71" s="13"/>
       <c r="O71" s="13"/>
       <c r="P71" s="13"/>
@@ -3725,15 +3855,15 @@
       <c r="V71" s="13"/>
     </row>
     <row r="72" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C72" s="30"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="32"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="35"/>
       <c r="N72" s="13"/>
       <c r="O72" s="13"/>
       <c r="P72" s="13"/>
@@ -3745,15 +3875,15 @@
       <c r="V72" s="13"/>
     </row>
     <row r="73" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C73" s="30"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="32"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="35"/>
       <c r="N73" s="13"/>
       <c r="O73" s="13"/>
       <c r="P73" s="13"/>
@@ -3765,15 +3895,15 @@
       <c r="V73" s="13"/>
     </row>
     <row r="74" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C74" s="30"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="32"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="35"/>
       <c r="N74" s="13"/>
       <c r="O74" s="13"/>
       <c r="P74" s="13"/>
@@ -3785,15 +3915,15 @@
       <c r="V74" s="13"/>
     </row>
     <row r="75" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C75" s="30"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="32"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="35"/>
       <c r="N75" s="13"/>
       <c r="O75" s="13"/>
       <c r="P75" s="13"/>
@@ -3805,15 +3935,15 @@
       <c r="V75" s="13"/>
     </row>
     <row r="76" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C76" s="30"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="32"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="35"/>
       <c r="N76" s="13"/>
       <c r="O76" s="13"/>
       <c r="P76" s="13"/>
@@ -3825,15 +3955,15 @@
       <c r="V76" s="13"/>
     </row>
     <row r="77" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C77" s="30"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="32"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="39"/>
+      <c r="K77" s="35"/>
       <c r="N77" s="13"/>
       <c r="O77" s="13"/>
       <c r="P77" s="13"/>
@@ -3845,15 +3975,15 @@
       <c r="V77" s="13"/>
     </row>
     <row r="78" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C78" s="30"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="32"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="35"/>
       <c r="N78" s="13"/>
       <c r="O78" s="13"/>
       <c r="P78" s="13"/>
@@ -3865,15 +3995,15 @@
       <c r="V78" s="13"/>
     </row>
     <row r="79" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C79" s="30"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="32"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="35"/>
       <c r="N79" s="13"/>
       <c r="O79" s="13"/>
       <c r="P79" s="13"/>
@@ -3885,15 +4015,15 @@
       <c r="V79" s="13"/>
     </row>
     <row r="80" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C80" s="30"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="32"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="35"/>
       <c r="N80" s="13"/>
       <c r="O80" s="13"/>
       <c r="P80" s="13"/>
@@ -3905,15 +4035,15 @@
       <c r="V80" s="13"/>
     </row>
     <row r="81" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C81" s="30"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="36"/>
-      <c r="K81" s="32"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="35"/>
       <c r="N81" s="13"/>
       <c r="O81" s="13"/>
       <c r="P81" s="13"/>
@@ -3925,15 +4055,15 @@
       <c r="V81" s="13"/>
     </row>
     <row r="82" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C82" s="33"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="35"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="37"/>
+      <c r="K82" s="38"/>
       <c r="N82" s="13"/>
       <c r="O82" s="13"/>
       <c r="P82" s="13"/>
@@ -3950,149 +4080,149 @@
       </c>
     </row>
     <row r="86" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="28"/>
-      <c r="K86" s="29"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
+      <c r="J86" s="31"/>
+      <c r="K86" s="32"/>
     </row>
     <row r="87" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C87" s="30"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="32"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="35"/>
     </row>
     <row r="88" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C88" s="30"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="32"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="39"/>
+      <c r="K88" s="35"/>
     </row>
     <row r="89" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C89" s="30"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="32"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="35"/>
     </row>
     <row r="90" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C90" s="30"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="32"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="35"/>
     </row>
     <row r="91" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C91" s="30"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="32"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="35"/>
     </row>
     <row r="92" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C92" s="30"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="32"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="35"/>
     </row>
     <row r="93" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C93" s="30"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="36"/>
-      <c r="K93" s="32"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="39"/>
+      <c r="K93" s="35"/>
     </row>
     <row r="94" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C94" s="30"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
-      <c r="J94" s="36"/>
-      <c r="K94" s="32"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="39"/>
+      <c r="K94" s="35"/>
     </row>
     <row r="95" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C95" s="30"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="32"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="35"/>
     </row>
     <row r="96" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C96" s="30"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="36"/>
-      <c r="K96" s="32"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="39"/>
+      <c r="K96" s="35"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C97" s="30"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
-      <c r="J97" s="36"/>
-      <c r="K97" s="32"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="39"/>
+      <c r="K97" s="35"/>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C98" s="33"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="34"/>
-      <c r="K98" s="35"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="37"/>
+      <c r="K98" s="38"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
@@ -4100,160 +4230,160 @@
       </c>
     </row>
     <row r="102" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="27" t="s">
+      <c r="C102" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D102" s="37"/>
-      <c r="E102" s="37"/>
-      <c r="F102" s="37"/>
-      <c r="G102" s="37"/>
-      <c r="H102" s="37"/>
-      <c r="I102" s="37"/>
-      <c r="J102" s="37"/>
-      <c r="K102" s="37"/>
-      <c r="L102" s="37"/>
-      <c r="M102" s="37"/>
-      <c r="N102" s="38"/>
+      <c r="D102" s="40"/>
+      <c r="E102" s="40"/>
+      <c r="F102" s="40"/>
+      <c r="G102" s="40"/>
+      <c r="H102" s="40"/>
+      <c r="I102" s="40"/>
+      <c r="J102" s="40"/>
+      <c r="K102" s="40"/>
+      <c r="L102" s="40"/>
+      <c r="M102" s="40"/>
+      <c r="N102" s="41"/>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C103" s="39"/>
-      <c r="D103" s="40"/>
-      <c r="E103" s="40"/>
-      <c r="F103" s="40"/>
-      <c r="G103" s="40"/>
-      <c r="H103" s="40"/>
-      <c r="I103" s="40"/>
-      <c r="J103" s="40"/>
-      <c r="K103" s="40"/>
-      <c r="L103" s="40"/>
-      <c r="M103" s="40"/>
-      <c r="N103" s="41"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="43"/>
+      <c r="G103" s="43"/>
+      <c r="H103" s="43"/>
+      <c r="I103" s="43"/>
+      <c r="J103" s="43"/>
+      <c r="K103" s="43"/>
+      <c r="L103" s="43"/>
+      <c r="M103" s="43"/>
+      <c r="N103" s="44"/>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C104" s="39"/>
-      <c r="D104" s="40"/>
-      <c r="E104" s="40"/>
-      <c r="F104" s="40"/>
-      <c r="G104" s="40"/>
-      <c r="H104" s="40"/>
-      <c r="I104" s="40"/>
-      <c r="J104" s="40"/>
-      <c r="K104" s="40"/>
-      <c r="L104" s="40"/>
-      <c r="M104" s="40"/>
-      <c r="N104" s="41"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="43"/>
+      <c r="G104" s="43"/>
+      <c r="H104" s="43"/>
+      <c r="I104" s="43"/>
+      <c r="J104" s="43"/>
+      <c r="K104" s="43"/>
+      <c r="L104" s="43"/>
+      <c r="M104" s="43"/>
+      <c r="N104" s="44"/>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C105" s="39"/>
-      <c r="D105" s="40"/>
-      <c r="E105" s="40"/>
-      <c r="F105" s="40"/>
-      <c r="G105" s="40"/>
-      <c r="H105" s="40"/>
-      <c r="I105" s="40"/>
-      <c r="J105" s="40"/>
-      <c r="K105" s="40"/>
-      <c r="L105" s="40"/>
-      <c r="M105" s="40"/>
-      <c r="N105" s="41"/>
+      <c r="C105" s="42"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="43"/>
+      <c r="F105" s="43"/>
+      <c r="G105" s="43"/>
+      <c r="H105" s="43"/>
+      <c r="I105" s="43"/>
+      <c r="J105" s="43"/>
+      <c r="K105" s="43"/>
+      <c r="L105" s="43"/>
+      <c r="M105" s="43"/>
+      <c r="N105" s="44"/>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C106" s="39"/>
-      <c r="D106" s="40"/>
-      <c r="E106" s="40"/>
-      <c r="F106" s="40"/>
-      <c r="G106" s="40"/>
-      <c r="H106" s="40"/>
-      <c r="I106" s="40"/>
-      <c r="J106" s="40"/>
-      <c r="K106" s="40"/>
-      <c r="L106" s="40"/>
-      <c r="M106" s="40"/>
-      <c r="N106" s="41"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="43"/>
+      <c r="F106" s="43"/>
+      <c r="G106" s="43"/>
+      <c r="H106" s="43"/>
+      <c r="I106" s="43"/>
+      <c r="J106" s="43"/>
+      <c r="K106" s="43"/>
+      <c r="L106" s="43"/>
+      <c r="M106" s="43"/>
+      <c r="N106" s="44"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C107" s="39"/>
-      <c r="D107" s="40"/>
-      <c r="E107" s="40"/>
-      <c r="F107" s="40"/>
-      <c r="G107" s="40"/>
-      <c r="H107" s="40"/>
-      <c r="I107" s="40"/>
-      <c r="J107" s="40"/>
-      <c r="K107" s="40"/>
-      <c r="L107" s="40"/>
-      <c r="M107" s="40"/>
-      <c r="N107" s="41"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="43"/>
+      <c r="F107" s="43"/>
+      <c r="G107" s="43"/>
+      <c r="H107" s="43"/>
+      <c r="I107" s="43"/>
+      <c r="J107" s="43"/>
+      <c r="K107" s="43"/>
+      <c r="L107" s="43"/>
+      <c r="M107" s="43"/>
+      <c r="N107" s="44"/>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C108" s="39"/>
-      <c r="D108" s="40"/>
-      <c r="E108" s="40"/>
-      <c r="F108" s="40"/>
-      <c r="G108" s="40"/>
-      <c r="H108" s="40"/>
-      <c r="I108" s="40"/>
-      <c r="J108" s="40"/>
-      <c r="K108" s="40"/>
-      <c r="L108" s="40"/>
-      <c r="M108" s="40"/>
-      <c r="N108" s="41"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="43"/>
+      <c r="F108" s="43"/>
+      <c r="G108" s="43"/>
+      <c r="H108" s="43"/>
+      <c r="I108" s="43"/>
+      <c r="J108" s="43"/>
+      <c r="K108" s="43"/>
+      <c r="L108" s="43"/>
+      <c r="M108" s="43"/>
+      <c r="N108" s="44"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C109" s="39"/>
-      <c r="D109" s="40"/>
-      <c r="E109" s="40"/>
-      <c r="F109" s="40"/>
-      <c r="G109" s="40"/>
-      <c r="H109" s="40"/>
-      <c r="I109" s="40"/>
-      <c r="J109" s="40"/>
-      <c r="K109" s="40"/>
-      <c r="L109" s="40"/>
-      <c r="M109" s="40"/>
-      <c r="N109" s="41"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="43"/>
+      <c r="F109" s="43"/>
+      <c r="G109" s="43"/>
+      <c r="H109" s="43"/>
+      <c r="I109" s="43"/>
+      <c r="J109" s="43"/>
+      <c r="K109" s="43"/>
+      <c r="L109" s="43"/>
+      <c r="M109" s="43"/>
+      <c r="N109" s="44"/>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C110" s="39"/>
-      <c r="D110" s="40"/>
-      <c r="E110" s="40"/>
-      <c r="F110" s="40"/>
-      <c r="G110" s="40"/>
-      <c r="H110" s="40"/>
-      <c r="I110" s="40"/>
-      <c r="J110" s="40"/>
-      <c r="K110" s="40"/>
-      <c r="L110" s="40"/>
-      <c r="M110" s="40"/>
-      <c r="N110" s="41"/>
+      <c r="C110" s="42"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="43"/>
+      <c r="F110" s="43"/>
+      <c r="G110" s="43"/>
+      <c r="H110" s="43"/>
+      <c r="I110" s="43"/>
+      <c r="J110" s="43"/>
+      <c r="K110" s="43"/>
+      <c r="L110" s="43"/>
+      <c r="M110" s="43"/>
+      <c r="N110" s="44"/>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C111" s="39"/>
-      <c r="D111" s="40"/>
-      <c r="E111" s="40"/>
-      <c r="F111" s="40"/>
-      <c r="G111" s="40"/>
-      <c r="H111" s="40"/>
-      <c r="I111" s="40"/>
-      <c r="J111" s="40"/>
-      <c r="K111" s="40"/>
-      <c r="L111" s="40"/>
-      <c r="M111" s="40"/>
-      <c r="N111" s="41"/>
+      <c r="C111" s="42"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="43"/>
+      <c r="G111" s="43"/>
+      <c r="H111" s="43"/>
+      <c r="I111" s="43"/>
+      <c r="J111" s="43"/>
+      <c r="K111" s="43"/>
+      <c r="L111" s="43"/>
+      <c r="M111" s="43"/>
+      <c r="N111" s="44"/>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C112" s="42"/>
-      <c r="D112" s="43"/>
-      <c r="E112" s="43"/>
-      <c r="F112" s="43"/>
-      <c r="G112" s="43"/>
-      <c r="H112" s="43"/>
-      <c r="I112" s="43"/>
-      <c r="J112" s="43"/>
-      <c r="K112" s="43"/>
-      <c r="L112" s="43"/>
-      <c r="M112" s="43"/>
-      <c r="N112" s="44"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="46"/>
+      <c r="E112" s="46"/>
+      <c r="F112" s="46"/>
+      <c r="G112" s="46"/>
+      <c r="H112" s="46"/>
+      <c r="I112" s="46"/>
+      <c r="J112" s="46"/>
+      <c r="K112" s="46"/>
+      <c r="L112" s="46"/>
+      <c r="M112" s="46"/>
+      <c r="N112" s="47"/>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
@@ -4304,172 +4434,172 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="57"/>
+      <c r="C6" s="15"/>
       <c r="J6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="15"/>
       <c r="J7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="57"/>
+      <c r="C8" s="15"/>
       <c r="J8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="57"/>
+      <c r="C9" s="15"/>
       <c r="J9" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="57"/>
+      <c r="C10" s="15"/>
       <c r="J10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="57"/>
+      <c r="C11" s="15"/>
       <c r="J11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="15"/>
       <c r="J12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="57"/>
+      <c r="C13" s="15"/>
       <c r="J13" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="57"/>
+      <c r="C14" s="15"/>
       <c r="J14" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="57"/>
+      <c r="C15" s="15"/>
       <c r="J15" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="57"/>
+      <c r="C16" s="15"/>
       <c r="J16" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="57"/>
+      <c r="C17" s="15"/>
       <c r="J17" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="57"/>
+      <c r="C18" s="15"/>
       <c r="J18" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="57"/>
+      <c r="C19" s="15"/>
       <c r="J19" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="57"/>
+      <c r="C20" s="15"/>
       <c r="J20" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="57"/>
+      <c r="C21" s="15"/>
       <c r="J21" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="57"/>
+      <c r="C22" s="15"/>
       <c r="J22" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="57"/>
+      <c r="C23" s="15"/>
       <c r="J23" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="57"/>
+      <c r="C24" s="15"/>
       <c r="J24" t="s">
         <v>125</v>
       </c>
@@ -4481,10 +4611,383 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E0E377-564D-400F-9C64-76E2C90BAC72}">
+  <dimension ref="B3:O20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="4" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="62"/>
+    </row>
+    <row r="4" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="68"/>
+    </row>
+    <row r="5" spans="2:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="68"/>
+    </row>
+    <row r="6" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="68"/>
+    </row>
+    <row r="7" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="68"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="68"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="68"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="68"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="68"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="68"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="68"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="68"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="68"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="68"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="68"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="68"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="68"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H7:O7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6973580-6B44-46A8-AB79-589FCD55DC1A}">
   <dimension ref="B3:B13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -4539,15 +5042,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA760E5-4801-49BB-909C-AFBE39FCD389}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B3:K78"/>
+  <dimension ref="B3:K86"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView showGridLines="0" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4572,17 +5075,17 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
@@ -4617,17 +5120,17 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C17" s="10" t="s">
@@ -4643,17 +5146,17 @@
       <c r="K17" s="8"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="21" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
@@ -4666,94 +5169,94 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="50"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="56"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="56"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="51"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="56"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="51"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="56"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="51"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="53"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="56"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="54"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="56"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="59"/>
     </row>
     <row r="33" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
@@ -4766,17 +5269,17 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="48"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="51"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C36" s="8"/>
@@ -4811,17 +5314,17 @@
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="48"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="51"/>
     </row>
     <row r="43" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
@@ -4844,94 +5347,94 @@
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C63" s="45" t="s">
+      <c r="C63" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="20"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="23"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C64" s="21"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="23"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="26"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C65" s="21"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="23"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="26"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C66" s="21"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="23"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="26"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C67" s="21"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="23"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="26"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="23"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="26"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C69" s="21"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="23"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="26"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C70" s="24"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="26"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="29"/>
     </row>
     <row r="73" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
@@ -4953,8 +5456,42 @@
         <v>105</v>
       </c>
     </row>
+    <row r="81" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B81" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C86" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="D86" s="50"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="50"/>
+      <c r="I86" s="50"/>
+      <c r="J86" s="50"/>
+      <c r="K86" s="51"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="C86:K86"/>
     <mergeCell ref="C63:K70"/>
     <mergeCell ref="C40:K40"/>
     <mergeCell ref="C35:K35"/>

--- a/karma-ts-howto.xlsx
+++ b/karma-ts-howto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Ivy\Github\karma-typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B989D3-67B1-4DE1-BD24-87FCA0A224E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFA2556-0862-46FA-80DB-AB2DC46338E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" firstSheet="1" activeTab="4" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" activeTab="4" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
   </bookViews>
   <sheets>
     <sheet name="Installation and Configuration" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,7 @@
     <sheet name="Sample Karma Test" sheetId="5" r:id="rId3"/>
     <sheet name="Jasmine Built-In Matchers" sheetId="8" r:id="rId4"/>
     <sheet name="Scenarios" sheetId="10" r:id="rId5"/>
-    <sheet name="Others" sheetId="9" r:id="rId6"/>
-    <sheet name="Errors" sheetId="7" r:id="rId7"/>
+    <sheet name="Errors" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="150">
   <si>
     <t>Prerequisite:</t>
   </si>
@@ -984,18 +983,6 @@
     <t>afterEach</t>
   </si>
   <si>
-    <t>beforeAll is call once, before all the specs in describe function are run.</t>
-  </si>
-  <si>
-    <t>afterAll is called once, after all the specs  in describe function are run.</t>
-  </si>
-  <si>
-    <t>beforeEach is called before each test specification in it function is run.</t>
-  </si>
-  <si>
-    <t>afterEach is called after each test specification in it function is run.</t>
-  </si>
-  <si>
     <t>10. SyntaxError: Cannot use import statement outside a module</t>
   </si>
   <si>
@@ -1085,6 +1072,9 @@
     <t>scr/enums.ts
 scr/enums2.ts
 test/enums.ts</t>
+  </si>
+  <si>
+    <t>test/getter-setter.ts</t>
   </si>
 </sst>
 </file>
@@ -1504,18 +1494,48 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1538,36 +1558,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4615,7 +4605,7 @@
   <dimension ref="B3:O20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:O5"/>
+      <selection activeCell="H9" sqref="H9:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4625,340 +4615,342 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+    </row>
+    <row r="4" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="50"/>
+    </row>
+    <row r="5" spans="2:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="50"/>
+    </row>
+    <row r="6" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="60" t="s">
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="50"/>
+    </row>
+    <row r="7" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="62"/>
-    </row>
-    <row r="4" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="69" t="s">
-        <v>150</v>
-      </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="68"/>
-    </row>
-    <row r="5" spans="2:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="69" t="s">
-        <v>150</v>
-      </c>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="68"/>
-    </row>
-    <row r="6" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="68"/>
-    </row>
-    <row r="7" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="63" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="69" t="s">
-        <v>151</v>
-      </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="68"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="68"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="50"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="68"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="50"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="68"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="50"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="68"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="50"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="68"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="50"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="68"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="50"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="68"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="50"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="68"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="50"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="68"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="50"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="68"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="50"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="68"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="50"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="68"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="50"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="68"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B9:G9"/>
@@ -4967,82 +4959,29 @@
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="H19:O19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6973580-6B44-46A8-AB79-589FCD55DC1A}">
-  <dimension ref="B3:B13"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="4" width="3.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA760E5-4801-49BB-909C-AFBE39FCD389}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -5172,91 +5111,91 @@
       <c r="C23" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="53"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="63"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="56"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="66"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="56"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="66"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="56"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="66"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="54"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="56"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="66"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="54"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="56"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="66"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="54"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="56"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="66"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="57"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="59"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="69"/>
     </row>
     <row r="33" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
@@ -5269,17 +5208,17 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="51"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="60"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C36" s="8"/>
@@ -5314,17 +5253,17 @@
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="51"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="60"/>
     </row>
     <row r="43" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
@@ -5347,7 +5286,7 @@
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C63" s="48" t="s">
+      <c r="C63" s="61" t="s">
         <v>95</v>
       </c>
       <c r="D63" s="22"/>
@@ -5458,47 +5397,47 @@
     </row>
     <row r="81" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B81" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C86" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="D86" s="50"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="50"/>
-      <c r="H86" s="50"/>
-      <c r="I86" s="50"/>
-      <c r="J86" s="50"/>
-      <c r="K86" s="51"/>
+      <c r="C86" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="D86" s="59"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="59"/>
+      <c r="K86" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C18:K18"/>
     <mergeCell ref="C86:K86"/>
     <mergeCell ref="C63:K70"/>
     <mergeCell ref="C40:K40"/>
     <mergeCell ref="C35:K35"/>
     <mergeCell ref="C23:K30"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C18:K18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/karma-ts-howto.xlsx
+++ b/karma-ts-howto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Ivy\Github\karma-typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFA2556-0862-46FA-80DB-AB2DC46338E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDF49C5-680A-4096-80D5-30B6A5E89A01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" activeTab="4" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="151">
   <si>
     <t>Prerequisite:</t>
   </si>
@@ -971,18 +971,6 @@
     <t>Built-In Matchers</t>
   </si>
   <si>
-    <t>beforeAll</t>
-  </si>
-  <si>
-    <t>afterAll</t>
-  </si>
-  <si>
-    <t>beforeEach</t>
-  </si>
-  <si>
-    <t>afterEach</t>
-  </si>
-  <si>
     <t>10. SyntaxError: Cannot use import statement outside a module</t>
   </si>
   <si>
@@ -1074,7 +1062,22 @@
 test/enums.ts</t>
   </si>
   <si>
-    <t>test/getter-setter.ts</t>
+    <t>beforeAll()</t>
+  </si>
+  <si>
+    <t>beforeEach()</t>
+  </si>
+  <si>
+    <t>afterAll()</t>
+  </si>
+  <si>
+    <t>afterEach()</t>
+  </si>
+  <si>
+    <t>spy</t>
+  </si>
+  <si>
+    <t>mock</t>
   </si>
 </sst>
 </file>
@@ -1494,35 +1497,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4604,8 +4607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E0E377-564D-400F-9C64-76E2C90BAC72}">
   <dimension ref="B3:O20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:O11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4615,356 +4618,335 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="56"/>
+    </row>
+    <row r="4" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="53"/>
+    </row>
+    <row r="5" spans="2:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53"/>
+    </row>
+    <row r="6" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="55" t="s">
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="53"/>
+    </row>
+    <row r="7" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="53"/>
+    </row>
+    <row r="8" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-    </row>
-    <row r="4" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="51" t="s">
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="53"/>
+    </row>
+    <row r="9" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="50"/>
-    </row>
-    <row r="5" spans="2:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="50"/>
-    </row>
-    <row r="6" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="51" t="s">
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="53"/>
+    </row>
+    <row r="10" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="53"/>
+    </row>
+    <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="50"/>
-    </row>
-    <row r="7" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="50"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="51" t="s">
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="53"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="50"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="50"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="50"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="50"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="50"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="53"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="50"/>
+      <c r="B13" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="53"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="50"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="53"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="50"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="53"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="50"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="53"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="50"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="53"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="50"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="53"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="50"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="53"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="50"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="H8:O8"/>
     <mergeCell ref="H9:O9"/>
     <mergeCell ref="H10:O10"/>
     <mergeCell ref="H11:O11"/>
@@ -4976,6 +4958,31 @@
     <mergeCell ref="H17:O17"/>
     <mergeCell ref="H18:O18"/>
     <mergeCell ref="H19:O19"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5397,27 +5404,27 @@
     </row>
     <row r="81" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B81" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C86" s="58" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D86" s="59"/>
       <c r="E86" s="59"/>

--- a/karma-ts-howto.xlsx
+++ b/karma-ts-howto.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Ivy\Github\karma-typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDF49C5-680A-4096-80D5-30B6A5E89A01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B66D5F-F093-4F8E-B20B-52962C382E1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" activeTab="4" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" firstSheet="1" activeTab="3" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
   </bookViews>
   <sheets>
     <sheet name="Installation and Configuration" sheetId="1" r:id="rId1"/>
     <sheet name="How To Generate Report" sheetId="6" r:id="rId2"/>
     <sheet name="Sample Karma Test" sheetId="5" r:id="rId3"/>
     <sheet name="Jasmine Built-In Matchers" sheetId="8" r:id="rId4"/>
-    <sheet name="Scenarios" sheetId="10" r:id="rId5"/>
-    <sheet name="Errors" sheetId="7" r:id="rId6"/>
+    <sheet name="Setup and Teardown" sheetId="12" r:id="rId5"/>
+    <sheet name="Scenarios" sheetId="10" r:id="rId6"/>
+    <sheet name="Errors" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="159">
   <si>
     <t>Prerequisite:</t>
   </si>
@@ -896,9 +897,6 @@
     <t>Target files (src and test) should be valid or discoverable.</t>
   </si>
   <si>
-    <t>Some of Jasmine's matchers are the following:</t>
-  </si>
-  <si>
     <t>expect(array).toContain(member);</t>
   </si>
   <si>
@@ -953,22 +951,7 @@
     <t>expect(spy).toHaveBeenCalledWith(...arguments);</t>
   </si>
   <si>
-    <t>&gt; Expect the actual value to match a regular expression.</t>
-  </si>
-  <si>
-    <t>&gt; Expect the actual value to be `===` to the expected value.</t>
-  </si>
-  <si>
-    <t>&gt; Expect the actual value to be equal to the expected, using deep equality comparison.</t>
-  </si>
-  <si>
     <t>expect(document).toHaveClass(class);</t>
-  </si>
-  <si>
-    <t>&gt; Expect the actual value to be a DOM element that has the expected class.</t>
-  </si>
-  <si>
-    <t>Built-In Matchers</t>
   </si>
   <si>
     <t>10. SyntaxError: Cannot use import statement outside a module</t>
@@ -1079,12 +1062,55 @@
   <si>
     <t>mock</t>
   </si>
+  <si>
+    <t>beforeAll</t>
+  </si>
+  <si>
+    <t>afterAll</t>
+  </si>
+  <si>
+    <t>afterAll is called once, after all the specs  in describe function are run.</t>
+  </si>
+  <si>
+    <t>beforeEach</t>
+  </si>
+  <si>
+    <t>beforeEach is called before each test specification in it function is run.</t>
+  </si>
+  <si>
+    <t>afterEach</t>
+  </si>
+  <si>
+    <t>afterEach is called after each test specification in it function is run.</t>
+  </si>
+  <si>
+    <t>src/spy.ts
+test/spy.ts</t>
+  </si>
+  <si>
+    <t>beforeAll is called once, before all the specs in describe function are run.</t>
+  </si>
+  <si>
+    <t>Expect the actual value to match a regular expression.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Expect the actual value to match a regular expression.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Expect the actual value to be a DOM element that has the expected class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Expect the actual value to be `===` to the expected value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Expect the actual value to be equal to the expected, using deep equality comparison.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1203,6 +1229,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1372,7 +1405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1401,12 +1434,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1497,6 +1524,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1506,15 +1545,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1524,9 +1554,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1562,6 +1589,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2127,7 +2163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2654A1-97C9-4994-AFAB-B0BA5D559350}">
   <dimension ref="B2:L89"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
@@ -2158,160 +2194,160 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
@@ -2338,17 +2374,17 @@
     </row>
     <row r="25" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
     </row>
     <row r="26" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
@@ -2368,17 +2404,17 @@
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D31" s="8"/>
@@ -2405,17 +2441,17 @@
       <c r="L32" s="8"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D34" s="8"/>
@@ -2442,17 +2478,17 @@
       <c r="L35" s="8"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
@@ -2501,17 +2537,17 @@
       </c>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
@@ -2519,17 +2555,17 @@
       </c>
     </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
@@ -2537,17 +2573,17 @@
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
@@ -2555,17 +2591,17 @@
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
     </row>
     <row r="55" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
@@ -2583,17 +2619,17 @@
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
@@ -2616,138 +2652,138 @@
       </c>
     </row>
     <row r="65" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D65" s="21" t="s">
+      <c r="D65" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="23"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="21"/>
     </row>
     <row r="66" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D66" s="24"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="26"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="24"/>
     </row>
     <row r="67" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D67" s="24"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="26"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="24"/>
     </row>
     <row r="68" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D68" s="24"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="26"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="24"/>
     </row>
     <row r="69" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D69" s="24"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="26"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="24"/>
     </row>
     <row r="70" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D70" s="24"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="25"/>
-      <c r="L70" s="26"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="24"/>
     </row>
     <row r="71" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D71" s="24"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="26"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="24"/>
     </row>
     <row r="72" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D72" s="24"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="26"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="24"/>
     </row>
     <row r="73" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D73" s="24"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="26"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="24"/>
     </row>
     <row r="74" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D74" s="24"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="26"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="24"/>
     </row>
     <row r="75" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D75" s="24"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="26"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="24"/>
     </row>
     <row r="76" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D76" s="27"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="29"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="27"/>
     </row>
     <row r="78" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
@@ -2755,17 +2791,17 @@
       </c>
     </row>
     <row r="79" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D79" s="18" t="s">
+      <c r="D79" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
     </row>
     <row r="80" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
@@ -2783,17 +2819,17 @@
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D84" s="18" t="s">
+      <c r="D84" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="18"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
@@ -2873,17 +2909,17 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -2891,138 +2927,138 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="32"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="35"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="35"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="35"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="33"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="35"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="35"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="35"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="35"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="35"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="33"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="38"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3037,7 +3073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6C7849-FFE0-44AA-A86A-9E4A7026ED91}">
   <dimension ref="B3:Y115"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q91" sqref="Q91"/>
     </sheetView>
   </sheetViews>
@@ -3135,95 +3171,95 @@
       </c>
     </row>
     <row r="18" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="Q18" s="30" t="s">
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
+      <c r="Q18" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="41"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="39"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C19" s="33"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="35"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="44"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="33"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="42"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C20" s="33"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="35"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="44"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="33"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="42"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C21" s="33"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="35"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="47"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="33"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="45"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="38"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
@@ -3253,57 +3289,57 @@
       </c>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="Q25" s="30" t="s">
+      <c r="Q25" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="41"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="39"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="Q26" s="42"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="43"/>
-      <c r="X26" s="44"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="42"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="Q27" s="42"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="44"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="42"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="Q28" s="42"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="43"/>
-      <c r="X28" s="44"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="41"/>
+      <c r="X28" s="42"/>
     </row>
     <row r="29" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="47"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="45"/>
     </row>
     <row r="30" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
@@ -3319,215 +3355,215 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="32"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="30"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C36" s="33"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="35"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="33"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C37" s="33"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="35"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="33"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C38" s="33"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="35"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="33"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C39" s="33"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="35"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="33"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C40" s="33"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="35"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="33"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C41" s="33"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="35"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="33"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C42" s="33"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="35"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="33"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="33"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="35"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="33"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="33"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="35"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="33"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C45" s="33"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="35"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="33"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C46" s="33"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="35"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="33"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C47" s="33"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="35"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="33"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C48" s="33"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="35"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="33"/>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C49" s="33"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="35"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="33"/>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C50" s="33"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="35"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="33"/>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C51" s="33"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="35"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="33"/>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C52" s="33"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="35"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="33"/>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C53" s="36"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="38"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="36"/>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C54" s="5"/>
@@ -3546,17 +3582,17 @@
       </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="32"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="30"/>
       <c r="N57" s="13"/>
       <c r="O57" s="13"/>
       <c r="P57" s="13"/>
@@ -3568,15 +3604,15 @@
       <c r="V57" s="13"/>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C58" s="33"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="35"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="33"/>
       <c r="N58" s="13"/>
       <c r="O58" s="13"/>
       <c r="P58" s="13"/>
@@ -3588,15 +3624,15 @@
       <c r="V58" s="13"/>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C59" s="33"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="35"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="33"/>
       <c r="N59" s="13"/>
       <c r="O59" s="13"/>
       <c r="P59" s="13"/>
@@ -3608,15 +3644,15 @@
       <c r="V59" s="13"/>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C60" s="33"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="35"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="33"/>
       <c r="N60" s="13"/>
       <c r="O60" s="13"/>
       <c r="P60" s="13"/>
@@ -3628,15 +3664,15 @@
       <c r="V60" s="13"/>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C61" s="33"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="35"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="33"/>
       <c r="N61" s="13"/>
       <c r="O61" s="13"/>
       <c r="P61" s="13"/>
@@ -3648,15 +3684,15 @@
       <c r="V61" s="13"/>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C62" s="33"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="35"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="33"/>
       <c r="N62" s="13"/>
       <c r="O62" s="13"/>
       <c r="P62" s="13"/>
@@ -3668,15 +3704,15 @@
       <c r="V62" s="13"/>
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C63" s="33"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="39"/>
-      <c r="K63" s="35"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="33"/>
       <c r="N63" s="13"/>
       <c r="O63" s="13"/>
       <c r="P63" s="13"/>
@@ -3688,15 +3724,15 @@
       <c r="V63" s="13"/>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C64" s="33"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="35"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="33"/>
       <c r="N64" s="13"/>
       <c r="O64" s="13"/>
       <c r="P64" s="13"/>
@@ -3708,15 +3744,15 @@
       <c r="V64" s="13"/>
     </row>
     <row r="65" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C65" s="33"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="39"/>
-      <c r="K65" s="35"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="33"/>
       <c r="N65" s="13"/>
       <c r="O65" s="13"/>
       <c r="P65" s="13"/>
@@ -3728,15 +3764,15 @@
       <c r="V65" s="13"/>
     </row>
     <row r="66" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C66" s="33"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="35"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="33"/>
       <c r="N66" s="13"/>
       <c r="O66" s="13"/>
       <c r="P66" s="13"/>
@@ -3748,15 +3784,15 @@
       <c r="V66" s="13"/>
     </row>
     <row r="67" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C67" s="33"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="35"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="33"/>
       <c r="N67" s="13"/>
       <c r="O67" s="13"/>
       <c r="P67" s="13"/>
@@ -3768,15 +3804,15 @@
       <c r="V67" s="13"/>
     </row>
     <row r="68" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C68" s="33"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="39"/>
-      <c r="K68" s="35"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="33"/>
       <c r="N68" s="13"/>
       <c r="O68" s="13"/>
       <c r="P68" s="13"/>
@@ -3788,15 +3824,15 @@
       <c r="V68" s="13"/>
     </row>
     <row r="69" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C69" s="33"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="35"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="33"/>
       <c r="N69" s="13"/>
       <c r="O69" s="13"/>
       <c r="P69" s="13"/>
@@ -3808,15 +3844,15 @@
       <c r="V69" s="13"/>
     </row>
     <row r="70" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C70" s="33"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="39"/>
-      <c r="K70" s="35"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="33"/>
       <c r="N70" s="13"/>
       <c r="O70" s="13"/>
       <c r="P70" s="13"/>
@@ -3828,15 +3864,15 @@
       <c r="V70" s="13"/>
     </row>
     <row r="71" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C71" s="33"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="39"/>
-      <c r="J71" s="39"/>
-      <c r="K71" s="35"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="33"/>
       <c r="N71" s="13"/>
       <c r="O71" s="13"/>
       <c r="P71" s="13"/>
@@ -3848,15 +3884,15 @@
       <c r="V71" s="13"/>
     </row>
     <row r="72" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C72" s="33"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="35"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="33"/>
       <c r="N72" s="13"/>
       <c r="O72" s="13"/>
       <c r="P72" s="13"/>
@@ -3868,15 +3904,15 @@
       <c r="V72" s="13"/>
     </row>
     <row r="73" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C73" s="33"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="39"/>
-      <c r="K73" s="35"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="33"/>
       <c r="N73" s="13"/>
       <c r="O73" s="13"/>
       <c r="P73" s="13"/>
@@ -3888,15 +3924,15 @@
       <c r="V73" s="13"/>
     </row>
     <row r="74" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C74" s="33"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="39"/>
-      <c r="K74" s="35"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="33"/>
       <c r="N74" s="13"/>
       <c r="O74" s="13"/>
       <c r="P74" s="13"/>
@@ -3908,15 +3944,15 @@
       <c r="V74" s="13"/>
     </row>
     <row r="75" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C75" s="33"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="39"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="39"/>
-      <c r="J75" s="39"/>
-      <c r="K75" s="35"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="33"/>
       <c r="N75" s="13"/>
       <c r="O75" s="13"/>
       <c r="P75" s="13"/>
@@ -3928,15 +3964,15 @@
       <c r="V75" s="13"/>
     </row>
     <row r="76" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C76" s="33"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="39"/>
-      <c r="J76" s="39"/>
-      <c r="K76" s="35"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="33"/>
       <c r="N76" s="13"/>
       <c r="O76" s="13"/>
       <c r="P76" s="13"/>
@@ -3948,15 +3984,15 @@
       <c r="V76" s="13"/>
     </row>
     <row r="77" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C77" s="33"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="39"/>
-      <c r="K77" s="35"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="37"/>
+      <c r="K77" s="33"/>
       <c r="N77" s="13"/>
       <c r="O77" s="13"/>
       <c r="P77" s="13"/>
@@ -3968,15 +4004,15 @@
       <c r="V77" s="13"/>
     </row>
     <row r="78" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C78" s="33"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="39"/>
-      <c r="K78" s="35"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="37"/>
+      <c r="K78" s="33"/>
       <c r="N78" s="13"/>
       <c r="O78" s="13"/>
       <c r="P78" s="13"/>
@@ -3988,15 +4024,15 @@
       <c r="V78" s="13"/>
     </row>
     <row r="79" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C79" s="33"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="39"/>
-      <c r="K79" s="35"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="37"/>
+      <c r="K79" s="33"/>
       <c r="N79" s="13"/>
       <c r="O79" s="13"/>
       <c r="P79" s="13"/>
@@ -4008,15 +4044,15 @@
       <c r="V79" s="13"/>
     </row>
     <row r="80" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C80" s="33"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="39"/>
-      <c r="K80" s="35"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="33"/>
       <c r="N80" s="13"/>
       <c r="O80" s="13"/>
       <c r="P80" s="13"/>
@@ -4028,15 +4064,15 @@
       <c r="V80" s="13"/>
     </row>
     <row r="81" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C81" s="33"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="39"/>
-      <c r="K81" s="35"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="33"/>
       <c r="N81" s="13"/>
       <c r="O81" s="13"/>
       <c r="P81" s="13"/>
@@ -4048,15 +4084,15 @@
       <c r="V81" s="13"/>
     </row>
     <row r="82" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C82" s="36"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="37"/>
-      <c r="K82" s="38"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="36"/>
       <c r="N82" s="13"/>
       <c r="O82" s="13"/>
       <c r="P82" s="13"/>
@@ -4073,149 +4109,149 @@
       </c>
     </row>
     <row r="86" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C86" s="30" t="s">
+      <c r="C86" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="31"/>
-      <c r="J86" s="31"/>
-      <c r="K86" s="32"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="30"/>
     </row>
     <row r="87" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C87" s="33"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="39"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="39"/>
-      <c r="K87" s="35"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="37"/>
+      <c r="K87" s="33"/>
     </row>
     <row r="88" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C88" s="33"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="39"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="39"/>
-      <c r="K88" s="35"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="37"/>
+      <c r="K88" s="33"/>
     </row>
     <row r="89" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C89" s="33"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="39"/>
-      <c r="K89" s="35"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="33"/>
     </row>
     <row r="90" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C90" s="33"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="39"/>
-      <c r="F90" s="39"/>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="39"/>
-      <c r="J90" s="39"/>
-      <c r="K90" s="35"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="37"/>
+      <c r="K90" s="33"/>
     </row>
     <row r="91" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C91" s="33"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="39"/>
-      <c r="J91" s="39"/>
-      <c r="K91" s="35"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
+      <c r="K91" s="33"/>
     </row>
     <row r="92" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C92" s="33"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
-      <c r="J92" s="39"/>
-      <c r="K92" s="35"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="37"/>
+      <c r="K92" s="33"/>
     </row>
     <row r="93" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C93" s="33"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="39"/>
-      <c r="F93" s="39"/>
-      <c r="G93" s="39"/>
-      <c r="H93" s="39"/>
-      <c r="I93" s="39"/>
-      <c r="J93" s="39"/>
-      <c r="K93" s="35"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="33"/>
     </row>
     <row r="94" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C94" s="33"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="39"/>
-      <c r="F94" s="39"/>
-      <c r="G94" s="39"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="39"/>
-      <c r="J94" s="39"/>
-      <c r="K94" s="35"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="37"/>
+      <c r="K94" s="33"/>
     </row>
     <row r="95" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C95" s="33"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="39"/>
-      <c r="F95" s="39"/>
-      <c r="G95" s="39"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="39"/>
-      <c r="J95" s="39"/>
-      <c r="K95" s="35"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="37"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="37"/>
+      <c r="K95" s="33"/>
     </row>
     <row r="96" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C96" s="33"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="39"/>
-      <c r="F96" s="39"/>
-      <c r="G96" s="39"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="39"/>
-      <c r="J96" s="39"/>
-      <c r="K96" s="35"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="37"/>
+      <c r="K96" s="33"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C97" s="33"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="39"/>
-      <c r="G97" s="39"/>
-      <c r="H97" s="39"/>
-      <c r="I97" s="39"/>
-      <c r="J97" s="39"/>
-      <c r="K97" s="35"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="37"/>
+      <c r="K97" s="33"/>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C98" s="36"/>
-      <c r="D98" s="37"/>
-      <c r="E98" s="37"/>
-      <c r="F98" s="37"/>
-      <c r="G98" s="37"/>
-      <c r="H98" s="37"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="37"/>
-      <c r="K98" s="38"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="35"/>
+      <c r="J98" s="35"/>
+      <c r="K98" s="36"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
@@ -4223,160 +4259,160 @@
       </c>
     </row>
     <row r="102" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="30" t="s">
+      <c r="C102" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D102" s="40"/>
-      <c r="E102" s="40"/>
-      <c r="F102" s="40"/>
-      <c r="G102" s="40"/>
-      <c r="H102" s="40"/>
-      <c r="I102" s="40"/>
-      <c r="J102" s="40"/>
-      <c r="K102" s="40"/>
-      <c r="L102" s="40"/>
-      <c r="M102" s="40"/>
-      <c r="N102" s="41"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="38"/>
+      <c r="F102" s="38"/>
+      <c r="G102" s="38"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="38"/>
+      <c r="J102" s="38"/>
+      <c r="K102" s="38"/>
+      <c r="L102" s="38"/>
+      <c r="M102" s="38"/>
+      <c r="N102" s="39"/>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C103" s="42"/>
-      <c r="D103" s="43"/>
-      <c r="E103" s="43"/>
-      <c r="F103" s="43"/>
-      <c r="G103" s="43"/>
-      <c r="H103" s="43"/>
-      <c r="I103" s="43"/>
-      <c r="J103" s="43"/>
-      <c r="K103" s="43"/>
-      <c r="L103" s="43"/>
-      <c r="M103" s="43"/>
-      <c r="N103" s="44"/>
+      <c r="C103" s="40"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="41"/>
+      <c r="G103" s="41"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="41"/>
+      <c r="J103" s="41"/>
+      <c r="K103" s="41"/>
+      <c r="L103" s="41"/>
+      <c r="M103" s="41"/>
+      <c r="N103" s="42"/>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C104" s="42"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="43"/>
-      <c r="F104" s="43"/>
-      <c r="G104" s="43"/>
-      <c r="H104" s="43"/>
-      <c r="I104" s="43"/>
-      <c r="J104" s="43"/>
-      <c r="K104" s="43"/>
-      <c r="L104" s="43"/>
-      <c r="M104" s="43"/>
-      <c r="N104" s="44"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="41"/>
+      <c r="E104" s="41"/>
+      <c r="F104" s="41"/>
+      <c r="G104" s="41"/>
+      <c r="H104" s="41"/>
+      <c r="I104" s="41"/>
+      <c r="J104" s="41"/>
+      <c r="K104" s="41"/>
+      <c r="L104" s="41"/>
+      <c r="M104" s="41"/>
+      <c r="N104" s="42"/>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C105" s="42"/>
-      <c r="D105" s="43"/>
-      <c r="E105" s="43"/>
-      <c r="F105" s="43"/>
-      <c r="G105" s="43"/>
-      <c r="H105" s="43"/>
-      <c r="I105" s="43"/>
-      <c r="J105" s="43"/>
-      <c r="K105" s="43"/>
-      <c r="L105" s="43"/>
-      <c r="M105" s="43"/>
-      <c r="N105" s="44"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="41"/>
+      <c r="E105" s="41"/>
+      <c r="F105" s="41"/>
+      <c r="G105" s="41"/>
+      <c r="H105" s="41"/>
+      <c r="I105" s="41"/>
+      <c r="J105" s="41"/>
+      <c r="K105" s="41"/>
+      <c r="L105" s="41"/>
+      <c r="M105" s="41"/>
+      <c r="N105" s="42"/>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C106" s="42"/>
-      <c r="D106" s="43"/>
-      <c r="E106" s="43"/>
-      <c r="F106" s="43"/>
-      <c r="G106" s="43"/>
-      <c r="H106" s="43"/>
-      <c r="I106" s="43"/>
-      <c r="J106" s="43"/>
-      <c r="K106" s="43"/>
-      <c r="L106" s="43"/>
-      <c r="M106" s="43"/>
-      <c r="N106" s="44"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="41"/>
+      <c r="F106" s="41"/>
+      <c r="G106" s="41"/>
+      <c r="H106" s="41"/>
+      <c r="I106" s="41"/>
+      <c r="J106" s="41"/>
+      <c r="K106" s="41"/>
+      <c r="L106" s="41"/>
+      <c r="M106" s="41"/>
+      <c r="N106" s="42"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C107" s="42"/>
-      <c r="D107" s="43"/>
-      <c r="E107" s="43"/>
-      <c r="F107" s="43"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="43"/>
-      <c r="K107" s="43"/>
-      <c r="L107" s="43"/>
-      <c r="M107" s="43"/>
-      <c r="N107" s="44"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="41"/>
+      <c r="E107" s="41"/>
+      <c r="F107" s="41"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="41"/>
+      <c r="K107" s="41"/>
+      <c r="L107" s="41"/>
+      <c r="M107" s="41"/>
+      <c r="N107" s="42"/>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C108" s="42"/>
-      <c r="D108" s="43"/>
-      <c r="E108" s="43"/>
-      <c r="F108" s="43"/>
-      <c r="G108" s="43"/>
-      <c r="H108" s="43"/>
-      <c r="I108" s="43"/>
-      <c r="J108" s="43"/>
-      <c r="K108" s="43"/>
-      <c r="L108" s="43"/>
-      <c r="M108" s="43"/>
-      <c r="N108" s="44"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="41"/>
+      <c r="E108" s="41"/>
+      <c r="F108" s="41"/>
+      <c r="G108" s="41"/>
+      <c r="H108" s="41"/>
+      <c r="I108" s="41"/>
+      <c r="J108" s="41"/>
+      <c r="K108" s="41"/>
+      <c r="L108" s="41"/>
+      <c r="M108" s="41"/>
+      <c r="N108" s="42"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C109" s="42"/>
-      <c r="D109" s="43"/>
-      <c r="E109" s="43"/>
-      <c r="F109" s="43"/>
-      <c r="G109" s="43"/>
-      <c r="H109" s="43"/>
-      <c r="I109" s="43"/>
-      <c r="J109" s="43"/>
-      <c r="K109" s="43"/>
-      <c r="L109" s="43"/>
-      <c r="M109" s="43"/>
-      <c r="N109" s="44"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="41"/>
+      <c r="E109" s="41"/>
+      <c r="F109" s="41"/>
+      <c r="G109" s="41"/>
+      <c r="H109" s="41"/>
+      <c r="I109" s="41"/>
+      <c r="J109" s="41"/>
+      <c r="K109" s="41"/>
+      <c r="L109" s="41"/>
+      <c r="M109" s="41"/>
+      <c r="N109" s="42"/>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C110" s="42"/>
-      <c r="D110" s="43"/>
-      <c r="E110" s="43"/>
-      <c r="F110" s="43"/>
-      <c r="G110" s="43"/>
-      <c r="H110" s="43"/>
-      <c r="I110" s="43"/>
-      <c r="J110" s="43"/>
-      <c r="K110" s="43"/>
-      <c r="L110" s="43"/>
-      <c r="M110" s="43"/>
-      <c r="N110" s="44"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="41"/>
+      <c r="E110" s="41"/>
+      <c r="F110" s="41"/>
+      <c r="G110" s="41"/>
+      <c r="H110" s="41"/>
+      <c r="I110" s="41"/>
+      <c r="J110" s="41"/>
+      <c r="K110" s="41"/>
+      <c r="L110" s="41"/>
+      <c r="M110" s="41"/>
+      <c r="N110" s="42"/>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C111" s="42"/>
-      <c r="D111" s="43"/>
-      <c r="E111" s="43"/>
-      <c r="F111" s="43"/>
-      <c r="G111" s="43"/>
-      <c r="H111" s="43"/>
-      <c r="I111" s="43"/>
-      <c r="J111" s="43"/>
-      <c r="K111" s="43"/>
-      <c r="L111" s="43"/>
-      <c r="M111" s="43"/>
-      <c r="N111" s="44"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="41"/>
+      <c r="E111" s="41"/>
+      <c r="F111" s="41"/>
+      <c r="G111" s="41"/>
+      <c r="H111" s="41"/>
+      <c r="I111" s="41"/>
+      <c r="J111" s="41"/>
+      <c r="K111" s="41"/>
+      <c r="L111" s="41"/>
+      <c r="M111" s="41"/>
+      <c r="N111" s="42"/>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C112" s="45"/>
-      <c r="D112" s="46"/>
-      <c r="E112" s="46"/>
-      <c r="F112" s="46"/>
-      <c r="G112" s="46"/>
-      <c r="H112" s="46"/>
-      <c r="I112" s="46"/>
-      <c r="J112" s="46"/>
-      <c r="K112" s="46"/>
-      <c r="L112" s="46"/>
-      <c r="M112" s="46"/>
-      <c r="N112" s="47"/>
+      <c r="C112" s="43"/>
+      <c r="D112" s="44"/>
+      <c r="E112" s="44"/>
+      <c r="F112" s="44"/>
+      <c r="G112" s="44"/>
+      <c r="H112" s="44"/>
+      <c r="I112" s="44"/>
+      <c r="J112" s="44"/>
+      <c r="K112" s="44"/>
+      <c r="L112" s="44"/>
+      <c r="M112" s="44"/>
+      <c r="N112" s="45"/>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
@@ -4404,10 +4440,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40F97C8-ED93-460E-942E-2A1CEB57E2D4}">
-  <dimension ref="B3:J24"/>
+  <dimension ref="B3:C58"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4416,186 +4452,296 @@
     <col min="2" max="4" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="3" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="68" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="70"/>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="J6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="J7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="C9" s="15"/>
+    </row>
+    <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="68"/>
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="J8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="J9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="15"/>
+    </row>
+    <row r="18" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="J10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="J11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+      <c r="C21" s="15"/>
+    </row>
+    <row r="22" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="15"/>
+    </row>
+    <row r="23" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="J12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+      <c r="C24" s="15"/>
+    </row>
+    <row r="25" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="15"/>
+    </row>
+    <row r="26" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="15"/>
+    </row>
+    <row r="27" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="J13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="C27" s="15"/>
+    </row>
+    <row r="28" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="15"/>
+    </row>
+    <row r="29" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="J14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="C30" s="15"/>
+    </row>
+    <row r="31" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="15"/>
+    </row>
+    <row r="32" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="15"/>
+    </row>
+    <row r="33" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="J15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
+      <c r="C33" s="15"/>
+    </row>
+    <row r="34" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="15"/>
+    </row>
+    <row r="35" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C35" s="15"/>
+    </row>
+    <row r="36" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="J16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+      <c r="C36" s="15"/>
+    </row>
+    <row r="37" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="15"/>
+    </row>
+    <row r="38" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="68"/>
+      <c r="C38" s="15"/>
+    </row>
+    <row r="39" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="J17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="C39" s="15"/>
+    </row>
+    <row r="40" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="15"/>
+    </row>
+    <row r="41" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="68"/>
+      <c r="C41" s="15"/>
+    </row>
+    <row r="42" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="J18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="C42" s="15"/>
+    </row>
+    <row r="43" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="15"/>
+    </row>
+    <row r="44" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="68"/>
+      <c r="C44" s="15"/>
+    </row>
+    <row r="45" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="J19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
+      <c r="C45" s="15"/>
+    </row>
+    <row r="46" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="15"/>
+    </row>
+    <row r="47" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="68"/>
+      <c r="C47" s="15"/>
+    </row>
+    <row r="48" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="J20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
+      <c r="C48" s="15"/>
+    </row>
+    <row r="49" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="15"/>
+    </row>
+    <row r="50" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="68"/>
+      <c r="C50" s="15"/>
+    </row>
+    <row r="51" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="J21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
+      <c r="C51" s="15"/>
+    </row>
+    <row r="52" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="15"/>
+    </row>
+    <row r="53" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="68"/>
+      <c r="C53" s="15"/>
+    </row>
+    <row r="54" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="J22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
+      <c r="C54" s="15"/>
+    </row>
+    <row r="55" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="15"/>
+    </row>
+    <row r="56" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="68"/>
+      <c r="C56" s="15"/>
+    </row>
+    <row r="57" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="J23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="J24" t="s">
-        <v>125</v>
-      </c>
+      <c r="C57" s="15"/>
+    </row>
+    <row r="58" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4604,11 +4750,71 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6F8958-2F95-49C1-8009-4AC1EF4057B6}">
+  <dimension ref="B3:B13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="4" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E0E377-564D-400F-9C64-76E2C90BAC72}">
   <dimension ref="B3:O20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:O8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4618,335 +4824,361 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="55"/>
+    </row>
+    <row r="4" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="48"/>
+    </row>
+    <row r="5" spans="2:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="48"/>
+    </row>
+    <row r="6" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="48"/>
+    </row>
+    <row r="8" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="48"/>
+    </row>
+    <row r="9" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="54" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="48"/>
+    </row>
+    <row r="10" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="56"/>
-    </row>
-    <row r="4" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="51" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="48"/>
+    </row>
+    <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="53"/>
-    </row>
-    <row r="5" spans="2:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="53"/>
-    </row>
-    <row r="6" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="51" t="s">
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="48"/>
+    </row>
+    <row r="12" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="48"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="53"/>
-    </row>
-    <row r="7" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="53"/>
-    </row>
-    <row r="8" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="53"/>
-    </row>
-    <row r="9" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="53"/>
-    </row>
-    <row r="10" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="53"/>
-    </row>
-    <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="53"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="53"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="53"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="48"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="53"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="48"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="53"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="48"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="53"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="48"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="53"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="48"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="53"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="48"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="53"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="48"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="53"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
     <mergeCell ref="H9:O9"/>
     <mergeCell ref="H10:O10"/>
     <mergeCell ref="H11:O11"/>
@@ -4959,45 +5191,19 @@
     <mergeCell ref="H18:O18"/>
     <mergeCell ref="H19:O19"/>
     <mergeCell ref="H13:O13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="H8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA760E5-4801-49BB-909C-AFBE39FCD389}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="B3:K86"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="K89" sqref="K89"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5021,17 +5227,17 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
@@ -5066,17 +5272,17 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C17" s="10" t="s">
@@ -5092,17 +5298,17 @@
       <c r="K17" s="8"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="21" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
@@ -5115,94 +5321,94 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="63"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="61"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="64"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="66"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="64"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="66"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="64"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="64"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="66"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="64"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="64"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="66"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="64"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="66"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="64"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="66"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="64"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="67"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="69"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="67"/>
     </row>
     <row r="33" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
@@ -5215,17 +5421,17 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="60"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="58"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C36" s="8"/>
@@ -5260,17 +5466,17 @@
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="60"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="58"/>
     </row>
     <row r="43" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
@@ -5293,94 +5499,94 @@
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C63" s="61" t="s">
+      <c r="C63" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="23"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="21"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C64" s="24"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="26"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="24"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C65" s="24"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="26"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="24"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C66" s="24"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="26"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="24"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C67" s="24"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="26"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="24"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C68" s="24"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="26"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="24"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C69" s="24"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="26"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="24"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C70" s="27"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="29"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="27"/>
     </row>
     <row r="73" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
@@ -5404,36 +5610,36 @@
     </row>
     <row r="81" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B81" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C86" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="D86" s="59"/>
-      <c r="E86" s="59"/>
-      <c r="F86" s="59"/>
-      <c r="G86" s="59"/>
-      <c r="H86" s="59"/>
-      <c r="I86" s="59"/>
-      <c r="J86" s="59"/>
-      <c r="K86" s="60"/>
+      <c r="C86" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="D86" s="57"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="57"/>
+      <c r="K86" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/karma-ts-howto.xlsx
+++ b/karma-ts-howto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Ivy\Github\karma-typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B66D5F-F093-4F8E-B20B-52962C382E1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A18225-65BE-46DD-83D4-52907039584F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" firstSheet="1" activeTab="3" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" firstSheet="1" activeTab="5" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
   </bookViews>
   <sheets>
     <sheet name="Installation and Configuration" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="155">
   <si>
     <t>Prerequisite:</t>
   </si>
@@ -1063,22 +1063,10 @@
     <t>mock</t>
   </si>
   <si>
-    <t>beforeAll</t>
-  </si>
-  <si>
-    <t>afterAll</t>
-  </si>
-  <si>
     <t>afterAll is called once, after all the specs  in describe function are run.</t>
   </si>
   <si>
-    <t>beforeEach</t>
-  </si>
-  <si>
     <t>beforeEach is called before each test specification in it function is run.</t>
-  </si>
-  <si>
-    <t>afterEach</t>
   </si>
   <si>
     <t>afterEach is called after each test specification in it function is run.</t>
@@ -1434,6 +1422,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1524,6 +1521,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1533,27 +1539,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1589,15 +1586,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2194,160 +2182,160 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
@@ -2374,17 +2362,17 @@
     </row>
     <row r="25" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
     </row>
     <row r="26" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
@@ -2404,17 +2392,17 @@
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D31" s="8"/>
@@ -2441,17 +2429,17 @@
       <c r="L32" s="8"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D34" s="8"/>
@@ -2478,17 +2466,17 @@
       <c r="L35" s="8"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
@@ -2537,17 +2525,17 @@
       </c>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
@@ -2555,17 +2543,17 @@
       </c>
     </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
@@ -2573,17 +2561,17 @@
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
@@ -2591,17 +2579,17 @@
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
     </row>
     <row r="55" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
@@ -2619,17 +2607,17 @@
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
@@ -2652,138 +2640,138 @@
       </c>
     </row>
     <row r="65" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D65" s="19" t="s">
+      <c r="D65" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="21"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="24"/>
     </row>
     <row r="66" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D66" s="22"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="24"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="27"/>
     </row>
     <row r="67" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D67" s="22"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="24"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="27"/>
     </row>
     <row r="68" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D68" s="22"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="23"/>
-      <c r="J68" s="23"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="24"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="27"/>
     </row>
     <row r="69" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D69" s="22"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="24"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="27"/>
     </row>
     <row r="70" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D70" s="22"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="24"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="27"/>
     </row>
     <row r="71" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D71" s="22"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="24"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="27"/>
     </row>
     <row r="72" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D72" s="22"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="24"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="27"/>
     </row>
     <row r="73" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D73" s="22"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="23"/>
-      <c r="J73" s="23"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="24"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="27"/>
     </row>
     <row r="74" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D74" s="22"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="23"/>
-      <c r="J74" s="23"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="24"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="27"/>
     </row>
     <row r="75" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D75" s="22"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="24"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="27"/>
     </row>
     <row r="76" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D76" s="25"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="26"/>
-      <c r="L76" s="27"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="30"/>
     </row>
     <row r="78" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
@@ -2791,17 +2779,17 @@
       </c>
     </row>
     <row r="79" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D79" s="16" t="s">
+      <c r="D79" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-      <c r="L79" s="16"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="19"/>
     </row>
     <row r="80" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
@@ -2819,17 +2807,17 @@
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D84" s="16" t="s">
+      <c r="D84" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="16"/>
-      <c r="L84" s="16"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
@@ -2909,17 +2897,17 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -2927,138 +2915,138 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="36"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="36"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="36"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="36"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="36"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3171,95 +3159,95 @@
       </c>
     </row>
     <row r="18" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
-      <c r="Q18" s="28" t="s">
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="33"/>
+      <c r="Q18" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="39"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="42"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C19" s="31"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="33"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="42"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="36"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="45"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C20" s="31"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="33"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="42"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="36"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="45"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C21" s="31"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="33"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="45"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="36"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="48"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="39"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
@@ -3289,57 +3277,57 @@
       </c>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="Q25" s="28" t="s">
+      <c r="Q25" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="39"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="42"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="Q26" s="40"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="42"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="45"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="42"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="45"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="42"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="45"/>
     </row>
     <row r="29" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="45"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="47"/>
+      <c r="X29" s="48"/>
     </row>
     <row r="30" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
@@ -3355,215 +3343,215 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="30"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="33"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C36" s="31"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="33"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="36"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C37" s="31"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="33"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="36"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C38" s="31"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="33"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="36"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C39" s="31"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="33"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="36"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C40" s="31"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="33"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="36"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C41" s="31"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="36"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C42" s="31"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="33"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="36"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="31"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="33"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="36"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="31"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="33"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="36"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C45" s="31"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="33"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="36"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C46" s="31"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="33"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="36"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C47" s="31"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="33"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="36"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C48" s="31"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="33"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="36"/>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C49" s="31"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="33"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="36"/>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C50" s="31"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="33"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="36"/>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C51" s="31"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="33"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="36"/>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C52" s="31"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="33"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="36"/>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C53" s="34"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="36"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="39"/>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C54" s="5"/>
@@ -3582,17 +3570,17 @@
       </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C57" s="28" t="s">
+      <c r="C57" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="30"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="33"/>
       <c r="N57" s="13"/>
       <c r="O57" s="13"/>
       <c r="P57" s="13"/>
@@ -3604,15 +3592,15 @@
       <c r="V57" s="13"/>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C58" s="31"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="33"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="36"/>
       <c r="N58" s="13"/>
       <c r="O58" s="13"/>
       <c r="P58" s="13"/>
@@ -3624,15 +3612,15 @@
       <c r="V58" s="13"/>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C59" s="31"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="33"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="36"/>
       <c r="N59" s="13"/>
       <c r="O59" s="13"/>
       <c r="P59" s="13"/>
@@ -3644,15 +3632,15 @@
       <c r="V59" s="13"/>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C60" s="31"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="33"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="36"/>
       <c r="N60" s="13"/>
       <c r="O60" s="13"/>
       <c r="P60" s="13"/>
@@ -3664,15 +3652,15 @@
       <c r="V60" s="13"/>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C61" s="31"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="33"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="36"/>
       <c r="N61" s="13"/>
       <c r="O61" s="13"/>
       <c r="P61" s="13"/>
@@ -3684,15 +3672,15 @@
       <c r="V61" s="13"/>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C62" s="31"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="33"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="36"/>
       <c r="N62" s="13"/>
       <c r="O62" s="13"/>
       <c r="P62" s="13"/>
@@ -3704,15 +3692,15 @@
       <c r="V62" s="13"/>
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C63" s="31"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="33"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="36"/>
       <c r="N63" s="13"/>
       <c r="O63" s="13"/>
       <c r="P63" s="13"/>
@@ -3724,15 +3712,15 @@
       <c r="V63" s="13"/>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C64" s="31"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="33"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="36"/>
       <c r="N64" s="13"/>
       <c r="O64" s="13"/>
       <c r="P64" s="13"/>
@@ -3744,15 +3732,15 @@
       <c r="V64" s="13"/>
     </row>
     <row r="65" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C65" s="31"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="33"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="36"/>
       <c r="N65" s="13"/>
       <c r="O65" s="13"/>
       <c r="P65" s="13"/>
@@ -3764,15 +3752,15 @@
       <c r="V65" s="13"/>
     </row>
     <row r="66" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C66" s="31"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="37"/>
-      <c r="K66" s="33"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="36"/>
       <c r="N66" s="13"/>
       <c r="O66" s="13"/>
       <c r="P66" s="13"/>
@@ -3784,15 +3772,15 @@
       <c r="V66" s="13"/>
     </row>
     <row r="67" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C67" s="31"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37"/>
-      <c r="K67" s="33"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="36"/>
       <c r="N67" s="13"/>
       <c r="O67" s="13"/>
       <c r="P67" s="13"/>
@@ -3804,15 +3792,15 @@
       <c r="V67" s="13"/>
     </row>
     <row r="68" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C68" s="31"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="33"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="36"/>
       <c r="N68" s="13"/>
       <c r="O68" s="13"/>
       <c r="P68" s="13"/>
@@ -3824,15 +3812,15 @@
       <c r="V68" s="13"/>
     </row>
     <row r="69" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C69" s="31"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="33"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="36"/>
       <c r="N69" s="13"/>
       <c r="O69" s="13"/>
       <c r="P69" s="13"/>
@@ -3844,15 +3832,15 @@
       <c r="V69" s="13"/>
     </row>
     <row r="70" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C70" s="31"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="33"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="36"/>
       <c r="N70" s="13"/>
       <c r="O70" s="13"/>
       <c r="P70" s="13"/>
@@ -3864,15 +3852,15 @@
       <c r="V70" s="13"/>
     </row>
     <row r="71" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C71" s="31"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="33"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="36"/>
       <c r="N71" s="13"/>
       <c r="O71" s="13"/>
       <c r="P71" s="13"/>
@@ -3884,15 +3872,15 @@
       <c r="V71" s="13"/>
     </row>
     <row r="72" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C72" s="31"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="33"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="36"/>
       <c r="N72" s="13"/>
       <c r="O72" s="13"/>
       <c r="P72" s="13"/>
@@ -3904,15 +3892,15 @@
       <c r="V72" s="13"/>
     </row>
     <row r="73" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C73" s="31"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="33"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="40"/>
+      <c r="K73" s="36"/>
       <c r="N73" s="13"/>
       <c r="O73" s="13"/>
       <c r="P73" s="13"/>
@@ -3924,15 +3912,15 @@
       <c r="V73" s="13"/>
     </row>
     <row r="74" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C74" s="31"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="33"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="36"/>
       <c r="N74" s="13"/>
       <c r="O74" s="13"/>
       <c r="P74" s="13"/>
@@ -3944,15 +3932,15 @@
       <c r="V74" s="13"/>
     </row>
     <row r="75" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C75" s="31"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="37"/>
-      <c r="K75" s="33"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="36"/>
       <c r="N75" s="13"/>
       <c r="O75" s="13"/>
       <c r="P75" s="13"/>
@@ -3964,15 +3952,15 @@
       <c r="V75" s="13"/>
     </row>
     <row r="76" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C76" s="31"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="33"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="36"/>
       <c r="N76" s="13"/>
       <c r="O76" s="13"/>
       <c r="P76" s="13"/>
@@ -3984,15 +3972,15 @@
       <c r="V76" s="13"/>
     </row>
     <row r="77" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C77" s="31"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="37"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="37"/>
-      <c r="K77" s="33"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="40"/>
+      <c r="K77" s="36"/>
       <c r="N77" s="13"/>
       <c r="O77" s="13"/>
       <c r="P77" s="13"/>
@@ -4004,15 +3992,15 @@
       <c r="V77" s="13"/>
     </row>
     <row r="78" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C78" s="31"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="37"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="37"/>
-      <c r="K78" s="33"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="36"/>
       <c r="N78" s="13"/>
       <c r="O78" s="13"/>
       <c r="P78" s="13"/>
@@ -4024,15 +4012,15 @@
       <c r="V78" s="13"/>
     </row>
     <row r="79" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C79" s="31"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="37"/>
-      <c r="K79" s="33"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="40"/>
+      <c r="K79" s="36"/>
       <c r="N79" s="13"/>
       <c r="O79" s="13"/>
       <c r="P79" s="13"/>
@@ -4044,15 +4032,15 @@
       <c r="V79" s="13"/>
     </row>
     <row r="80" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C80" s="31"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="37"/>
-      <c r="K80" s="33"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="36"/>
       <c r="N80" s="13"/>
       <c r="O80" s="13"/>
       <c r="P80" s="13"/>
@@ -4064,15 +4052,15 @@
       <c r="V80" s="13"/>
     </row>
     <row r="81" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C81" s="31"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="37"/>
-      <c r="K81" s="33"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="40"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="36"/>
       <c r="N81" s="13"/>
       <c r="O81" s="13"/>
       <c r="P81" s="13"/>
@@ -4084,15 +4072,15 @@
       <c r="V81" s="13"/>
     </row>
     <row r="82" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C82" s="34"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="35"/>
-      <c r="K82" s="36"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
+      <c r="J82" s="38"/>
+      <c r="K82" s="39"/>
       <c r="N82" s="13"/>
       <c r="O82" s="13"/>
       <c r="P82" s="13"/>
@@ -4109,149 +4097,149 @@
       </c>
     </row>
     <row r="86" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C86" s="28" t="s">
+      <c r="C86" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="29"/>
-      <c r="K86" s="30"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="32"/>
+      <c r="K86" s="33"/>
     </row>
     <row r="87" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C87" s="31"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="37"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="37"/>
-      <c r="K87" s="33"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="36"/>
     </row>
     <row r="88" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C88" s="31"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="37"/>
-      <c r="K88" s="33"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="36"/>
     </row>
     <row r="89" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C89" s="31"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="37"/>
-      <c r="K89" s="33"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="36"/>
     </row>
     <row r="90" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C90" s="31"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="37"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="37"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="37"/>
-      <c r="K90" s="33"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="36"/>
     </row>
     <row r="91" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C91" s="31"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="37"/>
-      <c r="K91" s="33"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="40"/>
+      <c r="F91" s="40"/>
+      <c r="G91" s="40"/>
+      <c r="H91" s="40"/>
+      <c r="I91" s="40"/>
+      <c r="J91" s="40"/>
+      <c r="K91" s="36"/>
     </row>
     <row r="92" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C92" s="31"/>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="37"/>
-      <c r="K92" s="33"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="40"/>
+      <c r="K92" s="36"/>
     </row>
     <row r="93" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C93" s="31"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="37"/>
-      <c r="K93" s="33"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="40"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="40"/>
+      <c r="I93" s="40"/>
+      <c r="J93" s="40"/>
+      <c r="K93" s="36"/>
     </row>
     <row r="94" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C94" s="31"/>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="37"/>
-      <c r="K94" s="33"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="40"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="40"/>
+      <c r="I94" s="40"/>
+      <c r="J94" s="40"/>
+      <c r="K94" s="36"/>
     </row>
     <row r="95" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C95" s="31"/>
-      <c r="D95" s="37"/>
-      <c r="E95" s="37"/>
-      <c r="F95" s="37"/>
-      <c r="G95" s="37"/>
-      <c r="H95" s="37"/>
-      <c r="I95" s="37"/>
-      <c r="J95" s="37"/>
-      <c r="K95" s="33"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="40"/>
+      <c r="K95" s="36"/>
     </row>
     <row r="96" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C96" s="31"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="37"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="37"/>
-      <c r="K96" s="33"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="40"/>
+      <c r="I96" s="40"/>
+      <c r="J96" s="40"/>
+      <c r="K96" s="36"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C97" s="31"/>
-      <c r="D97" s="37"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="37"/>
-      <c r="H97" s="37"/>
-      <c r="I97" s="37"/>
-      <c r="J97" s="37"/>
-      <c r="K97" s="33"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="40"/>
+      <c r="G97" s="40"/>
+      <c r="H97" s="40"/>
+      <c r="I97" s="40"/>
+      <c r="J97" s="40"/>
+      <c r="K97" s="36"/>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C98" s="34"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
-      <c r="I98" s="35"/>
-      <c r="J98" s="35"/>
-      <c r="K98" s="36"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="38"/>
+      <c r="F98" s="38"/>
+      <c r="G98" s="38"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="38"/>
+      <c r="J98" s="38"/>
+      <c r="K98" s="39"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
@@ -4259,160 +4247,160 @@
       </c>
     </row>
     <row r="102" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="28" t="s">
+      <c r="C102" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D102" s="38"/>
-      <c r="E102" s="38"/>
-      <c r="F102" s="38"/>
-      <c r="G102" s="38"/>
-      <c r="H102" s="38"/>
-      <c r="I102" s="38"/>
-      <c r="J102" s="38"/>
-      <c r="K102" s="38"/>
-      <c r="L102" s="38"/>
-      <c r="M102" s="38"/>
-      <c r="N102" s="39"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="41"/>
+      <c r="G102" s="41"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="41"/>
+      <c r="K102" s="41"/>
+      <c r="L102" s="41"/>
+      <c r="M102" s="41"/>
+      <c r="N102" s="42"/>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C103" s="40"/>
-      <c r="D103" s="41"/>
-      <c r="E103" s="41"/>
-      <c r="F103" s="41"/>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-      <c r="I103" s="41"/>
-      <c r="J103" s="41"/>
-      <c r="K103" s="41"/>
-      <c r="L103" s="41"/>
-      <c r="M103" s="41"/>
-      <c r="N103" s="42"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="44"/>
+      <c r="E103" s="44"/>
+      <c r="F103" s="44"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="44"/>
+      <c r="J103" s="44"/>
+      <c r="K103" s="44"/>
+      <c r="L103" s="44"/>
+      <c r="M103" s="44"/>
+      <c r="N103" s="45"/>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C104" s="40"/>
-      <c r="D104" s="41"/>
-      <c r="E104" s="41"/>
-      <c r="F104" s="41"/>
-      <c r="G104" s="41"/>
-      <c r="H104" s="41"/>
-      <c r="I104" s="41"/>
-      <c r="J104" s="41"/>
-      <c r="K104" s="41"/>
-      <c r="L104" s="41"/>
-      <c r="M104" s="41"/>
-      <c r="N104" s="42"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="44"/>
+      <c r="E104" s="44"/>
+      <c r="F104" s="44"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="44"/>
+      <c r="I104" s="44"/>
+      <c r="J104" s="44"/>
+      <c r="K104" s="44"/>
+      <c r="L104" s="44"/>
+      <c r="M104" s="44"/>
+      <c r="N104" s="45"/>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C105" s="40"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="41"/>
-      <c r="F105" s="41"/>
-      <c r="G105" s="41"/>
-      <c r="H105" s="41"/>
-      <c r="I105" s="41"/>
-      <c r="J105" s="41"/>
-      <c r="K105" s="41"/>
-      <c r="L105" s="41"/>
-      <c r="M105" s="41"/>
-      <c r="N105" s="42"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="44"/>
+      <c r="E105" s="44"/>
+      <c r="F105" s="44"/>
+      <c r="G105" s="44"/>
+      <c r="H105" s="44"/>
+      <c r="I105" s="44"/>
+      <c r="J105" s="44"/>
+      <c r="K105" s="44"/>
+      <c r="L105" s="44"/>
+      <c r="M105" s="44"/>
+      <c r="N105" s="45"/>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C106" s="40"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="41"/>
-      <c r="F106" s="41"/>
-      <c r="G106" s="41"/>
-      <c r="H106" s="41"/>
-      <c r="I106" s="41"/>
-      <c r="J106" s="41"/>
-      <c r="K106" s="41"/>
-      <c r="L106" s="41"/>
-      <c r="M106" s="41"/>
-      <c r="N106" s="42"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="44"/>
+      <c r="E106" s="44"/>
+      <c r="F106" s="44"/>
+      <c r="G106" s="44"/>
+      <c r="H106" s="44"/>
+      <c r="I106" s="44"/>
+      <c r="J106" s="44"/>
+      <c r="K106" s="44"/>
+      <c r="L106" s="44"/>
+      <c r="M106" s="44"/>
+      <c r="N106" s="45"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C107" s="40"/>
-      <c r="D107" s="41"/>
-      <c r="E107" s="41"/>
-      <c r="F107" s="41"/>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="41"/>
-      <c r="J107" s="41"/>
-      <c r="K107" s="41"/>
-      <c r="L107" s="41"/>
-      <c r="M107" s="41"/>
-      <c r="N107" s="42"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="44"/>
+      <c r="E107" s="44"/>
+      <c r="F107" s="44"/>
+      <c r="G107" s="44"/>
+      <c r="H107" s="44"/>
+      <c r="I107" s="44"/>
+      <c r="J107" s="44"/>
+      <c r="K107" s="44"/>
+      <c r="L107" s="44"/>
+      <c r="M107" s="44"/>
+      <c r="N107" s="45"/>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C108" s="40"/>
-      <c r="D108" s="41"/>
-      <c r="E108" s="41"/>
-      <c r="F108" s="41"/>
-      <c r="G108" s="41"/>
-      <c r="H108" s="41"/>
-      <c r="I108" s="41"/>
-      <c r="J108" s="41"/>
-      <c r="K108" s="41"/>
-      <c r="L108" s="41"/>
-      <c r="M108" s="41"/>
-      <c r="N108" s="42"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="44"/>
+      <c r="E108" s="44"/>
+      <c r="F108" s="44"/>
+      <c r="G108" s="44"/>
+      <c r="H108" s="44"/>
+      <c r="I108" s="44"/>
+      <c r="J108" s="44"/>
+      <c r="K108" s="44"/>
+      <c r="L108" s="44"/>
+      <c r="M108" s="44"/>
+      <c r="N108" s="45"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C109" s="40"/>
-      <c r="D109" s="41"/>
-      <c r="E109" s="41"/>
-      <c r="F109" s="41"/>
-      <c r="G109" s="41"/>
-      <c r="H109" s="41"/>
-      <c r="I109" s="41"/>
-      <c r="J109" s="41"/>
-      <c r="K109" s="41"/>
-      <c r="L109" s="41"/>
-      <c r="M109" s="41"/>
-      <c r="N109" s="42"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="44"/>
+      <c r="E109" s="44"/>
+      <c r="F109" s="44"/>
+      <c r="G109" s="44"/>
+      <c r="H109" s="44"/>
+      <c r="I109" s="44"/>
+      <c r="J109" s="44"/>
+      <c r="K109" s="44"/>
+      <c r="L109" s="44"/>
+      <c r="M109" s="44"/>
+      <c r="N109" s="45"/>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C110" s="40"/>
-      <c r="D110" s="41"/>
-      <c r="E110" s="41"/>
-      <c r="F110" s="41"/>
-      <c r="G110" s="41"/>
-      <c r="H110" s="41"/>
-      <c r="I110" s="41"/>
-      <c r="J110" s="41"/>
-      <c r="K110" s="41"/>
-      <c r="L110" s="41"/>
-      <c r="M110" s="41"/>
-      <c r="N110" s="42"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="44"/>
+      <c r="E110" s="44"/>
+      <c r="F110" s="44"/>
+      <c r="G110" s="44"/>
+      <c r="H110" s="44"/>
+      <c r="I110" s="44"/>
+      <c r="J110" s="44"/>
+      <c r="K110" s="44"/>
+      <c r="L110" s="44"/>
+      <c r="M110" s="44"/>
+      <c r="N110" s="45"/>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C111" s="40"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="41"/>
-      <c r="F111" s="41"/>
-      <c r="G111" s="41"/>
-      <c r="H111" s="41"/>
-      <c r="I111" s="41"/>
-      <c r="J111" s="41"/>
-      <c r="K111" s="41"/>
-      <c r="L111" s="41"/>
-      <c r="M111" s="41"/>
-      <c r="N111" s="42"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="44"/>
+      <c r="E111" s="44"/>
+      <c r="F111" s="44"/>
+      <c r="G111" s="44"/>
+      <c r="H111" s="44"/>
+      <c r="I111" s="44"/>
+      <c r="J111" s="44"/>
+      <c r="K111" s="44"/>
+      <c r="L111" s="44"/>
+      <c r="M111" s="44"/>
+      <c r="N111" s="45"/>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C112" s="43"/>
-      <c r="D112" s="44"/>
-      <c r="E112" s="44"/>
-      <c r="F112" s="44"/>
-      <c r="G112" s="44"/>
-      <c r="H112" s="44"/>
-      <c r="I112" s="44"/>
-      <c r="J112" s="44"/>
-      <c r="K112" s="44"/>
-      <c r="L112" s="44"/>
-      <c r="M112" s="44"/>
-      <c r="N112" s="45"/>
+      <c r="C112" s="46"/>
+      <c r="D112" s="47"/>
+      <c r="E112" s="47"/>
+      <c r="F112" s="47"/>
+      <c r="G112" s="47"/>
+      <c r="H112" s="47"/>
+      <c r="I112" s="47"/>
+      <c r="J112" s="47"/>
+      <c r="K112" s="47"/>
+      <c r="L112" s="47"/>
+      <c r="M112" s="47"/>
+      <c r="N112" s="48"/>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
@@ -4442,7 +4430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40F97C8-ED93-460E-942E-2A1CEB57E2D4}">
   <dimension ref="B3:C58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
@@ -4453,30 +4441,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="16" t="s">
         <v>106</v>
       </c>
       <c r="C3" s="15"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="70" t="s">
-        <v>154</v>
+      <c r="B4" s="18" t="s">
+        <v>150</v>
       </c>
       <c r="C4" s="15"/>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="70"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="15"/>
     </row>
     <row r="6" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="16" t="s">
         <v>124</v>
       </c>
       <c r="C6" s="15"/>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C7" s="15"/>
     </row>
@@ -4484,30 +4472,30 @@
       <c r="C8" s="15"/>
     </row>
     <row r="9" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="16" t="s">
         <v>107</v>
       </c>
       <c r="C9" s="15"/>
     </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C10" s="15"/>
     </row>
     <row r="11" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="68"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="15"/>
     </row>
     <row r="12" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="16" t="s">
         <v>108</v>
       </c>
       <c r="C12" s="15"/>
     </row>
     <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C13" s="15"/>
     </row>
@@ -4515,14 +4503,14 @@
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="16" t="s">
         <v>109</v>
       </c>
       <c r="C15" s="15"/>
     </row>
     <row r="16" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C16" s="15"/>
     </row>
@@ -4530,14 +4518,14 @@
       <c r="C17" s="15"/>
     </row>
     <row r="18" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="16" t="s">
         <v>110</v>
       </c>
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C19" s="15"/>
     </row>
@@ -4545,14 +4533,14 @@
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="16" t="s">
         <v>111</v>
       </c>
       <c r="C21" s="15"/>
     </row>
     <row r="22" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C22" s="15"/>
     </row>
@@ -4560,14 +4548,14 @@
       <c r="C23" s="15"/>
     </row>
     <row r="24" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="16" t="s">
         <v>112</v>
       </c>
       <c r="C24" s="15"/>
     </row>
     <row r="25" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C25" s="15"/>
     </row>
@@ -4575,14 +4563,14 @@
       <c r="C26" s="15"/>
     </row>
     <row r="27" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="16" t="s">
         <v>113</v>
       </c>
       <c r="C27" s="15"/>
     </row>
     <row r="28" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C28" s="15"/>
     </row>
@@ -4590,14 +4578,14 @@
       <c r="C29" s="15"/>
     </row>
     <row r="30" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="16" t="s">
         <v>114</v>
       </c>
       <c r="C30" s="15"/>
     </row>
     <row r="31" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C31" s="15"/>
     </row>
@@ -4605,14 +4593,14 @@
       <c r="C32" s="15"/>
     </row>
     <row r="33" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="16" t="s">
         <v>115</v>
       </c>
       <c r="C33" s="15"/>
     </row>
     <row r="34" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C34" s="15"/>
     </row>
@@ -4620,126 +4608,126 @@
       <c r="C35" s="15"/>
     </row>
     <row r="36" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="16" t="s">
         <v>116</v>
       </c>
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C37" s="15"/>
     </row>
     <row r="38" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="68"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="15"/>
     </row>
     <row r="39" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="68" t="s">
+      <c r="B39" s="16" t="s">
         <v>117</v>
       </c>
       <c r="C39" s="15"/>
     </row>
     <row r="40" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C40" s="15"/>
     </row>
     <row r="41" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="68"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="15"/>
     </row>
     <row r="42" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="68" t="s">
+      <c r="B42" s="16" t="s">
         <v>118</v>
       </c>
       <c r="C42" s="15"/>
     </row>
     <row r="43" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C43" s="15"/>
     </row>
     <row r="44" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="68"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="15"/>
     </row>
     <row r="45" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="16" t="s">
         <v>119</v>
       </c>
       <c r="C45" s="15"/>
     </row>
     <row r="46" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C46" s="15"/>
     </row>
     <row r="47" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="68"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="15"/>
     </row>
     <row r="48" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="68" t="s">
+      <c r="B48" s="16" t="s">
         <v>120</v>
       </c>
       <c r="C48" s="15"/>
     </row>
     <row r="49" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C49" s="15"/>
     </row>
     <row r="50" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="68"/>
+      <c r="B50" s="16"/>
       <c r="C50" s="15"/>
     </row>
     <row r="51" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="68" t="s">
+      <c r="B51" s="16" t="s">
         <v>121</v>
       </c>
       <c r="C51" s="15"/>
     </row>
     <row r="52" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C52" s="15"/>
     </row>
     <row r="53" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="68"/>
+      <c r="B53" s="16"/>
       <c r="C53" s="15"/>
     </row>
     <row r="54" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="68" t="s">
+      <c r="B54" s="16" t="s">
         <v>122</v>
       </c>
       <c r="C54" s="15"/>
     </row>
     <row r="55" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C55" s="15"/>
     </row>
     <row r="56" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="68"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="15"/>
     </row>
     <row r="57" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="69" t="s">
+      <c r="B57" s="17" t="s">
         <v>123</v>
       </c>
       <c r="C57" s="15"/>
     </row>
     <row r="58" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C58" s="15"/>
     </row>
@@ -4754,7 +4742,7 @@
   <dimension ref="B3:B13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4765,42 +4753,42 @@
   <sheetData>
     <row r="3" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4813,8 +4801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E0E377-564D-400F-9C64-76E2C90BAC72}">
   <dimension ref="B3:O20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:G13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4824,349 +4812,349 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="53" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="55"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
     </row>
     <row r="4" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="46" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="48"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="2:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="46" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="48"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="54"/>
     </row>
     <row r="6" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="46" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="54"/>
     </row>
     <row r="7" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="46" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="48"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="54"/>
     </row>
     <row r="8" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="46" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="48"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="54"/>
     </row>
     <row r="9" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="46" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="48"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="54"/>
     </row>
     <row r="10" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="46" t="s">
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="54"/>
     </row>
     <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="46" t="s">
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="48"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="54"/>
     </row>
     <row r="12" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="48"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="54"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="48"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="54"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="54"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="48"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="54"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="48"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="54"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="54"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="54"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="54"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="48"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="H13:O13"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
@@ -5179,18 +5167,18 @@
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5227,17 +5215,17 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
@@ -5272,17 +5260,17 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C17" s="10" t="s">
@@ -5298,17 +5286,17 @@
       <c r="K17" s="8"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
     </row>
     <row r="21" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
@@ -5321,94 +5309,94 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="61"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="64"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="62"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="67"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="62"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="67"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="67"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="62"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="67"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="64"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="67"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="62"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="64"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="67"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="65"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="67"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="70"/>
     </row>
     <row r="33" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
@@ -5421,17 +5409,17 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="58"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="61"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C36" s="8"/>
@@ -5466,17 +5454,17 @@
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="58"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="61"/>
     </row>
     <row r="43" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
@@ -5499,94 +5487,94 @@
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C63" s="59" t="s">
+      <c r="C63" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="21"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="24"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C64" s="22"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="24"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="27"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C65" s="22"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="24"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="27"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C66" s="22"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="24"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="27"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C67" s="22"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="24"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="27"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C68" s="22"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="23"/>
-      <c r="J68" s="23"/>
-      <c r="K68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="27"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C69" s="22"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="24"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="27"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C70" s="25"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="27"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="30"/>
     </row>
     <row r="73" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
@@ -5629,17 +5617,17 @@
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C86" s="56" t="s">
+      <c r="C86" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="D86" s="57"/>
-      <c r="E86" s="57"/>
-      <c r="F86" s="57"/>
-      <c r="G86" s="57"/>
-      <c r="H86" s="57"/>
-      <c r="I86" s="57"/>
-      <c r="J86" s="57"/>
-      <c r="K86" s="58"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="60"/>
+      <c r="H86" s="60"/>
+      <c r="I86" s="60"/>
+      <c r="J86" s="60"/>
+      <c r="K86" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/karma-ts-howto.xlsx
+++ b/karma-ts-howto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Ivy\Github\karma-typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A18225-65BE-46DD-83D4-52907039584F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D7C7FC-2A57-4AC7-9536-7E9BD8B250FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" firstSheet="1" activeTab="5" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
   </bookViews>
@@ -1057,9 +1057,6 @@
     <t>afterEach()</t>
   </si>
   <si>
-    <t>spy</t>
-  </si>
-  <si>
     <t>mock</t>
   </si>
   <si>
@@ -1072,10 +1069,6 @@
     <t>afterEach is called after each test specification in it function is run.</t>
   </si>
   <si>
-    <t>src/spy.ts
-test/spy.ts</t>
-  </si>
-  <si>
     <t>beforeAll is called once, before all the specs in describe function are run.</t>
   </si>
   <si>
@@ -1092,6 +1085,13 @@
   </si>
   <si>
     <t xml:space="preserve">   Expect the actual value to be equal to the expected, using deep equality comparison.</t>
+  </si>
+  <si>
+    <t>spyOn()</t>
+  </si>
+  <si>
+    <t>src/spy-on.ts
+test/spy-on.ts</t>
   </si>
 </sst>
 </file>
@@ -1521,6 +1521,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1530,15 +1542,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1547,9 +1550,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4448,7 +4448,7 @@
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="15"/>
     </row>
@@ -4464,7 +4464,7 @@
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C7" s="15"/>
     </row>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C10" s="15"/>
     </row>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C13" s="15"/>
     </row>
@@ -4510,7 +4510,7 @@
     </row>
     <row r="16" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="15"/>
     </row>
@@ -4525,7 +4525,7 @@
     </row>
     <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C19" s="15"/>
     </row>
@@ -4540,7 +4540,7 @@
     </row>
     <row r="22" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C22" s="15"/>
     </row>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="25" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C25" s="15"/>
     </row>
@@ -4570,7 +4570,7 @@
     </row>
     <row r="28" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C28" s="15"/>
     </row>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="31" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C31" s="15"/>
     </row>
@@ -4600,7 +4600,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C34" s="15"/>
     </row>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="37" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C37" s="15"/>
     </row>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="40" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C40" s="15"/>
     </row>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="43" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C43" s="15"/>
     </row>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="46" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C46" s="15"/>
     </row>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="49" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C49" s="15"/>
     </row>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="52" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C52" s="15"/>
     </row>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="55" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C55" s="15"/>
     </row>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="58" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C58" s="15"/>
     </row>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -4768,7 +4768,7 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -4778,7 +4778,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -4788,7 +4788,7 @@
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4801,8 +4801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E0E377-564D-400F-9C64-76E2C90BAC72}">
   <dimension ref="B3:O20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:O9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4812,337 +4812,361 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="55" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="58"/>
     </row>
     <row r="4" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="54"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="2:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="54"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="51"/>
     </row>
     <row r="6" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="52" t="s">
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="54"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="51"/>
     </row>
     <row r="7" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52" t="s">
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="54"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="51"/>
     </row>
     <row r="8" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="52" t="s">
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="54"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="51"/>
     </row>
     <row r="9" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52" t="s">
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="54"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="51"/>
     </row>
     <row r="10" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52" t="s">
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="54"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="51"/>
     </row>
     <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="52" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="54"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="51"/>
     </row>
     <row r="12" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="51"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="54"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="51"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="54"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="54"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="51"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="54"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="54"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="51"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="54"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="51"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="54"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
     <mergeCell ref="H9:O9"/>
     <mergeCell ref="H10:O10"/>
     <mergeCell ref="H11:O11"/>
@@ -5155,30 +5179,6 @@
     <mergeCell ref="H18:O18"/>
     <mergeCell ref="H19:O19"/>
     <mergeCell ref="H13:O13"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="H8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/karma-ts-howto.xlsx
+++ b/karma-ts-howto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Ivy\Github\karma-typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D7C7FC-2A57-4AC7-9536-7E9BD8B250FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57653B5E-9289-4A17-A8DC-B078E9B609E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" firstSheet="1" activeTab="5" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
   </bookViews>
@@ -1229,7 +1229,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1245,6 +1245,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F7F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1393,7 +1399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1586,6 +1592,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4431,7 +4455,7 @@
   <dimension ref="B3:C58"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4801,8 +4825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E0E377-564D-400F-9C64-76E2C90BAC72}">
   <dimension ref="B3:O20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:O12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4872,24 +4896,24 @@
       <c r="O5" s="51"/>
     </row>
     <row r="6" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="49" t="s">
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="51"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="76"/>
     </row>
     <row r="7" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="53" t="s">

--- a/karma-ts-howto.xlsx
+++ b/karma-ts-howto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Ivy\Github\karma-typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57653B5E-9289-4A17-A8DC-B078E9B609E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17F632E-C245-4B12-862D-F4C4E333504A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" firstSheet="1" activeTab="5" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
   </bookViews>
@@ -1527,6 +1527,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1536,27 +1545,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1592,24 +1610,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4825,8 +4825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E0E377-564D-400F-9C64-76E2C90BAC72}">
   <dimension ref="B3:O20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:O8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4836,349 +4836,349 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="56" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
     </row>
     <row r="4" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="49" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="51"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="2:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="49" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="51"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="54"/>
     </row>
     <row r="6" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="74" t="s">
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="76"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="57"/>
     </row>
     <row r="7" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="49" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="51"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="54"/>
     </row>
     <row r="8" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="49" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="51"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="54"/>
     </row>
     <row r="9" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="49" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="51"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="54"/>
     </row>
     <row r="10" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="49" t="s">
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="51"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="54"/>
     </row>
     <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="49" t="s">
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="51"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="54"/>
     </row>
     <row r="12" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="49" t="s">
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="51"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="54"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="51"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="54"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="51"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="54"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="54"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="51"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="54"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="51"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="54"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="51"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="54"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="51"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="54"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="51"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="H13:O13"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
@@ -5191,18 +5191,18 @@
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5336,91 +5336,91 @@
       <c r="C23" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="64"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="70"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="65"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="67"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="73"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="65"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="67"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="73"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="65"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="67"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="73"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="65"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="67"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="73"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="65"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="67"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="73"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="65"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="67"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="73"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="68"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="70"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="76"/>
     </row>
     <row r="33" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
@@ -5433,17 +5433,17 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="61"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="67"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C36" s="8"/>
@@ -5478,17 +5478,17 @@
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="61"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="67"/>
     </row>
     <row r="43" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
@@ -5511,7 +5511,7 @@
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C63" s="62" t="s">
+      <c r="C63" s="68" t="s">
         <v>95</v>
       </c>
       <c r="D63" s="23"/>
@@ -5641,17 +5641,17 @@
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C86" s="59" t="s">
+      <c r="C86" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="D86" s="60"/>
-      <c r="E86" s="60"/>
-      <c r="F86" s="60"/>
-      <c r="G86" s="60"/>
-      <c r="H86" s="60"/>
-      <c r="I86" s="60"/>
-      <c r="J86" s="60"/>
-      <c r="K86" s="61"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="66"/>
+      <c r="I86" s="66"/>
+      <c r="J86" s="66"/>
+      <c r="K86" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/karma-ts-howto.xlsx
+++ b/karma-ts-howto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Ivy\Github\karma-typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17F632E-C245-4B12-862D-F4C4E333504A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AA8A39-6E9C-4F18-B5D5-E614EC3227C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" firstSheet="1" activeTab="5" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
   </bookViews>
@@ -18,8 +18,9 @@
     <sheet name="Sample Karma Test" sheetId="5" r:id="rId3"/>
     <sheet name="Jasmine Built-In Matchers" sheetId="8" r:id="rId4"/>
     <sheet name="Setup and Teardown" sheetId="12" r:id="rId5"/>
-    <sheet name="Scenarios" sheetId="10" r:id="rId6"/>
-    <sheet name="Errors" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId6"/>
+    <sheet name="Scenarios" sheetId="10" r:id="rId7"/>
+    <sheet name="Errors" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="154">
   <si>
     <t>Prerequisite:</t>
   </si>
@@ -1031,67 +1032,64 @@
     <t>Sample Files</t>
   </si>
   <si>
-    <t>src/src.ts
-src/src2.ts
+    <t>beforeAll()</t>
+  </si>
+  <si>
+    <t>beforeEach()</t>
+  </si>
+  <si>
+    <t>afterAll()</t>
+  </si>
+  <si>
+    <t>afterEach()</t>
+  </si>
+  <si>
+    <t>afterAll is called once, after all the specs  in describe function are run.</t>
+  </si>
+  <si>
+    <t>beforeEach is called before each test specification in it function is run.</t>
+  </si>
+  <si>
+    <t>afterEach is called after each test specification in it function is run.</t>
+  </si>
+  <si>
+    <t>beforeAll is called once, before all the specs in describe function are run.</t>
+  </si>
+  <si>
+    <t>Expect the actual value to match a regular expression.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Expect the actual value to match a regular expression.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Expect the actual value to be a DOM element that has the expected class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Expect the actual value to be `===` to the expected value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Expect the actual value to be equal to the expected, using deep equality comparison.</t>
+  </si>
+  <si>
+    <t>src/src/src.ts
+src/src/src2.ts
 test/src.ts</t>
   </si>
   <si>
-    <t>src/getter-setter.ts
+    <t>scr/src/enums.ts
+scr/src/enums2.ts
+test/enums.ts</t>
+  </si>
+  <si>
+    <t>src/src/getter-setter.ts
 test/getter-setter.ts</t>
   </si>
   <si>
-    <t>scr/enums.ts
-scr/enums2.ts
-test/enums.ts</t>
-  </si>
-  <si>
-    <t>beforeAll()</t>
-  </si>
-  <si>
-    <t>beforeEach()</t>
-  </si>
-  <si>
-    <t>afterAll()</t>
-  </si>
-  <si>
-    <t>afterEach()</t>
-  </si>
-  <si>
-    <t>mock</t>
-  </si>
-  <si>
-    <t>afterAll is called once, after all the specs  in describe function are run.</t>
-  </si>
-  <si>
-    <t>beforeEach is called before each test specification in it function is run.</t>
-  </si>
-  <si>
-    <t>afterEach is called after each test specification in it function is run.</t>
-  </si>
-  <si>
-    <t>beforeAll is called once, before all the specs in describe function are run.</t>
-  </si>
-  <si>
-    <t>Expect the actual value to match a regular expression.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Expect the actual value to match a regular expression.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Expect the actual value to be a DOM element that has the expected class.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Expect the actual value to be `===` to the expected value.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Expect the actual value to be equal to the expected, using deep equality comparison.</t>
-  </si>
-  <si>
-    <t>spyOn()</t>
-  </si>
-  <si>
-    <t>src/spy-on.ts
+    <t>src/src/spy-on.ts
 test/spy-on.ts</t>
+  </si>
+  <si>
+    <t>spy</t>
   </si>
 </sst>
 </file>
@@ -1527,6 +1525,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1536,13 +1546,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1552,27 +1571,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2175,7 +2173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2654A1-97C9-4994-AFAB-B0BA5D559350}">
   <dimension ref="B2:L89"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
@@ -3085,9 +3083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6C7849-FFE0-44AA-A86A-9E4A7026ED91}">
   <dimension ref="B3:Y115"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q91" sqref="Q91"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4472,7 +4468,7 @@
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C4" s="15"/>
     </row>
@@ -4488,7 +4484,7 @@
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C7" s="15"/>
     </row>
@@ -4503,7 +4499,7 @@
     </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C10" s="15"/>
     </row>
@@ -4519,7 +4515,7 @@
     </row>
     <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C13" s="15"/>
     </row>
@@ -4534,7 +4530,7 @@
     </row>
     <row r="16" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C16" s="15"/>
     </row>
@@ -4549,7 +4545,7 @@
     </row>
     <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C19" s="15"/>
     </row>
@@ -4564,7 +4560,7 @@
     </row>
     <row r="22" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C22" s="15"/>
     </row>
@@ -4579,7 +4575,7 @@
     </row>
     <row r="25" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C25" s="15"/>
     </row>
@@ -4594,7 +4590,7 @@
     </row>
     <row r="28" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C28" s="15"/>
     </row>
@@ -4609,7 +4605,7 @@
     </row>
     <row r="31" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C31" s="15"/>
     </row>
@@ -4624,7 +4620,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C34" s="15"/>
     </row>
@@ -4639,7 +4635,7 @@
     </row>
     <row r="37" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C37" s="15"/>
     </row>
@@ -4655,7 +4651,7 @@
     </row>
     <row r="40" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C40" s="15"/>
     </row>
@@ -4671,7 +4667,7 @@
     </row>
     <row r="43" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C43" s="15"/>
     </row>
@@ -4687,7 +4683,7 @@
     </row>
     <row r="46" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C46" s="15"/>
     </row>
@@ -4703,7 +4699,7 @@
     </row>
     <row r="49" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C49" s="15"/>
     </row>
@@ -4719,7 +4715,7 @@
     </row>
     <row r="52" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C52" s="15"/>
     </row>
@@ -4735,7 +4731,7 @@
     </row>
     <row r="55" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C55" s="15"/>
     </row>
@@ -4751,7 +4747,7 @@
     </row>
     <row r="58" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C58" s="15"/>
     </row>
@@ -4777,42 +4773,42 @@
   <sheetData>
     <row r="3" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4822,11 +4818,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD73051-3791-4981-93C9-23E7B735914B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E0E377-564D-400F-9C64-76E2C90BAC72}">
   <dimension ref="B3:O20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:O15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4836,337 +4846,359 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="58" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="58"/>
     </row>
     <row r="4" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="51"/>
+    </row>
+    <row r="5" spans="2:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="51"/>
+    </row>
+    <row r="6" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="64"/>
+    </row>
+    <row r="7" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="51"/>
+    </row>
+    <row r="8" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="54"/>
-    </row>
-    <row r="5" spans="2:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="54"/>
-    </row>
-    <row r="6" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="55" t="s">
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="51"/>
+    </row>
+    <row r="9" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="51"/>
+    </row>
+    <row r="10" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="57"/>
-    </row>
-    <row r="7" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="54"/>
-    </row>
-    <row r="8" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="49" t="s">
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="51"/>
+    </row>
+    <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="54"/>
-    </row>
-    <row r="9" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="54"/>
-    </row>
-    <row r="10" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="54"/>
-    </row>
-    <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="51"/>
     </row>
     <row r="12" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="51"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="54"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="54"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="51"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="54"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="54"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="51"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="54"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="51"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="54"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
     <mergeCell ref="H9:O9"/>
     <mergeCell ref="H10:O10"/>
     <mergeCell ref="H11:O11"/>
@@ -5179,36 +5211,12 @@
     <mergeCell ref="H18:O18"/>
     <mergeCell ref="H19:O19"/>
     <mergeCell ref="H13:O13"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="H8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA760E5-4801-49BB-909C-AFBE39FCD389}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>

--- a/karma-ts-howto.xlsx
+++ b/karma-ts-howto.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Ivy\Github\karma-typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AA8A39-6E9C-4F18-B5D5-E614EC3227C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD201BF1-4574-45B5-822E-8D001BA52A78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" firstSheet="1" activeTab="5" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" firstSheet="2" activeTab="8" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
   </bookViews>
   <sheets>
     <sheet name="Installation and Configuration" sheetId="1" r:id="rId1"/>
     <sheet name="How To Generate Report" sheetId="6" r:id="rId2"/>
-    <sheet name="Sample Karma Test" sheetId="5" r:id="rId3"/>
-    <sheet name="Jasmine Built-In Matchers" sheetId="8" r:id="rId4"/>
-    <sheet name="Setup and Teardown" sheetId="12" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId6"/>
-    <sheet name="Scenarios" sheetId="10" r:id="rId7"/>
-    <sheet name="Errors" sheetId="7" r:id="rId8"/>
+    <sheet name="Modules" sheetId="14" r:id="rId3"/>
+    <sheet name="Sample Karma Test" sheetId="5" r:id="rId4"/>
+    <sheet name="Jasmine Built-In Matchers" sheetId="8" r:id="rId5"/>
+    <sheet name="Setup and Teardown" sheetId="12" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId7"/>
+    <sheet name="Scenarios" sheetId="10" r:id="rId8"/>
+    <sheet name="Errors" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="156">
   <si>
     <t>Prerequisite:</t>
   </si>
@@ -892,12 +893,6 @@
 }</t>
   </si>
   <si>
-    <t>9. You need to include some adapter that implements __karma__.start method!</t>
-  </si>
-  <si>
-    <t>Target files (src and test) should be valid or discoverable.</t>
-  </si>
-  <si>
     <t>expect(array).toContain(member);</t>
   </si>
   <si>
@@ -1090,6 +1085,21 @@
   </si>
   <si>
     <t>spy</t>
+  </si>
+  <si>
+    <t>11. Error: 'exports' is undefined</t>
+  </si>
+  <si>
+    <t>9. [When using enums] You need to include some adapter that implements __karma__.start method! (2)</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>export default class YourClass {
+   ...
+}
+module.exports = new YourClass;</t>
   </si>
 </sst>
 </file>
@@ -1525,6 +1535,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1534,16 +1553,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1564,13 +1580,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1869,6 +1879,118 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Group 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B47FA56-9EC6-4BA1-8104-13B827627F22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6048375" y="17659350"/>
+          <a:ext cx="2305050" cy="2324100"/>
+          <a:chOff x="6048375" y="17659350"/>
+          <a:chExt cx="2305050" cy="2324100"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Speech Bubble: Rectangle 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{296BA83F-7410-4088-A213-FD1612287EB3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6048375" y="17659350"/>
+            <a:ext cx="2305050" cy="2324100"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -187228"/>
+              <a:gd name="adj2" fmla="val -54558"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-PH" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="Picture 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A0C0ED9-DE2A-478F-8119-65D8C4E02C64}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6105525" y="17715994"/>
+            <a:ext cx="2180821" cy="2219420"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2173,7 +2295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2654A1-97C9-4994-AFAB-B0BA5D559350}">
   <dimension ref="B2:L89"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
@@ -2885,7 +3007,7 @@
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:J23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3080,10 +3202,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FED496-7668-4F1A-8769-7E2C63429FA0}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="4" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6C7849-FFE0-44AA-A86A-9E4A7026ED91}">
-  <dimension ref="B3:Y115"/>
+  <dimension ref="B2:Y114"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3092,114 +3238,133 @@
     <col min="15" max="16" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="3" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
-      <c r="C6" t="s">
-        <v>29</v>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
-      <c r="D8" t="s">
-        <v>22</v>
+      <c r="E8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
-      <c r="E9" t="s">
-        <v>38</v>
+      <c r="D9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
-      <c r="D10" t="s">
-        <v>23</v>
+      <c r="E10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
-      <c r="E11" t="s">
-        <v>24</v>
+      <c r="D11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
-      <c r="D14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P17" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="31" t="s">
+    <row r="17" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="33"/>
-      <c r="Q18" s="31" t="s">
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="33"/>
+      <c r="Q17" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="42"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="42"/>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C18" s="34"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="36"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="45"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C19" s="34"/>
@@ -3230,83 +3395,74 @@
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
       <c r="K20" s="36"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="45"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="48"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C21" s="34"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="36"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="48"/>
-    </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="39"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="14"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="39"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="14"/>
+    </row>
+    <row r="22" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="M22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
     </row>
     <row r="23" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
-      <c r="M23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-    </row>
-    <row r="24" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="P24" s="4" t="s">
+      <c r="P23" s="4" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Q24" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="42"/>
+    </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="Q25" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="42"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="45"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="Q26" s="43"/>
@@ -3328,52 +3484,53 @@
       <c r="W27" s="44"/>
       <c r="X27" s="45"/>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="Q28" s="43"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="44"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="44"/>
-      <c r="X28" s="45"/>
+    <row r="28" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="48"/>
     </row>
     <row r="29" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="47"/>
-      <c r="X29" s="48"/>
-    </row>
-    <row r="30" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="32" spans="2:25" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B32" s="7" t="s">
+    </row>
+    <row r="31" spans="2:25" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="C34" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="33"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="33"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="36"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C36" s="34"/>
@@ -3552,55 +3709,64 @@
       <c r="K51" s="36"/>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C52" s="34"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="36"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="39"/>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C53" s="37"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="39"/>
-    </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B56" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="C56" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="33"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="13"/>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C57" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="33"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="36"/>
       <c r="N57" s="13"/>
       <c r="O57" s="13"/>
       <c r="P57" s="13"/>
@@ -4072,15 +4238,15 @@
       <c r="V80" s="13"/>
     </row>
     <row r="81" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C81" s="34"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="40"/>
-      <c r="F81" s="40"/>
-      <c r="G81" s="40"/>
-      <c r="H81" s="40"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="40"/>
-      <c r="K81" s="36"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="38"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="39"/>
       <c r="N81" s="13"/>
       <c r="O81" s="13"/>
       <c r="P81" s="13"/>
@@ -4091,43 +4257,34 @@
       <c r="U81" s="13"/>
       <c r="V81" s="13"/>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C82" s="37"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="38"/>
-      <c r="J82" s="38"/>
-      <c r="K82" s="39"/>
-      <c r="N82" s="13"/>
-      <c r="O82" s="13"/>
-      <c r="P82" s="13"/>
-      <c r="Q82" s="13"/>
-      <c r="R82" s="13"/>
-      <c r="S82" s="13"/>
-      <c r="T82" s="13"/>
-      <c r="U82" s="13"/>
-      <c r="V82" s="13"/>
+    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="85" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B85" s="4" t="s">
-        <v>102</v>
-      </c>
+      <c r="C85" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="33"/>
     </row>
     <row r="86" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C86" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="D86" s="32"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="32"/>
-      <c r="J86" s="32"/>
-      <c r="K86" s="33"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="36"/>
     </row>
     <row r="87" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C87" s="34"/>
@@ -4240,47 +4397,50 @@
       <c r="K96" s="36"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C97" s="34"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="40"/>
-      <c r="F97" s="40"/>
-      <c r="G97" s="40"/>
-      <c r="H97" s="40"/>
-      <c r="I97" s="40"/>
-      <c r="J97" s="40"/>
-      <c r="K97" s="36"/>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C98" s="37"/>
-      <c r="D98" s="38"/>
-      <c r="E98" s="38"/>
-      <c r="F98" s="38"/>
-      <c r="G98" s="38"/>
-      <c r="H98" s="38"/>
-      <c r="I98" s="38"/>
-      <c r="J98" s="38"/>
-      <c r="K98" s="39"/>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B101" s="4" t="s">
+      <c r="C97" s="37"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="38"/>
+      <c r="J97" s="38"/>
+      <c r="K97" s="39"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="102" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="31" t="s">
+    <row r="101" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C101" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41"/>
-      <c r="I102" s="41"/>
-      <c r="J102" s="41"/>
-      <c r="K102" s="41"/>
-      <c r="L102" s="41"/>
-      <c r="M102" s="41"/>
-      <c r="N102" s="42"/>
+      <c r="D101" s="41"/>
+      <c r="E101" s="41"/>
+      <c r="F101" s="41"/>
+      <c r="G101" s="41"/>
+      <c r="H101" s="41"/>
+      <c r="I101" s="41"/>
+      <c r="J101" s="41"/>
+      <c r="K101" s="41"/>
+      <c r="L101" s="41"/>
+      <c r="M101" s="41"/>
+      <c r="N101" s="42"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C102" s="43"/>
+      <c r="D102" s="44"/>
+      <c r="E102" s="44"/>
+      <c r="F102" s="44"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="44"/>
+      <c r="J102" s="44"/>
+      <c r="K102" s="44"/>
+      <c r="L102" s="44"/>
+      <c r="M102" s="44"/>
+      <c r="N102" s="45"/>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C103" s="43"/>
@@ -4395,63 +4555,49 @@
       <c r="N110" s="45"/>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C111" s="43"/>
-      <c r="D111" s="44"/>
-      <c r="E111" s="44"/>
-      <c r="F111" s="44"/>
-      <c r="G111" s="44"/>
-      <c r="H111" s="44"/>
-      <c r="I111" s="44"/>
-      <c r="J111" s="44"/>
-      <c r="K111" s="44"/>
-      <c r="L111" s="44"/>
-      <c r="M111" s="44"/>
-      <c r="N111" s="45"/>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C112" s="46"/>
-      <c r="D112" s="47"/>
-      <c r="E112" s="47"/>
-      <c r="F112" s="47"/>
-      <c r="G112" s="47"/>
-      <c r="H112" s="47"/>
-      <c r="I112" s="47"/>
-      <c r="J112" s="47"/>
-      <c r="K112" s="47"/>
-      <c r="L112" s="47"/>
-      <c r="M112" s="47"/>
-      <c r="N112" s="48"/>
+      <c r="C111" s="46"/>
+      <c r="D111" s="47"/>
+      <c r="E111" s="47"/>
+      <c r="F111" s="47"/>
+      <c r="G111" s="47"/>
+      <c r="H111" s="47"/>
+      <c r="I111" s="47"/>
+      <c r="J111" s="47"/>
+      <c r="K111" s="47"/>
+      <c r="L111" s="47"/>
+      <c r="M111" s="47"/>
+      <c r="N111" s="48"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C115" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C35:K53"/>
-    <mergeCell ref="C57:K82"/>
-    <mergeCell ref="C18:K22"/>
-    <mergeCell ref="C102:N112"/>
-    <mergeCell ref="Q25:X29"/>
-    <mergeCell ref="Q18:X21"/>
-    <mergeCell ref="C86:K98"/>
+    <mergeCell ref="C34:K52"/>
+    <mergeCell ref="C56:K81"/>
+    <mergeCell ref="C17:K21"/>
+    <mergeCell ref="C101:N111"/>
+    <mergeCell ref="Q24:X28"/>
+    <mergeCell ref="Q17:X20"/>
+    <mergeCell ref="C85:K97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40F97C8-ED93-460E-942E-2A1CEB57E2D4}">
-  <dimension ref="B3:C58"/>
+  <dimension ref="B2:C57"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4460,296 +4606,296 @@
     <col min="2" max="4" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+    <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="18"/>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="15"/>
+    </row>
+    <row r="10" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="15"/>
-    </row>
-    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="15"/>
-    </row>
-    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="15"/>
-    </row>
-    <row r="6" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="15"/>
-    </row>
-    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="15"/>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="15"/>
+    </row>
+    <row r="22" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="15"/>
+    </row>
+    <row r="23" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="15"/>
+    </row>
+    <row r="25" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="15"/>
+    </row>
+    <row r="26" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="15"/>
+    </row>
+    <row r="27" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="15"/>
+    </row>
+    <row r="28" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="15"/>
+    </row>
+    <row r="29" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="15"/>
+    </row>
+    <row r="31" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C31" s="15"/>
+    </row>
+    <row r="32" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="15"/>
+    </row>
+    <row r="33" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="15"/>
-    </row>
-    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="15"/>
-    </row>
-    <row r="9" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="15"/>
-    </row>
-    <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="15"/>
-    </row>
-    <row r="11" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="15"/>
-    </row>
-    <row r="12" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="15"/>
-    </row>
-    <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="15"/>
-    </row>
-    <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="15"/>
-    </row>
-    <row r="15" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="15"/>
-    </row>
-    <row r="16" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="15"/>
-    </row>
-    <row r="17" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="15"/>
-    </row>
-    <row r="18" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="15"/>
-    </row>
-    <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="15"/>
-    </row>
-    <row r="21" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="15"/>
-    </row>
-    <row r="22" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="15"/>
-    </row>
-    <row r="23" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="15"/>
-    </row>
-    <row r="24" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="15"/>
-    </row>
-    <row r="25" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="15"/>
-    </row>
-    <row r="26" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="15"/>
-    </row>
-    <row r="27" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="15"/>
-    </row>
-    <row r="28" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="15"/>
-    </row>
-    <row r="29" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="15"/>
-    </row>
-    <row r="30" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="s">
+      <c r="C33" s="15"/>
+    </row>
+    <row r="34" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C34" s="15"/>
+    </row>
+    <row r="35" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="15"/>
-    </row>
-    <row r="31" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="15"/>
-    </row>
-    <row r="32" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="15"/>
-    </row>
-    <row r="33" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="16" t="s">
+      <c r="C35" s="15"/>
+    </row>
+    <row r="36" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="15"/>
+    </row>
+    <row r="37" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="16"/>
+      <c r="C37" s="15"/>
+    </row>
+    <row r="38" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="15"/>
-    </row>
-    <row r="34" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>148</v>
-      </c>
-      <c r="C34" s="15"/>
-    </row>
-    <row r="35" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C35" s="15"/>
-    </row>
-    <row r="36" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="16" t="s">
+      <c r="C38" s="15"/>
+    </row>
+    <row r="39" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="15"/>
+    </row>
+    <row r="40" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="16"/>
+      <c r="C40" s="15"/>
+    </row>
+    <row r="41" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="15"/>
-    </row>
-    <row r="37" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" s="15"/>
-    </row>
-    <row r="38" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="16"/>
-      <c r="C38" s="15"/>
-    </row>
-    <row r="39" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="16" t="s">
+      <c r="C41" s="15"/>
+    </row>
+    <row r="42" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="15"/>
+    </row>
+    <row r="43" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="16"/>
+      <c r="C43" s="15"/>
+    </row>
+    <row r="44" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="15"/>
-    </row>
-    <row r="40" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" s="15"/>
-    </row>
-    <row r="41" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="16"/>
-      <c r="C41" s="15"/>
-    </row>
-    <row r="42" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="16" t="s">
+      <c r="C44" s="15"/>
+    </row>
+    <row r="45" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="15"/>
+    </row>
+    <row r="46" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="16"/>
+      <c r="C46" s="15"/>
+    </row>
+    <row r="47" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="15"/>
-    </row>
-    <row r="43" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="15"/>
-    </row>
-    <row r="44" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="16"/>
-      <c r="C44" s="15"/>
-    </row>
-    <row r="45" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="16" t="s">
+      <c r="C47" s="15"/>
+    </row>
+    <row r="48" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="15"/>
+    </row>
+    <row r="49" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="16"/>
+      <c r="C49" s="15"/>
+    </row>
+    <row r="50" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="15"/>
-    </row>
-    <row r="46" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="15"/>
-    </row>
-    <row r="47" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16"/>
-      <c r="C47" s="15"/>
-    </row>
-    <row r="48" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="16" t="s">
+      <c r="C50" s="15"/>
+    </row>
+    <row r="51" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="15"/>
+    </row>
+    <row r="52" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="16"/>
+      <c r="C52" s="15"/>
+    </row>
+    <row r="53" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C48" s="15"/>
-    </row>
-    <row r="49" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>145</v>
-      </c>
-      <c r="C49" s="15"/>
-    </row>
-    <row r="50" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="16"/>
-      <c r="C50" s="15"/>
-    </row>
-    <row r="51" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="16" t="s">
+      <c r="C53" s="15"/>
+    </row>
+    <row r="54" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" s="15"/>
+    </row>
+    <row r="55" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="16"/>
+      <c r="C55" s="15"/>
+    </row>
+    <row r="56" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="15"/>
-    </row>
-    <row r="52" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="15"/>
-    </row>
-    <row r="53" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="16"/>
-      <c r="C53" s="15"/>
-    </row>
-    <row r="54" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54" s="15"/>
-    </row>
-    <row r="55" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>145</v>
-      </c>
-      <c r="C55" s="15"/>
-    </row>
-    <row r="56" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="16"/>
       <c r="C56" s="15"/>
     </row>
-    <row r="57" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="17" t="s">
-        <v>123</v>
+    <row r="57" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>143</v>
       </c>
       <c r="C57" s="15"/>
-    </row>
-    <row r="58" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>145</v>
-      </c>
-      <c r="C58" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4757,12 +4903,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6F8958-2F95-49C1-8009-4AC1EF4057B6}">
-  <dimension ref="B3:B13"/>
+  <dimension ref="B2:B12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4771,44 +4917,44 @@
     <col min="2" max="4" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4817,11 +4963,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD73051-3791-4981-93C9-23E7B735914B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -4831,7 +4977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E0E377-564D-400F-9C64-76E2C90BAC72}">
   <dimension ref="B3:O20"/>
   <sheetViews>
@@ -4846,347 +4992,347 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
+    </row>
+    <row r="4" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="54"/>
+    </row>
+    <row r="5" spans="2:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="54"/>
+    </row>
+    <row r="6" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="57"/>
+    </row>
+    <row r="7" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="54"/>
+    </row>
+    <row r="8" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="56" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="54"/>
+    </row>
+    <row r="9" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="58"/>
-    </row>
-    <row r="4" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="49" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="51"/>
-    </row>
-    <row r="5" spans="2:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="49" t="s">
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="54"/>
+    </row>
+    <row r="10" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="51"/>
-    </row>
-    <row r="6" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62" t="s">
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="54"/>
+    </row>
+    <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="54"/>
+    </row>
+    <row r="12" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="64"/>
-    </row>
-    <row r="7" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="51"/>
-    </row>
-    <row r="8" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="51"/>
-    </row>
-    <row r="9" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="51"/>
-    </row>
-    <row r="10" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="51"/>
-    </row>
-    <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="51"/>
-    </row>
-    <row r="12" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="51"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="54"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="51"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="54"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="51"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="54"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="54"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="51"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="54"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="51"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="54"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="51"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="54"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="51"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="54"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="51"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="H13:O13"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
@@ -5199,31 +5345,33 @@
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA760E5-4801-49BB-909C-AFBE39FCD389}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B3:K86"/>
+  <dimension ref="B3:K96"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5620,53 +5768,119 @@
     </row>
     <row r="77" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B81" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>126</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B82" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C87" s="65" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C86" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="D86" s="66"/>
-      <c r="E86" s="66"/>
-      <c r="F86" s="66"/>
-      <c r="G86" s="66"/>
-      <c r="H86" s="66"/>
-      <c r="I86" s="66"/>
-      <c r="J86" s="66"/>
-      <c r="K86" s="67"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="66"/>
+      <c r="I87" s="66"/>
+      <c r="J87" s="66"/>
+      <c r="K87" s="67"/>
+    </row>
+    <row r="90" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B90" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C92" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="23"/>
+      <c r="K92" s="24"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C93" s="25"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="27"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C94" s="25"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="27"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C95" s="25"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="26"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="27"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C96" s="28"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="29"/>
+      <c r="K96" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C92:K96"/>
     <mergeCell ref="C7:K7"/>
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C86:K86"/>
+    <mergeCell ref="C87:K87"/>
     <mergeCell ref="C63:K70"/>
     <mergeCell ref="C40:K40"/>
     <mergeCell ref="C35:K35"/>

--- a/karma-ts-howto.xlsx
+++ b/karma-ts-howto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Ivy\Github\karma-typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD201BF1-4574-45B5-822E-8D001BA52A78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54DA5AD-9BFB-4F36-BA40-D7D6A11C0890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" firstSheet="2" activeTab="8" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
   </bookViews>
@@ -1090,9 +1090,6 @@
     <t>11. Error: 'exports' is undefined</t>
   </si>
   <si>
-    <t>9. [When using enums] You need to include some adapter that implements __karma__.start method! (2)</t>
-  </si>
-  <si>
     <t>???</t>
   </si>
   <si>
@@ -1100,6 +1097,9 @@
    ...
 }
 module.exports = new YourClass;</t>
+  </si>
+  <si>
+    <t>9. You need to include some adapter that implements __karma__.start method!</t>
   </si>
 </sst>
 </file>
@@ -1535,6 +1535,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1544,13 +1556,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1560,27 +1581,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4992,335 +4992,359 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="58" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="58"/>
     </row>
     <row r="4" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="54"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="2:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="54"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="51"/>
     </row>
     <row r="6" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="55" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="57"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="64"/>
     </row>
     <row r="7" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52" t="s">
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="54"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="51"/>
     </row>
     <row r="8" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="52" t="s">
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="54"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="51"/>
     </row>
     <row r="9" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52" t="s">
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="54"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="51"/>
     </row>
     <row r="10" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52" t="s">
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="54"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="51"/>
     </row>
     <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="52" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="54"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="51"/>
     </row>
     <row r="12" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52" t="s">
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="54"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="51"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="54"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="54"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="51"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="54"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="54"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="51"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="54"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="51"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="54"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
     <mergeCell ref="H9:O9"/>
     <mergeCell ref="H10:O10"/>
     <mergeCell ref="H11:O11"/>
@@ -5333,30 +5357,6 @@
     <mergeCell ref="H18:O18"/>
     <mergeCell ref="H19:O19"/>
     <mergeCell ref="H13:O13"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="H8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5369,8 +5369,8 @@
   </sheetPr>
   <dimension ref="B3:K96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="J101" sqref="J101"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="M90" sqref="M90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5768,12 +5768,12 @@
     </row>
     <row r="77" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -5819,7 +5819,7 @@
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C92" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D92" s="23"/>
       <c r="E92" s="23"/>

--- a/karma-ts-howto.xlsx
+++ b/karma-ts-howto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Ivy\Github\karma-typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54DA5AD-9BFB-4F36-BA40-D7D6A11C0890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AE2155-FF37-4C45-ADB2-D3EA3E9EDB5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" firstSheet="2" activeTab="8" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
   </bookViews>
@@ -5369,8 +5369,8 @@
   </sheetPr>
   <dimension ref="B3:K96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="M90" sqref="M90"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/karma-ts-howto.xlsx
+++ b/karma-ts-howto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Ivy\Github\karma-typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AE2155-FF37-4C45-ADB2-D3EA3E9EDB5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0009C2B4-2623-4237-86FA-BC6A7B704F58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" firstSheet="2" activeTab="8" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" firstSheet="2" activeTab="7" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
   </bookViews>
   <sheets>
     <sheet name="Installation and Configuration" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,8 @@
     <sheet name="Sample Karma Test" sheetId="5" r:id="rId4"/>
     <sheet name="Jasmine Built-In Matchers" sheetId="8" r:id="rId5"/>
     <sheet name="Setup and Teardown" sheetId="12" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId7"/>
-    <sheet name="Scenarios" sheetId="10" r:id="rId8"/>
-    <sheet name="Errors" sheetId="7" r:id="rId9"/>
+    <sheet name="Scenarios" sheetId="10" r:id="rId7"/>
+    <sheet name="Errors" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1093,13 +1092,13 @@
     <t>???</t>
   </si>
   <si>
-    <t>export default class YourClass {
+    <t>9. You need to include some adapter that implements __karma__.start method!</t>
+  </si>
+  <si>
+    <t>export class YourClass {
    ...
 }
 module.exports = new YourClass;</t>
-  </si>
-  <si>
-    <t>9. You need to include some adapter that implements __karma__.start method!</t>
   </si>
 </sst>
 </file>
@@ -1535,6 +1534,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1544,16 +1552,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1574,13 +1579,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4964,25 +4963,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD73051-3791-4981-93C9-23E7B735914B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E0E377-564D-400F-9C64-76E2C90BAC72}">
   <dimension ref="B3:O20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:O13"/>
+      <selection activeCell="H8" sqref="H8:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4992,347 +4977,347 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="56" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
     </row>
     <row r="4" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="49" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="51"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="2:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="49" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="51"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="54"/>
     </row>
     <row r="6" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62" t="s">
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="64"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="57"/>
     </row>
     <row r="7" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="49" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="51"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="54"/>
     </row>
     <row r="8" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="49" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="51"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="54"/>
     </row>
     <row r="9" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="49" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="51"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="54"/>
     </row>
     <row r="10" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="49" t="s">
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="51"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="54"/>
     </row>
     <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="49" t="s">
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="51"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="54"/>
     </row>
     <row r="12" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="49" t="s">
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="51"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="54"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="51"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="54"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="51"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="54"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="54"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="51"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="54"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="51"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="54"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="51"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="54"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="51"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="54"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="51"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="H13:O13"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
@@ -5345,32 +5330,32 @@
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA760E5-4801-49BB-909C-AFBE39FCD389}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="B3:K96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5768,7 +5753,7 @@
     </row>
     <row r="77" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
@@ -5819,7 +5804,7 @@
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C92" s="22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D92" s="23"/>
       <c r="E92" s="23"/>

--- a/karma-ts-howto.xlsx
+++ b/karma-ts-howto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Ivy\Github\karma-typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0009C2B4-2623-4237-86FA-BC6A7B704F58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28442FC-709E-49DE-B243-C3B33715E782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" firstSheet="2" activeTab="7" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
   </bookViews>
@@ -1534,6 +1534,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1543,13 +1555,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1559,27 +1580,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1878,118 +1878,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Group 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B47FA56-9EC6-4BA1-8104-13B827627F22}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6048375" y="17659350"/>
-          <a:ext cx="2305050" cy="2324100"/>
-          <a:chOff x="6048375" y="17659350"/>
-          <a:chExt cx="2305050" cy="2324100"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Speech Bubble: Rectangle 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{296BA83F-7410-4088-A213-FD1612287EB3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6048375" y="17659350"/>
-            <a:ext cx="2305050" cy="2324100"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -187228"/>
-              <a:gd name="adj2" fmla="val -54558"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-PH" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="6" name="Picture 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A0C0ED9-DE2A-478F-8119-65D8C4E02C64}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6105525" y="17715994"/>
-            <a:ext cx="2180821" cy="2219420"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4977,335 +4865,359 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="58" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="58"/>
     </row>
     <row r="4" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="54"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="2:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="54"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="51"/>
     </row>
     <row r="6" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="55" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="57"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="64"/>
     </row>
     <row r="7" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52" t="s">
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="54"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="51"/>
     </row>
     <row r="8" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="52" t="s">
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="54"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="51"/>
     </row>
     <row r="9" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52" t="s">
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="54"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="51"/>
     </row>
     <row r="10" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52" t="s">
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="54"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="51"/>
     </row>
     <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="52" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="54"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="51"/>
     </row>
     <row r="12" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52" t="s">
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="54"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="51"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="54"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="54"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="51"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="54"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="54"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="51"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="54"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="51"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="54"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
     <mergeCell ref="H9:O9"/>
     <mergeCell ref="H10:O10"/>
     <mergeCell ref="H11:O11"/>
@@ -5318,30 +5230,6 @@
     <mergeCell ref="H18:O18"/>
     <mergeCell ref="H19:O19"/>
     <mergeCell ref="H13:O13"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="H8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5352,10 +5240,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B3:K96"/>
+  <dimension ref="B3:K95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="J101" sqref="J101"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86:K86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5761,59 +5649,70 @@
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B82" s="2" t="s">
+    <row r="81" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B81" s="2" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>126</v>
+      </c>
+    </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C87" s="65" t="s">
+      <c r="C86" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="D87" s="66"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="66"/>
-      <c r="H87" s="66"/>
-      <c r="I87" s="66"/>
-      <c r="J87" s="66"/>
-      <c r="K87" s="67"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="66"/>
+      <c r="I86" s="66"/>
+      <c r="J86" s="66"/>
+      <c r="K86" s="67"/>
+    </row>
+    <row r="89" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B89" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="90" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B90" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B91" s="2"/>
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C91" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="24"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C92" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23"/>
-      <c r="J92" s="23"/>
-      <c r="K92" s="24"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="27"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C93" s="25"/>
@@ -5838,34 +5737,23 @@
       <c r="K94" s="27"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C95" s="25"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="26"/>
-      <c r="I95" s="26"/>
-      <c r="J95" s="26"/>
-      <c r="K95" s="27"/>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C96" s="28"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="29"/>
-      <c r="I96" s="29"/>
-      <c r="J96" s="29"/>
-      <c r="K96" s="30"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="29"/>
+      <c r="J95" s="29"/>
+      <c r="K95" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C92:K96"/>
+    <mergeCell ref="C91:K95"/>
     <mergeCell ref="C7:K7"/>
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C87:K87"/>
+    <mergeCell ref="C86:K86"/>
     <mergeCell ref="C63:K70"/>
     <mergeCell ref="C40:K40"/>
     <mergeCell ref="C35:K35"/>

--- a/karma-ts-howto.xlsx
+++ b/karma-ts-howto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Ivy\Github\karma-typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28442FC-709E-49DE-B243-C3B33715E782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C1FB46-1E82-4093-99BF-626E4F6C6A42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" firstSheet="2" activeTab="7" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="151">
   <si>
     <t>Prerequisite:</t>
   </si>
@@ -870,9 +870,6 @@
     <t>8. Cannot find function "X"</t>
   </si>
   <si>
-    <t>In 'include' in tsconfig.json, specify all files to be included on test.</t>
-  </si>
-  <si>
     <t>tsconfig.json</t>
   </si>
   <si>
@@ -949,65 +946,6 @@
     <t>expect(document).toHaveClass(class);</t>
   </si>
   <si>
-    <t>10. SyntaxError: Cannot use import statement outside a module</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Instead of import, use </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>require</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">import {sample} from "./sample.ts"   &gt;   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>const sample = require("./sample.ts"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
-    <t>When error (require is undefined) occurs, install @types/node.</t>
-  </si>
-  <si>
-    <t>npm install --save-dev @types/node</t>
-  </si>
-  <si>
     <t>Access ts file</t>
   </si>
   <si>
@@ -1086,26 +1024,26 @@
     <t>spy</t>
   </si>
   <si>
-    <t>11. Error: 'exports' is undefined</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>9. You need to include some adapter that implements __karma__.start method!</t>
   </si>
   <si>
-    <t>export class YourClass {
-   ...
-}
-module.exports = new YourClass;</t>
+    <t>In 'include' of tsconfig.json, specify all files to be included on test.</t>
+  </si>
+  <si>
+    <t>10. "Error: 'exports' is undefined" when using import on test</t>
+  </si>
+  <si>
+    <t>Something is wrong with the file or plugins.</t>
+  </si>
+  <si>
+    <t>Make sure that  file is valid for testing and is in correct path and that, and necessary plugins are installed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1219,14 +1157,6 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1435,10 +1365,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1534,6 +1464,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1543,16 +1482,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1573,13 +1509,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3114,7 +3044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6C7849-FFE0-44AA-A86A-9E4A7026ED91}">
   <dimension ref="B2:Y114"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -3189,7 +3119,7 @@
     <row r="13" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -4146,12 +4076,12 @@
     </row>
     <row r="84" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B84" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C85" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D85" s="32"/>
       <c r="E85" s="32"/>
@@ -4495,13 +4425,13 @@
   <sheetData>
     <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="15"/>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C3" s="15"/>
     </row>
@@ -4511,13 +4441,13 @@
     </row>
     <row r="5" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="15"/>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C6" s="15"/>
     </row>
@@ -4526,13 +4456,13 @@
     </row>
     <row r="8" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="15"/>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C9" s="15"/>
     </row>
@@ -4542,13 +4472,13 @@
     </row>
     <row r="11" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="15"/>
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C12" s="15"/>
     </row>
@@ -4557,13 +4487,13 @@
     </row>
     <row r="14" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C15" s="15"/>
     </row>
@@ -4572,13 +4502,13 @@
     </row>
     <row r="17" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="15"/>
     </row>
     <row r="18" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C18" s="15"/>
     </row>
@@ -4587,13 +4517,13 @@
     </row>
     <row r="20" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C21" s="15"/>
     </row>
@@ -4602,13 +4532,13 @@
     </row>
     <row r="23" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="15"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C24" s="15"/>
     </row>
@@ -4617,13 +4547,13 @@
     </row>
     <row r="26" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" s="15"/>
     </row>
     <row r="27" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C27" s="15"/>
     </row>
@@ -4632,13 +4562,13 @@
     </row>
     <row r="29" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29" s="15"/>
     </row>
     <row r="30" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C30" s="15"/>
     </row>
@@ -4647,13 +4577,13 @@
     </row>
     <row r="32" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C32" s="15"/>
     </row>
     <row r="33" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C33" s="15"/>
     </row>
@@ -4662,13 +4592,13 @@
     </row>
     <row r="35" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" s="15"/>
     </row>
     <row r="36" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C36" s="15"/>
     </row>
@@ -4678,13 +4608,13 @@
     </row>
     <row r="38" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="15"/>
     </row>
     <row r="39" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C39" s="15"/>
     </row>
@@ -4694,13 +4624,13 @@
     </row>
     <row r="41" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C41" s="15"/>
     </row>
     <row r="42" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C42" s="15"/>
     </row>
@@ -4710,13 +4640,13 @@
     </row>
     <row r="44" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="15"/>
     </row>
     <row r="45" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C45" s="15"/>
     </row>
@@ -4726,13 +4656,13 @@
     </row>
     <row r="47" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C47" s="15"/>
     </row>
     <row r="48" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C48" s="15"/>
     </row>
@@ -4742,13 +4672,13 @@
     </row>
     <row r="50" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B50" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C50" s="15"/>
     </row>
     <row r="51" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C51" s="15"/>
     </row>
@@ -4758,13 +4688,13 @@
     </row>
     <row r="53" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C53" s="15"/>
     </row>
     <row r="54" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C54" s="15"/>
     </row>
@@ -4774,13 +4704,13 @@
     </row>
     <row r="56" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B56" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C56" s="15"/>
     </row>
     <row r="57" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C57" s="15"/>
     </row>
@@ -4806,42 +4736,42 @@
   <sheetData>
     <row r="2" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4865,347 +4795,347 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="58"/>
+      <c r="B3" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
     </row>
     <row r="4" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="54"/>
+    </row>
+    <row r="5" spans="2:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="54"/>
+    </row>
+    <row r="6" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="57"/>
+    </row>
+    <row r="7" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="54"/>
+    </row>
+    <row r="8" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="51"/>
-    </row>
-    <row r="5" spans="2:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="54"/>
+    </row>
+    <row r="9" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="51"/>
-    </row>
-    <row r="6" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="59" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="54"/>
+    </row>
+    <row r="10" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="64"/>
-    </row>
-    <row r="7" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="53" t="s">
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="54"/>
+    </row>
+    <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="51"/>
-    </row>
-    <row r="8" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="51"/>
-    </row>
-    <row r="9" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="51"/>
-    </row>
-    <row r="10" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="51"/>
-    </row>
-    <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="51"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="54"/>
     </row>
     <row r="12" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="51"/>
+      <c r="B12" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="54"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="51"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="54"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="51"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="54"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="54"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="51"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="54"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="51"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="54"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="51"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="54"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="51"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="54"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="51"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="H13:O13"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
@@ -5218,18 +5148,18 @@
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5240,10 +5170,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B3:K95"/>
+  <dimension ref="B3:K83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86:K86"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5636,124 +5566,37 @@
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B81" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C86" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="D86" s="66"/>
-      <c r="E86" s="66"/>
-      <c r="F86" s="66"/>
-      <c r="G86" s="66"/>
-      <c r="H86" s="66"/>
-      <c r="I86" s="66"/>
-      <c r="J86" s="66"/>
-      <c r="K86" s="67"/>
-    </row>
-    <row r="89" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B89" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B90" s="2"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C91" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="23"/>
-      <c r="K91" s="24"/>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C92" s="25"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="26"/>
-      <c r="J92" s="26"/>
-      <c r="K92" s="27"/>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C93" s="25"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="26"/>
-      <c r="K93" s="27"/>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C94" s="25"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="26"/>
-      <c r="I94" s="26"/>
-      <c r="J94" s="26"/>
-      <c r="K94" s="27"/>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C95" s="28"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="29"/>
-      <c r="J95" s="29"/>
-      <c r="K95" s="30"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B82" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B83" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C91:K95"/>
+  <mergeCells count="7">
     <mergeCell ref="C7:K7"/>
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C86:K86"/>
     <mergeCell ref="C63:K70"/>
     <mergeCell ref="C40:K40"/>
     <mergeCell ref="C35:K35"/>

--- a/karma-ts-howto.xlsx
+++ b/karma-ts-howto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Ivy\Github\karma-typescript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Ivy\Github\karma-typescript-unms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C1FB46-1E82-4093-99BF-626E4F6C6A42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5CB349-8517-4E9F-AD6B-E330FFCEC9D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" firstSheet="2" activeTab="7" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="147">
   <si>
     <t>Prerequisite:</t>
   </si>
@@ -456,48 +456,10 @@
     <t>3. Errors "Cannot find name 'describe'." and "Cannot find name 'it'"</t>
   </si>
   <si>
-    <t>4. Cannot find name 'assert'</t>
-  </si>
-  <si>
-    <t>Import "assert" on test code.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>import assert = require('assert');</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-describe('function', function() {
-    it('will do this', function() {
-        ...
-        ...
-    }); 
-});</t>
-    </r>
-  </si>
-  <si>
-    <t>5. Error: No provider for "framework:mocha"!</t>
-  </si>
-  <si>
     <t>Install karma-mocha.</t>
   </si>
   <si>
     <t>npm install --save-dev karma-mocha</t>
-  </si>
-  <si>
-    <t>6. Error: No provider for "framework:jasmine"!</t>
   </si>
   <si>
     <t>Install karma-jasmine.</t>
@@ -737,9 +699,6 @@
   </si>
   <si>
     <t>It will open a blank page on new tab. Open Chrome Developer Tools and on Console, check what causes the error.</t>
-  </si>
-  <si>
-    <t>7. Tests are not executed when using Chrome (Executed 0 of 0 ERROR)</t>
   </si>
   <si>
     <r>
@@ -867,9 +826,6 @@
 };</t>
   </si>
   <si>
-    <t>8. Cannot find function "X"</t>
-  </si>
-  <si>
     <t>tsconfig.json</t>
   </si>
   <si>
@@ -1024,19 +980,28 @@
     <t>spy</t>
   </si>
   <si>
-    <t>9. You need to include some adapter that implements __karma__.start method!</t>
-  </si>
-  <si>
     <t>In 'include' of tsconfig.json, specify all files to be included on test.</t>
   </si>
   <si>
-    <t>10. "Error: 'exports' is undefined" when using import on test</t>
-  </si>
-  <si>
     <t>Something is wrong with the file or plugins.</t>
   </si>
   <si>
     <t>Make sure that  file is valid for testing and is in correct path and that, and necessary plugins are installed.</t>
+  </si>
+  <si>
+    <t>4. Error: No provider for "framework:mocha"!</t>
+  </si>
+  <si>
+    <t>5. Error: No provider for "framework:jasmine"!</t>
+  </si>
+  <si>
+    <t>6. Tests are not executed when using Chrome (Executed 0 of 0 ERROR)</t>
+  </si>
+  <si>
+    <t>7. Cannot find function "X"</t>
+  </si>
+  <si>
+    <t>8. You need to include some adapter that implements __karma__.start method!</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1464,6 +1429,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1473,13 +1450,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1491,26 +1477,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1520,33 +1488,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1571,13 +1512,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>541957</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>171214</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1615,13 +1556,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1681,13 +1622,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>427976</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>171381</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1725,13 +1666,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2415,7 +2356,7 @@
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -2428,7 +2369,7 @@
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D36" s="19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
@@ -2441,7 +2382,7 @@
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -2464,7 +2405,7 @@
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -2597,12 +2538,12 @@
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D65" s="22" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E65" s="23"/>
       <c r="F65" s="23"/>
@@ -2736,7 +2677,7 @@
     </row>
     <row r="78" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="3:12" x14ac:dyDescent="0.25">
@@ -2764,7 +2705,7 @@
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
@@ -2787,12 +2728,12 @@
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -2834,22 +2775,22 @@
   <sheetData>
     <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -2872,12 +2813,12 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
@@ -3119,7 +3060,7 @@
     <row r="13" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -3154,7 +3095,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="33"/>
       <c r="Q17" s="31" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="R17" s="41"/>
       <c r="S17" s="41"/>
@@ -3261,7 +3202,7 @@
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="Q24" s="31" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="R24" s="41"/>
       <c r="S24" s="41"/>
@@ -3327,7 +3268,7 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C34" s="31" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
@@ -3554,7 +3495,7 @@
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C56" s="31" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D56" s="32"/>
       <c r="E56" s="32"/>
@@ -4076,12 +4017,12 @@
     </row>
     <row r="84" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B84" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C85" s="31" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D85" s="32"/>
       <c r="E85" s="32"/>
@@ -4425,13 +4366,13 @@
   <sheetData>
     <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C2" s="15"/>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C3" s="15"/>
     </row>
@@ -4441,13 +4382,13 @@
     </row>
     <row r="5" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C5" s="15"/>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C6" s="15"/>
     </row>
@@ -4456,13 +4397,13 @@
     </row>
     <row r="8" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C8" s="15"/>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C9" s="15"/>
     </row>
@@ -4472,13 +4413,13 @@
     </row>
     <row r="11" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C11" s="15"/>
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C12" s="15"/>
     </row>
@@ -4487,13 +4428,13 @@
     </row>
     <row r="14" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C15" s="15"/>
     </row>
@@ -4502,13 +4443,13 @@
     </row>
     <row r="17" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C17" s="15"/>
     </row>
     <row r="18" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C18" s="15"/>
     </row>
@@ -4517,13 +4458,13 @@
     </row>
     <row r="20" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C21" s="15"/>
     </row>
@@ -4532,13 +4473,13 @@
     </row>
     <row r="23" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C23" s="15"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C24" s="15"/>
     </row>
@@ -4547,13 +4488,13 @@
     </row>
     <row r="26" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C26" s="15"/>
     </row>
     <row r="27" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C27" s="15"/>
     </row>
@@ -4562,13 +4503,13 @@
     </row>
     <row r="29" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C29" s="15"/>
     </row>
     <row r="30" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C30" s="15"/>
     </row>
@@ -4577,13 +4518,13 @@
     </row>
     <row r="32" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C32" s="15"/>
     </row>
     <row r="33" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C33" s="15"/>
     </row>
@@ -4592,13 +4533,13 @@
     </row>
     <row r="35" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C35" s="15"/>
     </row>
     <row r="36" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C36" s="15"/>
     </row>
@@ -4608,13 +4549,13 @@
     </row>
     <row r="38" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C38" s="15"/>
     </row>
     <row r="39" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C39" s="15"/>
     </row>
@@ -4624,13 +4565,13 @@
     </row>
     <row r="41" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C41" s="15"/>
     </row>
     <row r="42" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C42" s="15"/>
     </row>
@@ -4640,13 +4581,13 @@
     </row>
     <row r="44" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C44" s="15"/>
     </row>
     <row r="45" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C45" s="15"/>
     </row>
@@ -4656,13 +4597,13 @@
     </row>
     <row r="47" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C47" s="15"/>
     </row>
     <row r="48" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C48" s="15"/>
     </row>
@@ -4672,13 +4613,13 @@
     </row>
     <row r="50" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B50" s="16" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C50" s="15"/>
     </row>
     <row r="51" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C51" s="15"/>
     </row>
@@ -4688,13 +4629,13 @@
     </row>
     <row r="53" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C53" s="15"/>
     </row>
     <row r="54" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C54" s="15"/>
     </row>
@@ -4704,13 +4645,13 @@
     </row>
     <row r="56" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B56" s="17" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C56" s="15"/>
     </row>
     <row r="57" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C57" s="15"/>
     </row>
@@ -4736,42 +4677,42 @@
   <sheetData>
     <row r="2" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4795,335 +4736,359 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
+      <c r="B3" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="58"/>
     </row>
     <row r="4" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="51"/>
+    </row>
+    <row r="5" spans="2:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="51"/>
+    </row>
+    <row r="6" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="64"/>
+    </row>
+    <row r="7" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="51"/>
+    </row>
+    <row r="8" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="51"/>
+    </row>
+    <row r="9" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="54"/>
-    </row>
-    <row r="5" spans="2:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="51"/>
+    </row>
+    <row r="10" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="54"/>
-    </row>
-    <row r="6" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="61" t="s">
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="51"/>
+    </row>
+    <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="57"/>
-    </row>
-    <row r="7" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="54"/>
-    </row>
-    <row r="8" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="54"/>
-    </row>
-    <row r="9" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="54"/>
-    </row>
-    <row r="10" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="54"/>
-    </row>
-    <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="51"/>
     </row>
     <row r="12" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="54"/>
+      <c r="B12" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="51"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="54"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="54"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="51"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="54"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="54"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="51"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="54"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="51"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="54"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
     <mergeCell ref="H9:O9"/>
     <mergeCell ref="H10:O10"/>
     <mergeCell ref="H11:O11"/>
@@ -5136,30 +5101,6 @@
     <mergeCell ref="H18:O18"/>
     <mergeCell ref="H19:O19"/>
     <mergeCell ref="H13:O13"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="H8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5170,10 +5111,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B3:K83"/>
+  <dimension ref="B3:K70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5257,7 +5198,7 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C17" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -5270,7 +5211,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C18" s="19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -5283,324 +5224,218 @@
     </row>
     <row r="21" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="22" t="s">
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="68"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="70"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="71"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="73"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="71"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="73"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="71"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="73"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="71"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="73"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="71"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="73"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="71"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="73"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="74"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="76"/>
-    </row>
-    <row r="33" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="2" t="s">
+      <c r="C28" s="66" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="67"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-    </row>
-    <row r="38" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C40" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="67"/>
-    </row>
-    <row r="43" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B43" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="68"/>
+    </row>
+    <row r="31" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C51" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="24"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C52" s="25"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="27"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C53" s="25"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="27"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="27"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>91</v>
-      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="27"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>92</v>
+      <c r="C56" s="25"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="27"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C57" s="25"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="27"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C58" s="28"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="30"/>
+    </row>
+    <row r="61" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B61" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C63" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="24"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C64" s="25"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="27"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C65" s="25"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="27"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C66" s="25"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="27"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C67" s="25"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="27"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="27"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C69" s="25"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="27"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C70" s="28"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="30"/>
-    </row>
-    <row r="73" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B73" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B77" s="2" t="s">
+      <c r="B62" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B65" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B82" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B83" s="2"/>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B70" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="C7:K7"/>
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C63:K70"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="C35:K35"/>
-    <mergeCell ref="C23:K30"/>
+    <mergeCell ref="C51:K58"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="C23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/karma-ts-howto.xlsx
+++ b/karma-ts-howto.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Ivy\Github\karma-typescript-unms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5CB349-8517-4E9F-AD6B-E330FFCEC9D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA11F06B-0FA6-4172-9012-5764914F8EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" firstSheet="2" activeTab="7" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" firstSheet="1" activeTab="6" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
   </bookViews>
   <sheets>
     <sheet name="Installation and Configuration" sheetId="1" r:id="rId1"/>
     <sheet name="How To Generate Report" sheetId="6" r:id="rId2"/>
-    <sheet name="Modules" sheetId="14" r:id="rId3"/>
-    <sheet name="Sample Karma Test" sheetId="5" r:id="rId4"/>
-    <sheet name="Jasmine Built-In Matchers" sheetId="8" r:id="rId5"/>
-    <sheet name="Setup and Teardown" sheetId="12" r:id="rId6"/>
-    <sheet name="Scenarios" sheetId="10" r:id="rId7"/>
-    <sheet name="Errors" sheetId="7" r:id="rId8"/>
+    <sheet name="Sample Karma Test" sheetId="5" r:id="rId3"/>
+    <sheet name="Jasmine Built-In Matchers" sheetId="8" r:id="rId4"/>
+    <sheet name="Setup and Teardown" sheetId="12" r:id="rId5"/>
+    <sheet name="Scenarios" sheetId="10" r:id="rId6"/>
+    <sheet name="Errors" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="145">
   <si>
     <t>Prerequisite:</t>
   </si>
@@ -267,22 +266,6 @@
     <t>Run:</t>
   </si>
   <si>
-    <t>{
-  "name": "karma-sample",
-  "version": "1.0.0",
-  "description": "",
-  "scripts": {
-    "test": "karma start karma.conf.js"
-  },
-  "devDependencies": {
-    "jasmine-core": "^2.2.0",
-    "karma": "^0.12.31",
-    "karma-chrome-launcher": "^0.1.7",
-    "karma-jasmine": "^0.3.5"
-  }
-}</t>
-  </si>
-  <si>
     <t>npm install --save-dev karma-htmlfile-reporter</t>
   </si>
   <si>
@@ -363,15 +346,6 @@
   </si>
   <si>
     <t xml:space="preserve">     For typescript, run:</t>
-  </si>
-  <si>
-    <t>tsc -v</t>
-  </si>
-  <si>
-    <t>The version of typescript will be displayed.</t>
-  </si>
-  <si>
-    <t>Version 3.8.3</t>
   </si>
   <si>
     <t>tsc --init</t>
@@ -472,30 +446,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">You can also get test coverage using </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>karma-typescript</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> with Istanbul.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">To run tests written in Typescript, install </t>
     </r>
     <r>
@@ -569,21 +519,6 @@
       </rPr>
       <t>:</t>
     </r>
-  </si>
-  <si>
-    <t>module.exports = function(config) {
-    config.set({
-        frameworks: ["jasmine", "karma-typescript"],
-        files: [
-            "src/*.ts"
-        ],
-        preprocessors: {
-            "**/*.ts": "karma-typescript"
-        },
-        reporters: ["progress", "karma-typescript"],
-        browsers: ["Chrome"]
-    });
-};</t>
   </si>
   <si>
     <t>Using the above karma.conf.js file, all Typescript files will be compiled, run unit test, and</t>
@@ -772,6 +707,235 @@
 });</t>
   </si>
   <si>
+    <t>tsconfig.json</t>
+  </si>
+  <si>
+    <t>expect(array).toContain(member);</t>
+  </si>
+  <si>
+    <t>expect(fn).toThrow(string);</t>
+  </si>
+  <si>
+    <t>expect(fn).toThrowError(string);</t>
+  </si>
+  <si>
+    <t>expect(instance).toBe(instance);</t>
+  </si>
+  <si>
+    <t>expect(mixed).toBeDefined();</t>
+  </si>
+  <si>
+    <t>expect(mixed).toBeFalsy();</t>
+  </si>
+  <si>
+    <t>expect(mixed).toBeNull();</t>
+  </si>
+  <si>
+    <t>expect(mixed).toBeTruthy();</t>
+  </si>
+  <si>
+    <t>expect(mixed).toBeUndefined();</t>
+  </si>
+  <si>
+    <t>expect(mixed).toEqual(mixed);</t>
+  </si>
+  <si>
+    <t>expect(mixed).toMatch(pattern);</t>
+  </si>
+  <si>
+    <t>expect(number).toBeCloseTo(number, decimalPlaces);</t>
+  </si>
+  <si>
+    <t>expect(number).toBeGreaterThan(number);</t>
+  </si>
+  <si>
+    <t>expect(number).toBeLessThan(number);</t>
+  </si>
+  <si>
+    <t>expect(number).toBeNaN();</t>
+  </si>
+  <si>
+    <t>expect(spy).toHaveBeenCalled();</t>
+  </si>
+  <si>
+    <t>expect(spy).toHaveBeenCalledTimes(number);</t>
+  </si>
+  <si>
+    <t>expect(spy).toHaveBeenCalledWith(...arguments);</t>
+  </si>
+  <si>
+    <t>expect(document).toHaveClass(class);</t>
+  </si>
+  <si>
+    <t>Access ts file</t>
+  </si>
+  <si>
+    <t>Access function inside ts</t>
+  </si>
+  <si>
+    <t>Enums</t>
+  </si>
+  <si>
+    <t>Getter/Setter</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Sample Files</t>
+  </si>
+  <si>
+    <t>beforeAll()</t>
+  </si>
+  <si>
+    <t>beforeEach()</t>
+  </si>
+  <si>
+    <t>afterAll()</t>
+  </si>
+  <si>
+    <t>afterEach()</t>
+  </si>
+  <si>
+    <t>afterAll is called once, after all the specs  in describe function are run.</t>
+  </si>
+  <si>
+    <t>beforeEach is called before each test specification in it function is run.</t>
+  </si>
+  <si>
+    <t>afterEach is called after each test specification in it function is run.</t>
+  </si>
+  <si>
+    <t>beforeAll is called once, before all the specs in describe function are run.</t>
+  </si>
+  <si>
+    <t>Expect the actual value to match a regular expression.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Expect the actual value to match a regular expression.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Expect the actual value to be a DOM element that has the expected class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Expect the actual value to be `===` to the expected value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Expect the actual value to be equal to the expected, using deep equality comparison.</t>
+  </si>
+  <si>
+    <t>src/src/src.ts
+src/src/src2.ts
+test/src.ts</t>
+  </si>
+  <si>
+    <t>scr/src/enums.ts
+scr/src/enums2.ts
+test/enums.ts</t>
+  </si>
+  <si>
+    <t>src/src/getter-setter.ts
+test/getter-setter.ts</t>
+  </si>
+  <si>
+    <t>src/src/spy-on.ts
+test/spy-on.ts</t>
+  </si>
+  <si>
+    <t>spy</t>
+  </si>
+  <si>
+    <t>In 'include' of tsconfig.json, specify all files to be included on test.</t>
+  </si>
+  <si>
+    <t>Something is wrong with the file or plugins.</t>
+  </si>
+  <si>
+    <t>Make sure that  file is valid for testing and is in correct path and that, and necessary plugins are installed.</t>
+  </si>
+  <si>
+    <t>4. Error: No provider for "framework:mocha"!</t>
+  </si>
+  <si>
+    <t>5. Error: No provider for "framework:jasmine"!</t>
+  </si>
+  <si>
+    <t>6. Tests are not executed when using Chrome (Executed 0 of 0 ERROR)</t>
+  </si>
+  <si>
+    <t>7. Cannot find function "X"</t>
+  </si>
+  <si>
+    <t>8. You need to include some adapter that implements __karma__.start method!</t>
+  </si>
+  <si>
+    <t>{
+  "name": "karma-sample",
+  "version": "1.0.0",
+  "description": "",
+  "scripts": {
+    "test": "karma start karma.conf.js"
+  },
+  "devDependencies": {
+    "@types/jasmine": "^3.4.0",
+    "@types/node": "^13.11.0",
+    "jasmine-core": "^3.4.0",
+    "karma": "^4.3.0",
+    "karma-chrome-launcher": "^3.1.0",
+    "karma-htmlfile-reporter": "^0.3.8",
+    "karma-ie-launcher": "^1.0.0",
+    "karma-jasmine": "^2.0.1",
+    "karma-spec-reporter": "0.0.32",
+    "karma-typescript": "^5.0.2",
+    "typescript": "^2.8.3"
+  }
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You can also get test coverage automatically using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>karma-typescript</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with Istanbul.</t>
+    </r>
+  </si>
+  <si>
+    <t>tsc</t>
+  </si>
+  <si>
+    <t>module.exports = function(config) {
+    config.set({
+        frameworks: ["jasmine", "karma-typescript"],
+        files: [
+            "src/*.ts",
+            "test/*.ts"
+        ],
+        preprocessors: {
+            "src/*.ts": ["karma-typescript"],
+            "test/*.ts: [karma-typescript"]
+        },
+        reporters: ["progress", "karma-typescript"],
+        browsers: ["Chrome"]
+    });
+};</t>
+  </si>
+  <si>
     <t>{
   "name": "sample-karma-ts-test",
   "version": "1.0.0",
@@ -785,7 +949,6 @@
     "jasmine-core": "^3.4.0",
     "karma": "^4.3.0",
     "karma-chrome-launcher": "^3.1.0",
-    "karma-cli": "^2.0.0",
     "karma-htmlfile-reporter": "^0.3.8",
     "karma-ie-launcher": "^1.0.0",
     "karma-jasmine": "^2.0.1",
@@ -803,7 +966,8 @@
             { pattern: "test/*.ts"}
         ],
         preprocessors: {
-            "./src/*.ts": ["karma-typescript"]
+            "./src/*.ts": ["karma-typescript"],
+            "./test/*.ts": ["karma-typescript"]
         },
         reporters: ["progress", "html", "karma-typescript"],
         htmlReporter: {
@@ -826,9 +990,6 @@
 };</t>
   </si>
   <si>
-    <t>tsconfig.json</t>
-  </si>
-  <si>
     <t>{
   "compileOnSave": false,
   "compilerOptions": {
@@ -838,170 +999,11 @@
      "forceConsistentCasingInFileNames": true
   },
   "include": [
-     "./src/*.ts",
-     "test/src.ts"
+     "src/*.ts",
+     "test/*.ts"
   ],
-  "exclude": ["node_modules", "coverage"]
+  "exclude": ["node_modules"]
 }</t>
-  </si>
-  <si>
-    <t>expect(array).toContain(member);</t>
-  </si>
-  <si>
-    <t>expect(fn).toThrow(string);</t>
-  </si>
-  <si>
-    <t>expect(fn).toThrowError(string);</t>
-  </si>
-  <si>
-    <t>expect(instance).toBe(instance);</t>
-  </si>
-  <si>
-    <t>expect(mixed).toBeDefined();</t>
-  </si>
-  <si>
-    <t>expect(mixed).toBeFalsy();</t>
-  </si>
-  <si>
-    <t>expect(mixed).toBeNull();</t>
-  </si>
-  <si>
-    <t>expect(mixed).toBeTruthy();</t>
-  </si>
-  <si>
-    <t>expect(mixed).toBeUndefined();</t>
-  </si>
-  <si>
-    <t>expect(mixed).toEqual(mixed);</t>
-  </si>
-  <si>
-    <t>expect(mixed).toMatch(pattern);</t>
-  </si>
-  <si>
-    <t>expect(number).toBeCloseTo(number, decimalPlaces);</t>
-  </si>
-  <si>
-    <t>expect(number).toBeGreaterThan(number);</t>
-  </si>
-  <si>
-    <t>expect(number).toBeLessThan(number);</t>
-  </si>
-  <si>
-    <t>expect(number).toBeNaN();</t>
-  </si>
-  <si>
-    <t>expect(spy).toHaveBeenCalled();</t>
-  </si>
-  <si>
-    <t>expect(spy).toHaveBeenCalledTimes(number);</t>
-  </si>
-  <si>
-    <t>expect(spy).toHaveBeenCalledWith(...arguments);</t>
-  </si>
-  <si>
-    <t>expect(document).toHaveClass(class);</t>
-  </si>
-  <si>
-    <t>Access ts file</t>
-  </si>
-  <si>
-    <t>Access function inside ts</t>
-  </si>
-  <si>
-    <t>Enums</t>
-  </si>
-  <si>
-    <t>Getter/Setter</t>
-  </si>
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
-    <t>Sample Files</t>
-  </si>
-  <si>
-    <t>beforeAll()</t>
-  </si>
-  <si>
-    <t>beforeEach()</t>
-  </si>
-  <si>
-    <t>afterAll()</t>
-  </si>
-  <si>
-    <t>afterEach()</t>
-  </si>
-  <si>
-    <t>afterAll is called once, after all the specs  in describe function are run.</t>
-  </si>
-  <si>
-    <t>beforeEach is called before each test specification in it function is run.</t>
-  </si>
-  <si>
-    <t>afterEach is called after each test specification in it function is run.</t>
-  </si>
-  <si>
-    <t>beforeAll is called once, before all the specs in describe function are run.</t>
-  </si>
-  <si>
-    <t>Expect the actual value to match a regular expression.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Expect the actual value to match a regular expression.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Expect the actual value to be a DOM element that has the expected class.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Expect the actual value to be `===` to the expected value.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Expect the actual value to be equal to the expected, using deep equality comparison.</t>
-  </si>
-  <si>
-    <t>src/src/src.ts
-src/src/src2.ts
-test/src.ts</t>
-  </si>
-  <si>
-    <t>scr/src/enums.ts
-scr/src/enums2.ts
-test/enums.ts</t>
-  </si>
-  <si>
-    <t>src/src/getter-setter.ts
-test/getter-setter.ts</t>
-  </si>
-  <si>
-    <t>src/src/spy-on.ts
-test/spy-on.ts</t>
-  </si>
-  <si>
-    <t>spy</t>
-  </si>
-  <si>
-    <t>In 'include' of tsconfig.json, specify all files to be included on test.</t>
-  </si>
-  <si>
-    <t>Something is wrong with the file or plugins.</t>
-  </si>
-  <si>
-    <t>Make sure that  file is valid for testing and is in correct path and that, and necessary plugins are installed.</t>
-  </si>
-  <si>
-    <t>4. Error: No provider for "framework:mocha"!</t>
-  </si>
-  <si>
-    <t>5. Error: No provider for "framework:jasmine"!</t>
-  </si>
-  <si>
-    <t>6. Tests are not executed when using Chrome (Executed 0 of 0 ERROR)</t>
-  </si>
-  <si>
-    <t>7. Cannot find function "X"</t>
-  </si>
-  <si>
-    <t>8. You need to include some adapter that implements __karma__.start method!</t>
   </si>
 </sst>
 </file>
@@ -1429,6 +1431,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1438,16 +1449,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1468,13 +1476,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2051,10 +2053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2654A1-97C9-4994-AFAB-B0BA5D559350}">
-  <dimension ref="B2:L89"/>
+  <dimension ref="B2:L94"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2085,7 +2087,7 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D8" s="20" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
@@ -2240,136 +2242,128 @@
       <c r="L21" s="21"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="D23" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+      <c r="D29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="D24" t="s">
+    <row r="30" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+      <c r="D30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-      <c r="D25" s="19" t="s">
+    <row r="31" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+      <c r="D31" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-    </row>
-    <row r="26" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="D26" t="s">
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+    </row>
+    <row r="32" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="D32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
-      <c r="D27" t="s">
+    <row r="33" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="D33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D30" s="19" t="s">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D36" s="19" t="s">
         <v>21</v>
-      </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D33" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D36" s="19" t="s">
-        <v>68</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
@@ -2380,10 +2374,8 @@
       <c r="K36" s="19"/>
       <c r="L36" s="19"/>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>69</v>
-      </c>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -2393,7 +2385,10 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -2403,68 +2398,105 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D39" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D42" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D43" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-    </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D46" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-    </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D49" s="19" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
@@ -2477,12 +2509,12 @@
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D52" s="19" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
@@ -2493,101 +2525,87 @@
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
     </row>
-    <row r="55" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B55" s="2" t="s">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D55" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+    </row>
+    <row r="56" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B58" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D58" s="19" t="s">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D61" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>10</v>
-      </c>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D65" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="24"/>
-    </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D66" s="25"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="27"/>
-    </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D67" s="25"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="26"/>
-      <c r="L67" s="27"/>
-    </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D68" s="25"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="26"/>
-      <c r="L68" s="27"/>
-    </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D68" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="24"/>
+    </row>
+    <row r="69" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D69" s="25"/>
       <c r="E69" s="26"/>
       <c r="F69" s="26"/>
@@ -2598,7 +2616,7 @@
       <c r="K69" s="26"/>
       <c r="L69" s="27"/>
     </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D70" s="25"/>
       <c r="E70" s="26"/>
       <c r="F70" s="26"/>
@@ -2609,7 +2627,7 @@
       <c r="K70" s="26"/>
       <c r="L70" s="27"/>
     </row>
-    <row r="71" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D71" s="25"/>
       <c r="E71" s="26"/>
       <c r="F71" s="26"/>
@@ -2620,7 +2638,7 @@
       <c r="K71" s="26"/>
       <c r="L71" s="27"/>
     </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D72" s="25"/>
       <c r="E72" s="26"/>
       <c r="F72" s="26"/>
@@ -2631,7 +2649,7 @@
       <c r="K72" s="26"/>
       <c r="L72" s="27"/>
     </row>
-    <row r="73" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D73" s="25"/>
       <c r="E73" s="26"/>
       <c r="F73" s="26"/>
@@ -2642,7 +2660,7 @@
       <c r="K73" s="26"/>
       <c r="L73" s="27"/>
     </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D74" s="25"/>
       <c r="E74" s="26"/>
       <c r="F74" s="26"/>
@@ -2653,7 +2671,7 @@
       <c r="K74" s="26"/>
       <c r="L74" s="27"/>
     </row>
-    <row r="75" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D75" s="25"/>
       <c r="E75" s="26"/>
       <c r="F75" s="26"/>
@@ -2664,53 +2682,80 @@
       <c r="K75" s="26"/>
       <c r="L75" s="27"/>
     </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D76" s="28"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="29"/>
-      <c r="L76" s="30"/>
-    </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D79" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-    </row>
-    <row r="80" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
-        <v>59</v>
-      </c>
+    <row r="76" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D76" s="25"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="27"/>
+    </row>
+    <row r="77" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D77" s="25"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="27"/>
+    </row>
+    <row r="78" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D78" s="25"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="27"/>
+    </row>
+    <row r="79" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D79" s="25"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="27"/>
+    </row>
+    <row r="80" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D80" s="25"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="27"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
-        <v>60</v>
-      </c>
+      <c r="D81" s="28"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="30"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D84" s="19" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E84" s="19"/>
       <c r="F84" s="19"/>
@@ -2723,37 +2768,64 @@
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D89" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="19"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B89" s="2"/>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B94" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="D79:L79"/>
+  <mergeCells count="12">
     <mergeCell ref="D84:L84"/>
-    <mergeCell ref="D8:L21"/>
-    <mergeCell ref="D30:L30"/>
-    <mergeCell ref="D43:L43"/>
-    <mergeCell ref="D46:L46"/>
-    <mergeCell ref="D58:L58"/>
-    <mergeCell ref="D25:L25"/>
-    <mergeCell ref="D33:L33"/>
+    <mergeCell ref="D89:L89"/>
+    <mergeCell ref="D8:L27"/>
+    <mergeCell ref="D36:L36"/>
     <mergeCell ref="D49:L49"/>
     <mergeCell ref="D52:L52"/>
-    <mergeCell ref="D65:L76"/>
-    <mergeCell ref="D36:L36"/>
+    <mergeCell ref="D61:L61"/>
+    <mergeCell ref="D31:L31"/>
+    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="D55:L55"/>
+    <mergeCell ref="D68:L81"/>
+    <mergeCell ref="D42:L42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2764,8 +2836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC732316-EC1A-4386-A955-03D9EA5A8CC0}">
   <dimension ref="B2:J23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2775,22 +2847,22 @@
   <sheetData>
     <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -2800,7 +2872,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -2813,12 +2885,12 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
@@ -2960,33 +3032,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FED496-7668-4F1A-8769-7E2C63429FA0}">
-  <dimension ref="B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6C7849-FFE0-44AA-A86A-9E4A7026ED91}">
+  <dimension ref="B2:Y115"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="4" width="3.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6C7849-FFE0-44AA-A86A-9E4A7026ED91}">
-  <dimension ref="B2:Y114"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86:K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2998,7 +3048,7 @@
   <sheetData>
     <row r="2" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -3006,7 +3056,7 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -3030,7 +3080,7 @@
     <row r="8" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -3060,7 +3110,7 @@
     <row r="13" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -3068,10 +3118,10 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3079,12 +3129,12 @@
         <v>24</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
@@ -3095,7 +3145,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="33"/>
       <c r="Q17" s="31" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="R17" s="41"/>
       <c r="S17" s="41"/>
@@ -3202,7 +3252,7 @@
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="Q24" s="31" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="R24" s="41"/>
       <c r="S24" s="41"/>
@@ -3258,7 +3308,7 @@
     </row>
     <row r="31" spans="2:25" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
@@ -3268,7 +3318,7 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C34" s="31" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
@@ -3495,7 +3545,7 @@
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C56" s="31" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="D56" s="32"/>
       <c r="E56" s="32"/>
@@ -3996,15 +4046,15 @@
       <c r="V80" s="13"/>
     </row>
     <row r="81" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C81" s="37"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="38"/>
-      <c r="J81" s="38"/>
-      <c r="K81" s="39"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="40"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="36"/>
       <c r="N81" s="13"/>
       <c r="O81" s="13"/>
       <c r="P81" s="13"/>
@@ -4015,34 +4065,43 @@
       <c r="U81" s="13"/>
       <c r="V81" s="13"/>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B84" s="4" t="s">
-        <v>94</v>
-      </c>
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C82" s="37"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
+      <c r="J82" s="38"/>
+      <c r="K82" s="39"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="13"/>
+      <c r="R82" s="13"/>
+      <c r="S82" s="13"/>
+      <c r="T82" s="13"/>
+      <c r="U82" s="13"/>
+      <c r="V82" s="13"/>
     </row>
     <row r="85" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C85" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D85" s="32"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="32"/>
-      <c r="J85" s="32"/>
-      <c r="K85" s="33"/>
+      <c r="B85" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="86" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C86" s="34"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="40"/>
-      <c r="K86" s="36"/>
+      <c r="C86" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="32"/>
+      <c r="K86" s="33"/>
     </row>
     <row r="87" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C87" s="34"/>
@@ -4155,50 +4214,47 @@
       <c r="K96" s="36"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C97" s="37"/>
-      <c r="D97" s="38"/>
-      <c r="E97" s="38"/>
-      <c r="F97" s="38"/>
-      <c r="G97" s="38"/>
-      <c r="H97" s="38"/>
-      <c r="I97" s="38"/>
-      <c r="J97" s="38"/>
-      <c r="K97" s="39"/>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B100" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D101" s="41"/>
-      <c r="E101" s="41"/>
-      <c r="F101" s="41"/>
-      <c r="G101" s="41"/>
-      <c r="H101" s="41"/>
-      <c r="I101" s="41"/>
-      <c r="J101" s="41"/>
-      <c r="K101" s="41"/>
-      <c r="L101" s="41"/>
-      <c r="M101" s="41"/>
-      <c r="N101" s="42"/>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C102" s="43"/>
-      <c r="D102" s="44"/>
-      <c r="E102" s="44"/>
-      <c r="F102" s="44"/>
-      <c r="G102" s="44"/>
-      <c r="H102" s="44"/>
-      <c r="I102" s="44"/>
-      <c r="J102" s="44"/>
-      <c r="K102" s="44"/>
-      <c r="L102" s="44"/>
-      <c r="M102" s="44"/>
-      <c r="N102" s="45"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="40"/>
+      <c r="G97" s="40"/>
+      <c r="H97" s="40"/>
+      <c r="I97" s="40"/>
+      <c r="J97" s="40"/>
+      <c r="K97" s="36"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C98" s="37"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="38"/>
+      <c r="F98" s="38"/>
+      <c r="G98" s="38"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="38"/>
+      <c r="J98" s="38"/>
+      <c r="K98" s="39"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C102" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" s="41"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="41"/>
+      <c r="G102" s="41"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="41"/>
+      <c r="K102" s="41"/>
+      <c r="L102" s="41"/>
+      <c r="M102" s="41"/>
+      <c r="N102" s="42"/>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C103" s="43"/>
@@ -4313,49 +4369,63 @@
       <c r="N110" s="45"/>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C111" s="46"/>
-      <c r="D111" s="47"/>
-      <c r="E111" s="47"/>
-      <c r="F111" s="47"/>
-      <c r="G111" s="47"/>
-      <c r="H111" s="47"/>
-      <c r="I111" s="47"/>
-      <c r="J111" s="47"/>
-      <c r="K111" s="47"/>
-      <c r="L111" s="47"/>
-      <c r="M111" s="47"/>
-      <c r="N111" s="48"/>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
-        <v>35</v>
-      </c>
+      <c r="C111" s="43"/>
+      <c r="D111" s="44"/>
+      <c r="E111" s="44"/>
+      <c r="F111" s="44"/>
+      <c r="G111" s="44"/>
+      <c r="H111" s="44"/>
+      <c r="I111" s="44"/>
+      <c r="J111" s="44"/>
+      <c r="K111" s="44"/>
+      <c r="L111" s="44"/>
+      <c r="M111" s="44"/>
+      <c r="N111" s="45"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C112" s="46"/>
+      <c r="D112" s="47"/>
+      <c r="E112" s="47"/>
+      <c r="F112" s="47"/>
+      <c r="G112" s="47"/>
+      <c r="H112" s="47"/>
+      <c r="I112" s="47"/>
+      <c r="J112" s="47"/>
+      <c r="K112" s="47"/>
+      <c r="L112" s="47"/>
+      <c r="M112" s="47"/>
+      <c r="N112" s="48"/>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C34:K52"/>
-    <mergeCell ref="C56:K81"/>
+    <mergeCell ref="C56:K82"/>
     <mergeCell ref="C17:K21"/>
-    <mergeCell ref="C101:N111"/>
+    <mergeCell ref="C102:N112"/>
     <mergeCell ref="Q24:X28"/>
     <mergeCell ref="Q17:X20"/>
-    <mergeCell ref="C85:K97"/>
+    <mergeCell ref="C86:K98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40F97C8-ED93-460E-942E-2A1CEB57E2D4}">
   <dimension ref="B2:C57"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView showGridLines="0" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86:K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4366,13 +4436,13 @@
   <sheetData>
     <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C2" s="15"/>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C3" s="15"/>
     </row>
@@ -4382,13 +4452,13 @@
     </row>
     <row r="5" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C5" s="15"/>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C6" s="15"/>
     </row>
@@ -4397,13 +4467,13 @@
     </row>
     <row r="8" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C8" s="15"/>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C9" s="15"/>
     </row>
@@ -4413,13 +4483,13 @@
     </row>
     <row r="11" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C11" s="15"/>
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C12" s="15"/>
     </row>
@@ -4428,13 +4498,13 @@
     </row>
     <row r="14" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C15" s="15"/>
     </row>
@@ -4443,13 +4513,13 @@
     </row>
     <row r="17" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C17" s="15"/>
     </row>
     <row r="18" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C18" s="15"/>
     </row>
@@ -4458,13 +4528,13 @@
     </row>
     <row r="20" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C21" s="15"/>
     </row>
@@ -4473,13 +4543,13 @@
     </row>
     <row r="23" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C23" s="15"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C24" s="15"/>
     </row>
@@ -4488,13 +4558,13 @@
     </row>
     <row r="26" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C26" s="15"/>
     </row>
     <row r="27" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C27" s="15"/>
     </row>
@@ -4503,13 +4573,13 @@
     </row>
     <row r="29" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C29" s="15"/>
     </row>
     <row r="30" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C30" s="15"/>
     </row>
@@ -4518,13 +4588,13 @@
     </row>
     <row r="32" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C32" s="15"/>
     </row>
     <row r="33" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C33" s="15"/>
     </row>
@@ -4533,13 +4603,13 @@
     </row>
     <row r="35" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C35" s="15"/>
     </row>
     <row r="36" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C36" s="15"/>
     </row>
@@ -4549,13 +4619,13 @@
     </row>
     <row r="38" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C38" s="15"/>
     </row>
     <row r="39" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C39" s="15"/>
     </row>
@@ -4565,13 +4635,13 @@
     </row>
     <row r="41" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C41" s="15"/>
     </row>
     <row r="42" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C42" s="15"/>
     </row>
@@ -4581,13 +4651,13 @@
     </row>
     <row r="44" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C44" s="15"/>
     </row>
     <row r="45" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C45" s="15"/>
     </row>
@@ -4597,13 +4667,13 @@
     </row>
     <row r="47" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C47" s="15"/>
     </row>
     <row r="48" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C48" s="15"/>
     </row>
@@ -4613,13 +4683,13 @@
     </row>
     <row r="50" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B50" s="16" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C50" s="15"/>
     </row>
     <row r="51" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C51" s="15"/>
     </row>
@@ -4629,13 +4699,13 @@
     </row>
     <row r="53" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C53" s="15"/>
     </row>
     <row r="54" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C54" s="15"/>
     </row>
@@ -4645,13 +4715,13 @@
     </row>
     <row r="56" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B56" s="17" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C56" s="15"/>
     </row>
     <row r="57" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C57" s="15"/>
     </row>
@@ -4661,12 +4731,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6F8958-2F95-49C1-8009-4AC1EF4057B6}">
   <dimension ref="B2:B12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C86" sqref="C86:K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4677,42 +4747,42 @@
   <sheetData>
     <row r="2" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4721,12 +4791,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E0E377-564D-400F-9C64-76E2C90BAC72}">
   <dimension ref="B3:O20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:O8"/>
+      <selection activeCell="H6" sqref="H6:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4736,347 +4806,347 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="58"/>
+      <c r="B3" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
     </row>
     <row r="4" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="54"/>
+    </row>
+    <row r="5" spans="2:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="54"/>
+    </row>
+    <row r="6" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="57"/>
+    </row>
+    <row r="7" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="54"/>
+    </row>
+    <row r="8" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="54"/>
+    </row>
+    <row r="9" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="54"/>
+    </row>
+    <row r="10" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="54"/>
+    </row>
+    <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="51"/>
-    </row>
-    <row r="5" spans="2:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="51"/>
-    </row>
-    <row r="6" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="64"/>
-    </row>
-    <row r="7" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="51"/>
-    </row>
-    <row r="8" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="51"/>
-    </row>
-    <row r="9" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="51"/>
-    </row>
-    <row r="10" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="51"/>
-    </row>
-    <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="51"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="54"/>
     </row>
     <row r="12" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="51"/>
+      <c r="B12" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="54"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="51"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="54"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="51"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="54"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="54"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="51"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="54"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="51"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="54"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="51"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="54"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="51"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="54"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="51"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="H13:O13"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
@@ -5089,31 +5159,31 @@
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA760E5-4801-49BB-909C-AFBE39FCD389}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="B3:K70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
@@ -5125,22 +5195,22 @@
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -5165,27 +5235,27 @@
     <row r="9" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C16" s="19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -5198,7 +5268,7 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C17" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -5211,7 +5281,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C18" s="19" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -5224,17 +5294,17 @@
     </row>
     <row r="21" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C23" s="66" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D23" s="67"/>
       <c r="E23" s="67"/>
@@ -5269,17 +5339,17 @@
     </row>
     <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C28" s="66" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D28" s="67"/>
       <c r="E28" s="67"/>
@@ -5292,27 +5362,27 @@
     </row>
     <row r="31" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C51" s="65" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D51" s="23"/>
       <c r="E51" s="23"/>
@@ -5402,27 +5472,27 @@
     </row>
     <row r="61" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
